--- a/data_collection/database_design.xlsx
+++ b/data_collection/database_design.xlsx
@@ -4,12 +4,13 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Main View" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="CS, ID 1" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Major Table" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Bucket Table" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Course Table" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="PreReq Table" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="Student Academic History" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="Major Table" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Bucket Table" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Course Table" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="PreReq Table" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Student Academic History" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="CS, ID 1" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="CBE, ID 7" sheetId="8" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="217">
   <si>
     <t>Major ID</t>
   </si>
@@ -73,6 +74,595 @@
     <t>do not manually write in here</t>
   </si>
   <si>
+    <t>Major Description</t>
+  </si>
+  <si>
+    <t>Computer Science is the systematic study of algorithmic processes that describe and transform information: their theory, analysis, design, efficiency, implementation, and application. The fundamental question underlying all of computing is: What can efficiently be automated? Computer Science is far more than programming. It incorporates the paradigms of theory (mathematical), abstraction (experimental), and design (engineering) within many topic areas</t>
+  </si>
+  <si>
+    <t>CSE?</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>Electrical Engineering</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>Aerospace Engineering</t>
+  </si>
+  <si>
+    <t>Aerospace engineering uses the basic sciences and mathematics to develop the foundation for the design, development, production, testing, and applied research associated with aerospace vehicles. These vehicles include aircraft, spacecraft, and missiles.</t>
+  </si>
+  <si>
+    <t>BME</t>
+  </si>
+  <si>
+    <t>Biomedical Engineering</t>
+  </si>
+  <si>
+    <t>BSE</t>
+  </si>
+  <si>
+    <t>Biosystems Engineering</t>
+  </si>
+  <si>
+    <t>CBE</t>
+  </si>
+  <si>
+    <t>Chemical Engineering</t>
+  </si>
+  <si>
+    <t>Chemical Engineers utilize chemistry, physics, and math to develop and design chemical manufacturing processes.</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>Industrial Engineering</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>Mechanical Engineering</t>
+  </si>
+  <si>
+    <t>Mechanical engineering involves the design, analysis, testing, and manufacture of mechanical and thermal systems. Mechanical engineers are employed in nearly every industry, from basic research through mass production of energy systems, computer software/hardware, robotics, and vehicles of all kinds.</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>Nuclear Engineering</t>
+  </si>
+  <si>
+    <t>Civil Engineering</t>
+  </si>
+  <si>
+    <t>MSE</t>
+  </si>
+  <si>
+    <t>Material Science &amp; Engineering</t>
+  </si>
+  <si>
+    <t>ENVE</t>
+  </si>
+  <si>
+    <t>Environmental Engineering</t>
+  </si>
+  <si>
+    <t>Bucket ID</t>
+  </si>
+  <si>
+    <t>Bucket Name</t>
+  </si>
+  <si>
+    <t>Course Names</t>
+  </si>
+  <si>
+    <t>Bucket Number of Hours</t>
+  </si>
+  <si>
+    <t>Course IDs (code will populate)</t>
+  </si>
+  <si>
+    <t>COSC Term 1 MATH</t>
+  </si>
+  <si>
+    <t>MATH 130; MATH 131</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>EF 152/158</t>
+  </si>
+  <si>
+    <t>EF 152; EF 158</t>
+  </si>
+  <si>
+    <t>Calc 2</t>
+  </si>
+  <si>
+    <t>MATH 142; MATH 148</t>
+  </si>
+  <si>
+    <t>Matrix Alg. 1</t>
+  </si>
+  <si>
+    <t>MATH 251; MATH 257</t>
+  </si>
+  <si>
+    <t>COSC Natural Science</t>
+  </si>
+  <si>
+    <t>BIOL 101; BIOL 104; BIOL 150; BIOL 158; PHYS 231; CHEM 128; CHEM 102; CHEM 103; CHEM 122; CHEM 123</t>
+  </si>
+  <si>
+    <t>Algorithms</t>
+  </si>
+  <si>
+    <t>COSC 302; COSC 307</t>
+  </si>
+  <si>
+    <t>Systems Programming</t>
+  </si>
+  <si>
+    <t>COSC 360; COSC 367</t>
+  </si>
+  <si>
+    <t>Probability and Random Vars</t>
+  </si>
+  <si>
+    <t>ECE 313; ECE 317; STAT 251; MATH 323</t>
+  </si>
+  <si>
+    <t>COSC Upper Division Electives</t>
+  </si>
+  <si>
+    <t>COSC 325; COSC 361; COSC 362; COSC 366</t>
+  </si>
+  <si>
+    <t>Technical Writing</t>
+  </si>
+  <si>
+    <t>ENGL 355; ENGL 360</t>
+  </si>
+  <si>
+    <t>Course ID</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>Course Name</t>
+  </si>
+  <si>
+    <t>Course Hours</t>
+  </si>
+  <si>
+    <t>Course Description</t>
+  </si>
+  <si>
+    <t>MATH 141</t>
+  </si>
+  <si>
+    <t>Calculus I</t>
+  </si>
+  <si>
+    <t>Single variable calculus especially for students of science, engineering, mathematics, and computer science. Differential calculus with applications.</t>
+  </si>
+  <si>
+    <t>MATH 147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honors Calculus I </t>
+  </si>
+  <si>
+    <t>Honors version of 141 for well-prepared students.</t>
+  </si>
+  <si>
+    <t>EF 141</t>
+  </si>
+  <si>
+    <t>Engineering Fundamentals I</t>
+  </si>
+  <si>
+    <t>EF 151</t>
+  </si>
+  <si>
+    <t>Engineering Fundamentals</t>
+  </si>
+  <si>
+    <t>EF 157</t>
+  </si>
+  <si>
+    <t>Honors Engineering Fundamentals I</t>
+  </si>
+  <si>
+    <t>EF 105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer Methods in Engineering Problem Solving </t>
+  </si>
+  <si>
+    <t>Introduction to computer applications used in engineering problem solving and communications. Introduction to programming concepts, including conditional statements and looping, and the development and implementation of logic flow diagrams.</t>
+  </si>
+  <si>
+    <t>CHEM 122</t>
+  </si>
+  <si>
+    <t>General Chemistry</t>
+  </si>
+  <si>
+    <t>A general course in theoretical and descriptive chemistry. Modern atomic theory, chemical bonding, molecular structures and geometries, stoichiometry, and quantitative aspects of solution chemistry, gas laws, and chemical energy.</t>
+  </si>
+  <si>
+    <t>CHEM 123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General Chemistry Lab </t>
+  </si>
+  <si>
+    <t>CHEM 128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honors General Chemistry </t>
+  </si>
+  <si>
+    <t>A sophisticated treatment of the principles of chemistry designed for students who are well prepared for a thorough and systematic study of chemistry. Topics include atomic structure and bonding, molecular structure, spectroscopy, chemical reactions and stoichiometry, introduction to organic compounds and reactions, intermolecular forces and phase transitions, behavior of gases.</t>
+  </si>
+  <si>
+    <t>CHEM 132</t>
+  </si>
+  <si>
+    <t>General Chemistry 2</t>
+  </si>
+  <si>
+    <t>A general course in theoretical and descriptive chemistry. Intermolecular forces, kinetics, chemical equilibria, acid and base chemistry, thermodynamics, electrochemistry, and introduction to coordination chemistry.</t>
+  </si>
+  <si>
+    <t>CHEM 133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General Chemistry 2 Lab </t>
+  </si>
+  <si>
+    <t>CHEM 138</t>
+  </si>
+  <si>
+    <t>Honors General Chemistry 2</t>
+  </si>
+  <si>
+    <t>A sophisticated treatment of the principles of chemistry designed for students who are well prepared for a thorough and systematic study of chemistry. Topics include chemical equilibrium, thermodynamics, kinetics, transition metal complexes, and nuclear chemistry.</t>
+  </si>
+  <si>
+    <t>EF 152</t>
+  </si>
+  <si>
+    <t>Physics for Engineers 2</t>
+  </si>
+  <si>
+    <t>Calculus-based study of basic physics concepts, including rotational dynamics, statics, oscillations, waves, fluids, heat and temperature, first and second law of thermodynamics and electricity and magnetism. Introduction to team work. Introduction to the engineering disciplines, examination of engineering principles and design issues. Oral and written presentation skills.</t>
+  </si>
+  <si>
+    <t>EF 158</t>
+  </si>
+  <si>
+    <t>Honors Physics for Engineers 2</t>
+  </si>
+  <si>
+    <t>Honors 152</t>
+  </si>
+  <si>
+    <t>MATH 142</t>
+  </si>
+  <si>
+    <t>Calculus II</t>
+  </si>
+  <si>
+    <t>Single variable calculus especially for students of science, engineering, mathematics, and computer science. Integral calculus with applications.</t>
+  </si>
+  <si>
+    <t>MATH 148</t>
+  </si>
+  <si>
+    <t>Honors Calculus II</t>
+  </si>
+  <si>
+    <t>CHEM 210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foundations of Analytical Chemistry </t>
+  </si>
+  <si>
+    <t>Principles and practices of wet chemical and instrumental methods of chemical analysis with statistical treatment of acquired date.</t>
+  </si>
+  <si>
+    <t>CHEM 219</t>
+  </si>
+  <si>
+    <t>Foundations of Analytical Chemistry Lab</t>
+  </si>
+  <si>
+    <t>Experiments on the principles and practices of wet chemical and instrumental methods of chemical analysis with statistical treatment of acquired data.</t>
+  </si>
+  <si>
+    <t>CBE 201</t>
+  </si>
+  <si>
+    <t>Material and Energy Balances</t>
+  </si>
+  <si>
+    <t>Steady-state and transient material and energy balances in chemical and biomolecular systems. Introduction to flowsheet software.</t>
+  </si>
+  <si>
+    <t>CBE 235</t>
+  </si>
+  <si>
+    <t>Fundamentals of Molecular Bioengineering</t>
+  </si>
+  <si>
+    <t>Summary of principles of biochemistry, molecular biology, and genetics from an engineering and applied science perspective. Examples of biologically-based molecular technologies and analysis and manipulation of living systems for technological applications.</t>
+  </si>
+  <si>
+    <t>MATH 231</t>
+  </si>
+  <si>
+    <t>Differential Equations</t>
+  </si>
+  <si>
+    <t>First course emphasizing solution techniques. Includes first-order equations and applications, theory of linear equations, equations with constant coefficients, Laplace transforms, and series solutions.</t>
+  </si>
+  <si>
+    <t>MATH 237</t>
+  </si>
+  <si>
+    <t>Honors Differential Equations</t>
+  </si>
+  <si>
+    <t>Honors version of Math 231</t>
+  </si>
+  <si>
+    <t>CBE 240</t>
+  </si>
+  <si>
+    <t>Fluid Flow and Heat Transfer</t>
+  </si>
+  <si>
+    <t>Force, energy and mechanical energy balances; flow in tubes, piping systems, packed and fluidized beds; pumping and metering; steady and unsteady state heat conduction; heat transfer in tubes and heat exchangers; radiation.</t>
+  </si>
+  <si>
+    <t>CBE 250</t>
+  </si>
+  <si>
+    <t>Applications of Biomolecular and Chemical Engineering Thermodynamics</t>
+  </si>
+  <si>
+    <t>Basic concepts related to engineering applications of thermodynamics to the chemical and biomolecular industries; emphasis on flow processes, real gases and liquids, protein synthesis and hydration, estimation of physical properties, phase equilibria of industrial chemical and pharmaceutical processes, and chemical reaction equilibria including biomolecular applications.</t>
+  </si>
+  <si>
+    <t>PHYS 231</t>
+  </si>
+  <si>
+    <t>Fundamentals of Physics: Electricity and Magnetism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For engineers and majors in mathematics and the physical sciences. Electric and magnetic phenomena including DC and AC circuits and electromagnetic waves.
+</t>
+  </si>
+  <si>
+    <t>MATH 241</t>
+  </si>
+  <si>
+    <t>Calculus III</t>
+  </si>
+  <si>
+    <t>Calculus of functions in two or more dimensions. Includes solid analytic geometry, partial differentiation, multiple integration, and selected topics in vector calculus.</t>
+  </si>
+  <si>
+    <t>MATH 247</t>
+  </si>
+  <si>
+    <t>CBE 301</t>
+  </si>
+  <si>
+    <t>Application of Numerical and Statistical Techniques in Chemical Engineering</t>
+  </si>
+  <si>
+    <t>Numerical methods for regression, integration, solution for systems of linear/nonlinear algebraic and differential equations for applications to chemical engineering problems; statistical methods for probabilities, expectations, sampling, and estimation for applications to chemical engineering problems.</t>
+  </si>
+  <si>
+    <t>CBE 350</t>
+  </si>
+  <si>
+    <t>Chemical and Bioengineering Reactor Fundamentals</t>
+  </si>
+  <si>
+    <t>Homogeneous and heterogeneous reaction kinetics; idealized homogeneous reactor models, both for closed and flow systems; analysis of batch reactor data; multiple reactions; non-isothermal reactions.</t>
+  </si>
+  <si>
+    <t>CHEM 260</t>
+  </si>
+  <si>
+    <t>Foundations of Organic Chemistry</t>
+  </si>
+  <si>
+    <t>Compounds of carbon and their reactions. Reaction mechanisms, synthesis, spectroscopic, and other physical properties.</t>
+  </si>
+  <si>
+    <t>CHEM 268</t>
+  </si>
+  <si>
+    <t>Honors Foundations of Organic Chemistry</t>
+  </si>
+  <si>
+    <t>Honors Chem 260</t>
+  </si>
+  <si>
+    <t>CBE 320</t>
+  </si>
+  <si>
+    <t>Chemical and Biomolecular Engineering Lab</t>
+  </si>
+  <si>
+    <t>Experiments in unit operations such as pumps, heat exchangers, distillation columns, and fermenters. Application of the principles of transport phenomena.</t>
+  </si>
+  <si>
+    <t>CBE 340</t>
+  </si>
+  <si>
+    <t>Mass Transfer and Separation Processes</t>
+  </si>
+  <si>
+    <t>Stagewise operation. Application of analytical, graphical, and computer methods to design of stagewise separatory operations. Differential operations application of analytical and computer methods to the design of diffusive processes. Applications include gas absorption, stripping, binary distillation, and extraction.</t>
+  </si>
+  <si>
+    <t>CBE 360</t>
+  </si>
+  <si>
+    <t>Process Dynamics and Control</t>
+  </si>
+  <si>
+    <t>Introduction to process modeling and industrial control system design. Mathematical tools for characterizing dynamic behavior of processes. Theory and practice of operating and controlling such systems</t>
+  </si>
+  <si>
+    <t>CBE 415</t>
+  </si>
+  <si>
+    <t>Advanced Chemical and Biomolecular Engineering Lab</t>
+  </si>
+  <si>
+    <t>Solve open-ended problems in a chemical and biomolecular engineering laboratory environment. Incorporate principles of design of experiments and simulation tools in design and analysis.</t>
+  </si>
+  <si>
+    <t>CBE 445</t>
+  </si>
+  <si>
+    <t>Separation Process Technology for the Pharmaceutical and Chemical Process Industries</t>
+  </si>
+  <si>
+    <t>Multicomponent distillation, theory and computer simulations; specialized technologies, including membrane separation, crystallization, adsorption, and chromatography.</t>
+  </si>
+  <si>
+    <t>CBE 480</t>
+  </si>
+  <si>
+    <t>Equipment Design, Economic Methods, and Process Safety</t>
+  </si>
+  <si>
+    <t>Design, optimization, and costing of chemical and biochemical plant equipment. Introduction to economic evaluation methods, capital investment, discounted cash flows, and net present worth. Introduction to advanced process safety protocols and procedures, including engineering ethics.</t>
+  </si>
+  <si>
+    <t>COSC 202</t>
+  </si>
+  <si>
+    <t>Data Structures</t>
+  </si>
+  <si>
+    <t>Design, analysis, and implementation of fundamental data structures and algorithms including lists, stacks, queues, hash tables, binary search trees and heaps.</t>
+  </si>
+  <si>
+    <t>COSC 230</t>
+  </si>
+  <si>
+    <t>Computer Organization</t>
+  </si>
+  <si>
+    <t>Gate level logic, binary number representation and arithmetic, data path and memory hierarchy with focus on code impact, parallel computing, instruction set architecture.</t>
+  </si>
+  <si>
+    <t>ENGL 102</t>
+  </si>
+  <si>
+    <t>English Composition II</t>
+  </si>
+  <si>
+    <t>Advancing concepts introduced in ENGL 101*. Intensive writing instruction focused on inquiry and research. Strategies for formulating and investigating questions, locating and evaluating information, using varied sources and research methods, developing positions on intercultural and interdisciplinary issues from diverse texts (print, digital, and multimedia), and presenting research using appropriate rhetorical conventions.</t>
+  </si>
+  <si>
+    <t>COSC 312</t>
+  </si>
+  <si>
+    <t>Algorithm Analysis and Automata</t>
+  </si>
+  <si>
+    <t>Counting and combinatorics, with applications to the analysis of algorithms. Introduction to finite automata and regular languages, and to pushdown automata and context free grammars.</t>
+  </si>
+  <si>
+    <t>COSC 340</t>
+  </si>
+  <si>
+    <t>Software Engineering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to software processes that can be used on large projects to help design, manage, maintain, and test software. Also provides an introduction to security concerns in software development.  </t>
+  </si>
+  <si>
+    <t>COSC 395</t>
+  </si>
+  <si>
+    <t>Junior Seminar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presentations and discussions related to professional development, including registration, ethics, and current topics in computer science. Students will analyze aspects of scientific and technical writing and write a series of articles suitable for the general public. </t>
+  </si>
+  <si>
+    <t>COSC 365</t>
+  </si>
+  <si>
+    <t>Programming Languages and Systems</t>
+  </si>
+  <si>
+    <t>Language paradigms (procedural, functional, object-oriented, logic), language design and implementation issues, and language issues related to parallelism.</t>
+  </si>
+  <si>
+    <t>COSC 401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senior Design Theory </t>
+  </si>
+  <si>
+    <t>A design course that focuses the student’s attention on professional practice, ethics, accumulated background of curricular components, and recent developments in the field. The focus is on teaching both the design process and design principles that allow students to utilize all of the above elements to effectively create designs for major design projects.</t>
+  </si>
+  <si>
+    <t>COSC 402</t>
+  </si>
+  <si>
+    <t>Senior Design Practicum</t>
+  </si>
+  <si>
+    <t>A project-oriented course that requires teams of students to design a major project that incorporates the principles taught in COSC 401*. The design emphasis is directed to topics within the field of computer science.</t>
+  </si>
+  <si>
+    <t>Course ID (code will populate)</t>
+  </si>
+  <si>
+    <t>PreReq Course</t>
+  </si>
+  <si>
+    <t>Pre-Req Course ID (code will populate)</t>
+  </si>
+  <si>
+    <t>MATH 130</t>
+  </si>
+  <si>
+    <t>Course ID (code will populate from course table)</t>
+  </si>
+  <si>
+    <t>Course Name (code will extract)</t>
+  </si>
+  <si>
+    <t>Grade (A-F, W, etc, code will extract)</t>
+  </si>
+  <si>
+    <t>Credit (True if Grade &gt; C, code will populate)</t>
+  </si>
+  <si>
     <t>Required Course Name (code will populate this)</t>
   </si>
   <si>
@@ -80,106 +670,13 @@
   </si>
   <si>
     <t>Required Bucket Number of Hours (code will populate)</t>
-  </si>
-  <si>
-    <t>Major Description</t>
-  </si>
-  <si>
-    <t>Computer Science is the systematic study of algorithmic processes that describe and transform information: their theory, analysis, design, efficiency, implementation, and application. The fundamental question underlying all of computing is: What can efficiently be automated? Computer Science is far more than programming. It incorporates the paradigms of theory (mathematical), abstraction (experimental), and design (engineering) within many topic areas</t>
-  </si>
-  <si>
-    <t>Bucket ID</t>
-  </si>
-  <si>
-    <t>Bucket Name</t>
-  </si>
-  <si>
-    <t>Bucket Number of Hours</t>
-  </si>
-  <si>
-    <t>Course Names</t>
-  </si>
-  <si>
-    <t>Course IDs (code will populate)</t>
-  </si>
-  <si>
-    <t>COSC 425; COSC 453; etc</t>
-  </si>
-  <si>
-    <t>Course ID</t>
-  </si>
-  <si>
-    <t>Course</t>
-  </si>
-  <si>
-    <t>Course Name</t>
-  </si>
-  <si>
-    <t>Course Hours</t>
-  </si>
-  <si>
-    <t>Course Description</t>
-  </si>
-  <si>
-    <t>MATH 141</t>
-  </si>
-  <si>
-    <t>Calculus I</t>
-  </si>
-  <si>
-    <t>Single variable calculus especially for students of science, engineering, mathematics, and computer science. Differential calculus with applications.</t>
-  </si>
-  <si>
-    <t>MATH 147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Honors Calculus I </t>
-  </si>
-  <si>
-    <t>Honors version of 141 for well-prepared students.</t>
-  </si>
-  <si>
-    <t>EF 141</t>
-  </si>
-  <si>
-    <t>Engineering Fundamentals I</t>
-  </si>
-  <si>
-    <t>EF 151</t>
-  </si>
-  <si>
-    <t>Honors Engineering Fundamentals I</t>
-  </si>
-  <si>
-    <t>Course ID (code will populate)</t>
-  </si>
-  <si>
-    <t>PreReq Course</t>
-  </si>
-  <si>
-    <t>Pre-Req Course ID (code will populate)</t>
-  </si>
-  <si>
-    <t>MATH 130</t>
-  </si>
-  <si>
-    <t>Course ID (code will populate from course table)</t>
-  </si>
-  <si>
-    <t>Course Name (code will extract)</t>
-  </si>
-  <si>
-    <t>Grade (A-F, W, etc, code will extract)</t>
-  </si>
-  <si>
-    <t>Credit (True if Grade &gt; C, code will populate)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -197,13 +694,29 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -212,7 +725,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -230,6 +743,15 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -264,6 +786,10 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -602,114 +1128,3143 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="4" max="4" width="19.0"/>
+    <col customWidth="1" min="2" max="2" width="15.13"/>
+    <col customWidth="1" min="3" max="3" width="25.63"/>
+    <col customWidth="1" min="4" max="4" width="75.63"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3">
         <v>1.0</v>
       </c>
-      <c r="C2" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3">
-        <v>4.0</v>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1.0</v>
-      </c>
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="3">
-        <v>1.0</v>
-      </c>
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="3">
-        <v>1.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3">
-        <v>1.0</v>
-      </c>
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="3">
-        <v>1.0</v>
-      </c>
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" s="3">
-        <v>1.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3">
-        <v>1.0</v>
-      </c>
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" s="3">
-        <v>1.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3">
-        <v>1.0</v>
-      </c>
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" s="3">
-        <v>1.0</v>
-      </c>
+        <v>11.0</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" s="3">
-        <v>1.0</v>
-      </c>
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" s="3">
-        <v>1.0</v>
-      </c>
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19">
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20">
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21">
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22">
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23">
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24">
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25">
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26">
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27">
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28">
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29">
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30">
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31">
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32">
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33">
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34">
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35">
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36">
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37">
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38">
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39">
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40">
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41">
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42">
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43">
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44">
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45">
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46">
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47">
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48">
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49">
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50">
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51">
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52">
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53">
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54">
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55">
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56">
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57">
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58">
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59">
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60">
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61">
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62">
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63">
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64">
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65">
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66">
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67">
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68">
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69">
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70">
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71">
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72">
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73">
+      <c r="D73" s="2"/>
+    </row>
+    <row r="74">
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75">
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76">
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77">
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78">
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79">
+      <c r="D79" s="2"/>
+    </row>
+    <row r="80">
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81">
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82">
+      <c r="D82" s="2"/>
+    </row>
+    <row r="83">
+      <c r="D83" s="2"/>
+    </row>
+    <row r="84">
+      <c r="D84" s="2"/>
+    </row>
+    <row r="85">
+      <c r="D85" s="2"/>
+    </row>
+    <row r="86">
+      <c r="D86" s="2"/>
+    </row>
+    <row r="87">
+      <c r="D87" s="2"/>
+    </row>
+    <row r="88">
+      <c r="D88" s="2"/>
+    </row>
+    <row r="89">
+      <c r="D89" s="2"/>
+    </row>
+    <row r="90">
+      <c r="D90" s="2"/>
+    </row>
+    <row r="91">
+      <c r="D91" s="2"/>
+    </row>
+    <row r="92">
+      <c r="D92" s="2"/>
+    </row>
+    <row r="93">
+      <c r="D93" s="2"/>
+    </row>
+    <row r="94">
+      <c r="D94" s="2"/>
+    </row>
+    <row r="95">
+      <c r="D95" s="2"/>
+    </row>
+    <row r="96">
+      <c r="D96" s="2"/>
+    </row>
+    <row r="97">
+      <c r="D97" s="2"/>
+    </row>
+    <row r="98">
+      <c r="D98" s="2"/>
+    </row>
+    <row r="99">
+      <c r="D99" s="2"/>
+    </row>
+    <row r="100">
+      <c r="D100" s="2"/>
+    </row>
+    <row r="101">
+      <c r="D101" s="2"/>
+    </row>
+    <row r="102">
+      <c r="D102" s="2"/>
+    </row>
+    <row r="103">
+      <c r="D103" s="2"/>
+    </row>
+    <row r="104">
+      <c r="D104" s="2"/>
+    </row>
+    <row r="105">
+      <c r="D105" s="2"/>
+    </row>
+    <row r="106">
+      <c r="D106" s="2"/>
+    </row>
+    <row r="107">
+      <c r="D107" s="2"/>
+    </row>
+    <row r="108">
+      <c r="D108" s="2"/>
+    </row>
+    <row r="109">
+      <c r="D109" s="2"/>
+    </row>
+    <row r="110">
+      <c r="D110" s="2"/>
+    </row>
+    <row r="111">
+      <c r="D111" s="2"/>
+    </row>
+    <row r="112">
+      <c r="D112" s="2"/>
+    </row>
+    <row r="113">
+      <c r="D113" s="2"/>
+    </row>
+    <row r="114">
+      <c r="D114" s="2"/>
+    </row>
+    <row r="115">
+      <c r="D115" s="2"/>
+    </row>
+    <row r="116">
+      <c r="D116" s="2"/>
+    </row>
+    <row r="117">
+      <c r="D117" s="2"/>
+    </row>
+    <row r="118">
+      <c r="D118" s="2"/>
+    </row>
+    <row r="119">
+      <c r="D119" s="2"/>
+    </row>
+    <row r="120">
+      <c r="D120" s="2"/>
+    </row>
+    <row r="121">
+      <c r="D121" s="2"/>
+    </row>
+    <row r="122">
+      <c r="D122" s="2"/>
+    </row>
+    <row r="123">
+      <c r="D123" s="2"/>
+    </row>
+    <row r="124">
+      <c r="D124" s="2"/>
+    </row>
+    <row r="125">
+      <c r="D125" s="2"/>
+    </row>
+    <row r="126">
+      <c r="D126" s="2"/>
+    </row>
+    <row r="127">
+      <c r="D127" s="2"/>
+    </row>
+    <row r="128">
+      <c r="D128" s="2"/>
+    </row>
+    <row r="129">
+      <c r="D129" s="2"/>
+    </row>
+    <row r="130">
+      <c r="D130" s="2"/>
+    </row>
+    <row r="131">
+      <c r="D131" s="2"/>
+    </row>
+    <row r="132">
+      <c r="D132" s="2"/>
+    </row>
+    <row r="133">
+      <c r="D133" s="2"/>
+    </row>
+    <row r="134">
+      <c r="D134" s="2"/>
+    </row>
+    <row r="135">
+      <c r="D135" s="2"/>
+    </row>
+    <row r="136">
+      <c r="D136" s="2"/>
+    </row>
+    <row r="137">
+      <c r="D137" s="2"/>
+    </row>
+    <row r="138">
+      <c r="D138" s="2"/>
+    </row>
+    <row r="139">
+      <c r="D139" s="2"/>
+    </row>
+    <row r="140">
+      <c r="D140" s="2"/>
+    </row>
+    <row r="141">
+      <c r="D141" s="2"/>
+    </row>
+    <row r="142">
+      <c r="D142" s="2"/>
+    </row>
+    <row r="143">
+      <c r="D143" s="2"/>
+    </row>
+    <row r="144">
+      <c r="D144" s="2"/>
+    </row>
+    <row r="145">
+      <c r="D145" s="2"/>
+    </row>
+    <row r="146">
+      <c r="D146" s="2"/>
+    </row>
+    <row r="147">
+      <c r="D147" s="2"/>
+    </row>
+    <row r="148">
+      <c r="D148" s="2"/>
+    </row>
+    <row r="149">
+      <c r="D149" s="2"/>
+    </row>
+    <row r="150">
+      <c r="D150" s="2"/>
+    </row>
+    <row r="151">
+      <c r="D151" s="2"/>
+    </row>
+    <row r="152">
+      <c r="D152" s="2"/>
+    </row>
+    <row r="153">
+      <c r="D153" s="2"/>
+    </row>
+    <row r="154">
+      <c r="D154" s="2"/>
+    </row>
+    <row r="155">
+      <c r="D155" s="2"/>
+    </row>
+    <row r="156">
+      <c r="D156" s="2"/>
+    </row>
+    <row r="157">
+      <c r="D157" s="2"/>
+    </row>
+    <row r="158">
+      <c r="D158" s="2"/>
+    </row>
+    <row r="159">
+      <c r="D159" s="2"/>
+    </row>
+    <row r="160">
+      <c r="D160" s="2"/>
+    </row>
+    <row r="161">
+      <c r="D161" s="2"/>
+    </row>
+    <row r="162">
+      <c r="D162" s="2"/>
+    </row>
+    <row r="163">
+      <c r="D163" s="2"/>
+    </row>
+    <row r="164">
+      <c r="D164" s="2"/>
+    </row>
+    <row r="165">
+      <c r="D165" s="2"/>
+    </row>
+    <row r="166">
+      <c r="D166" s="2"/>
+    </row>
+    <row r="167">
+      <c r="D167" s="2"/>
+    </row>
+    <row r="168">
+      <c r="D168" s="2"/>
+    </row>
+    <row r="169">
+      <c r="D169" s="2"/>
+    </row>
+    <row r="170">
+      <c r="D170" s="2"/>
+    </row>
+    <row r="171">
+      <c r="D171" s="2"/>
+    </row>
+    <row r="172">
+      <c r="D172" s="2"/>
+    </row>
+    <row r="173">
+      <c r="D173" s="2"/>
+    </row>
+    <row r="174">
+      <c r="D174" s="2"/>
+    </row>
+    <row r="175">
+      <c r="D175" s="2"/>
+    </row>
+    <row r="176">
+      <c r="D176" s="2"/>
+    </row>
+    <row r="177">
+      <c r="D177" s="2"/>
+    </row>
+    <row r="178">
+      <c r="D178" s="2"/>
+    </row>
+    <row r="179">
+      <c r="D179" s="2"/>
+    </row>
+    <row r="180">
+      <c r="D180" s="2"/>
+    </row>
+    <row r="181">
+      <c r="D181" s="2"/>
+    </row>
+    <row r="182">
+      <c r="D182" s="2"/>
+    </row>
+    <row r="183">
+      <c r="D183" s="2"/>
+    </row>
+    <row r="184">
+      <c r="D184" s="2"/>
+    </row>
+    <row r="185">
+      <c r="D185" s="2"/>
+    </row>
+    <row r="186">
+      <c r="D186" s="2"/>
+    </row>
+    <row r="187">
+      <c r="D187" s="2"/>
+    </row>
+    <row r="188">
+      <c r="D188" s="2"/>
+    </row>
+    <row r="189">
+      <c r="D189" s="2"/>
+    </row>
+    <row r="190">
+      <c r="D190" s="2"/>
+    </row>
+    <row r="191">
+      <c r="D191" s="2"/>
+    </row>
+    <row r="192">
+      <c r="D192" s="2"/>
+    </row>
+    <row r="193">
+      <c r="D193" s="2"/>
+    </row>
+    <row r="194">
+      <c r="D194" s="2"/>
+    </row>
+    <row r="195">
+      <c r="D195" s="2"/>
+    </row>
+    <row r="196">
+      <c r="D196" s="2"/>
+    </row>
+    <row r="197">
+      <c r="D197" s="2"/>
+    </row>
+    <row r="198">
+      <c r="D198" s="2"/>
+    </row>
+    <row r="199">
+      <c r="D199" s="2"/>
+    </row>
+    <row r="200">
+      <c r="D200" s="2"/>
+    </row>
+    <row r="201">
+      <c r="D201" s="2"/>
+    </row>
+    <row r="202">
+      <c r="D202" s="2"/>
+    </row>
+    <row r="203">
+      <c r="D203" s="2"/>
+    </row>
+    <row r="204">
+      <c r="D204" s="2"/>
+    </row>
+    <row r="205">
+      <c r="D205" s="2"/>
+    </row>
+    <row r="206">
+      <c r="D206" s="2"/>
+    </row>
+    <row r="207">
+      <c r="D207" s="2"/>
+    </row>
+    <row r="208">
+      <c r="D208" s="2"/>
+    </row>
+    <row r="209">
+      <c r="D209" s="2"/>
+    </row>
+    <row r="210">
+      <c r="D210" s="2"/>
+    </row>
+    <row r="211">
+      <c r="D211" s="2"/>
+    </row>
+    <row r="212">
+      <c r="D212" s="2"/>
+    </row>
+    <row r="213">
+      <c r="D213" s="2"/>
+    </row>
+    <row r="214">
+      <c r="D214" s="2"/>
+    </row>
+    <row r="215">
+      <c r="D215" s="2"/>
+    </row>
+    <row r="216">
+      <c r="D216" s="2"/>
+    </row>
+    <row r="217">
+      <c r="D217" s="2"/>
+    </row>
+    <row r="218">
+      <c r="D218" s="2"/>
+    </row>
+    <row r="219">
+      <c r="D219" s="2"/>
+    </row>
+    <row r="220">
+      <c r="D220" s="2"/>
+    </row>
+    <row r="221">
+      <c r="D221" s="2"/>
+    </row>
+    <row r="222">
+      <c r="D222" s="2"/>
+    </row>
+    <row r="223">
+      <c r="D223" s="2"/>
+    </row>
+    <row r="224">
+      <c r="D224" s="2"/>
+    </row>
+    <row r="225">
+      <c r="D225" s="2"/>
+    </row>
+    <row r="226">
+      <c r="D226" s="2"/>
+    </row>
+    <row r="227">
+      <c r="D227" s="2"/>
+    </row>
+    <row r="228">
+      <c r="D228" s="2"/>
+    </row>
+    <row r="229">
+      <c r="D229" s="2"/>
+    </row>
+    <row r="230">
+      <c r="D230" s="2"/>
+    </row>
+    <row r="231">
+      <c r="D231" s="2"/>
+    </row>
+    <row r="232">
+      <c r="D232" s="2"/>
+    </row>
+    <row r="233">
+      <c r="D233" s="2"/>
+    </row>
+    <row r="234">
+      <c r="D234" s="2"/>
+    </row>
+    <row r="235">
+      <c r="D235" s="2"/>
+    </row>
+    <row r="236">
+      <c r="D236" s="2"/>
+    </row>
+    <row r="237">
+      <c r="D237" s="2"/>
+    </row>
+    <row r="238">
+      <c r="D238" s="2"/>
+    </row>
+    <row r="239">
+      <c r="D239" s="2"/>
+    </row>
+    <row r="240">
+      <c r="D240" s="2"/>
+    </row>
+    <row r="241">
+      <c r="D241" s="2"/>
+    </row>
+    <row r="242">
+      <c r="D242" s="2"/>
+    </row>
+    <row r="243">
+      <c r="D243" s="2"/>
+    </row>
+    <row r="244">
+      <c r="D244" s="2"/>
+    </row>
+    <row r="245">
+      <c r="D245" s="2"/>
+    </row>
+    <row r="246">
+      <c r="D246" s="2"/>
+    </row>
+    <row r="247">
+      <c r="D247" s="2"/>
+    </row>
+    <row r="248">
+      <c r="D248" s="2"/>
+    </row>
+    <row r="249">
+      <c r="D249" s="2"/>
+    </row>
+    <row r="250">
+      <c r="D250" s="2"/>
+    </row>
+    <row r="251">
+      <c r="D251" s="2"/>
+    </row>
+    <row r="252">
+      <c r="D252" s="2"/>
+    </row>
+    <row r="253">
+      <c r="D253" s="2"/>
+    </row>
+    <row r="254">
+      <c r="D254" s="2"/>
+    </row>
+    <row r="255">
+      <c r="D255" s="2"/>
+    </row>
+    <row r="256">
+      <c r="D256" s="2"/>
+    </row>
+    <row r="257">
+      <c r="D257" s="2"/>
+    </row>
+    <row r="258">
+      <c r="D258" s="2"/>
+    </row>
+    <row r="259">
+      <c r="D259" s="2"/>
+    </row>
+    <row r="260">
+      <c r="D260" s="2"/>
+    </row>
+    <row r="261">
+      <c r="D261" s="2"/>
+    </row>
+    <row r="262">
+      <c r="D262" s="2"/>
+    </row>
+    <row r="263">
+      <c r="D263" s="2"/>
+    </row>
+    <row r="264">
+      <c r="D264" s="2"/>
+    </row>
+    <row r="265">
+      <c r="D265" s="2"/>
+    </row>
+    <row r="266">
+      <c r="D266" s="2"/>
+    </row>
+    <row r="267">
+      <c r="D267" s="2"/>
+    </row>
+    <row r="268">
+      <c r="D268" s="2"/>
+    </row>
+    <row r="269">
+      <c r="D269" s="2"/>
+    </row>
+    <row r="270">
+      <c r="D270" s="2"/>
+    </row>
+    <row r="271">
+      <c r="D271" s="2"/>
+    </row>
+    <row r="272">
+      <c r="D272" s="2"/>
+    </row>
+    <row r="273">
+      <c r="D273" s="2"/>
+    </row>
+    <row r="274">
+      <c r="D274" s="2"/>
+    </row>
+    <row r="275">
+      <c r="D275" s="2"/>
+    </row>
+    <row r="276">
+      <c r="D276" s="2"/>
+    </row>
+    <row r="277">
+      <c r="D277" s="2"/>
+    </row>
+    <row r="278">
+      <c r="D278" s="2"/>
+    </row>
+    <row r="279">
+      <c r="D279" s="2"/>
+    </row>
+    <row r="280">
+      <c r="D280" s="2"/>
+    </row>
+    <row r="281">
+      <c r="D281" s="2"/>
+    </row>
+    <row r="282">
+      <c r="D282" s="2"/>
+    </row>
+    <row r="283">
+      <c r="D283" s="2"/>
+    </row>
+    <row r="284">
+      <c r="D284" s="2"/>
+    </row>
+    <row r="285">
+      <c r="D285" s="2"/>
+    </row>
+    <row r="286">
+      <c r="D286" s="2"/>
+    </row>
+    <row r="287">
+      <c r="D287" s="2"/>
+    </row>
+    <row r="288">
+      <c r="D288" s="2"/>
+    </row>
+    <row r="289">
+      <c r="D289" s="2"/>
+    </row>
+    <row r="290">
+      <c r="D290" s="2"/>
+    </row>
+    <row r="291">
+      <c r="D291" s="2"/>
+    </row>
+    <row r="292">
+      <c r="D292" s="2"/>
+    </row>
+    <row r="293">
+      <c r="D293" s="2"/>
+    </row>
+    <row r="294">
+      <c r="D294" s="2"/>
+    </row>
+    <row r="295">
+      <c r="D295" s="2"/>
+    </row>
+    <row r="296">
+      <c r="D296" s="2"/>
+    </row>
+    <row r="297">
+      <c r="D297" s="2"/>
+    </row>
+    <row r="298">
+      <c r="D298" s="2"/>
+    </row>
+    <row r="299">
+      <c r="D299" s="2"/>
+    </row>
+    <row r="300">
+      <c r="D300" s="2"/>
+    </row>
+    <row r="301">
+      <c r="D301" s="2"/>
+    </row>
+    <row r="302">
+      <c r="D302" s="2"/>
+    </row>
+    <row r="303">
+      <c r="D303" s="2"/>
+    </row>
+    <row r="304">
+      <c r="D304" s="2"/>
+    </row>
+    <row r="305">
+      <c r="D305" s="2"/>
+    </row>
+    <row r="306">
+      <c r="D306" s="2"/>
+    </row>
+    <row r="307">
+      <c r="D307" s="2"/>
+    </row>
+    <row r="308">
+      <c r="D308" s="2"/>
+    </row>
+    <row r="309">
+      <c r="D309" s="2"/>
+    </row>
+    <row r="310">
+      <c r="D310" s="2"/>
+    </row>
+    <row r="311">
+      <c r="D311" s="2"/>
+    </row>
+    <row r="312">
+      <c r="D312" s="2"/>
+    </row>
+    <row r="313">
+      <c r="D313" s="2"/>
+    </row>
+    <row r="314">
+      <c r="D314" s="2"/>
+    </row>
+    <row r="315">
+      <c r="D315" s="2"/>
+    </row>
+    <row r="316">
+      <c r="D316" s="2"/>
+    </row>
+    <row r="317">
+      <c r="D317" s="2"/>
+    </row>
+    <row r="318">
+      <c r="D318" s="2"/>
+    </row>
+    <row r="319">
+      <c r="D319" s="2"/>
+    </row>
+    <row r="320">
+      <c r="D320" s="2"/>
+    </row>
+    <row r="321">
+      <c r="D321" s="2"/>
+    </row>
+    <row r="322">
+      <c r="D322" s="2"/>
+    </row>
+    <row r="323">
+      <c r="D323" s="2"/>
+    </row>
+    <row r="324">
+      <c r="D324" s="2"/>
+    </row>
+    <row r="325">
+      <c r="D325" s="2"/>
+    </row>
+    <row r="326">
+      <c r="D326" s="2"/>
+    </row>
+    <row r="327">
+      <c r="D327" s="2"/>
+    </row>
+    <row r="328">
+      <c r="D328" s="2"/>
+    </row>
+    <row r="329">
+      <c r="D329" s="2"/>
+    </row>
+    <row r="330">
+      <c r="D330" s="2"/>
+    </row>
+    <row r="331">
+      <c r="D331" s="2"/>
+    </row>
+    <row r="332">
+      <c r="D332" s="2"/>
+    </row>
+    <row r="333">
+      <c r="D333" s="2"/>
+    </row>
+    <row r="334">
+      <c r="D334" s="2"/>
+    </row>
+    <row r="335">
+      <c r="D335" s="2"/>
+    </row>
+    <row r="336">
+      <c r="D336" s="2"/>
+    </row>
+    <row r="337">
+      <c r="D337" s="2"/>
+    </row>
+    <row r="338">
+      <c r="D338" s="2"/>
+    </row>
+    <row r="339">
+      <c r="D339" s="2"/>
+    </row>
+    <row r="340">
+      <c r="D340" s="2"/>
+    </row>
+    <row r="341">
+      <c r="D341" s="2"/>
+    </row>
+    <row r="342">
+      <c r="D342" s="2"/>
+    </row>
+    <row r="343">
+      <c r="D343" s="2"/>
+    </row>
+    <row r="344">
+      <c r="D344" s="2"/>
+    </row>
+    <row r="345">
+      <c r="D345" s="2"/>
+    </row>
+    <row r="346">
+      <c r="D346" s="2"/>
+    </row>
+    <row r="347">
+      <c r="D347" s="2"/>
+    </row>
+    <row r="348">
+      <c r="D348" s="2"/>
+    </row>
+    <row r="349">
+      <c r="D349" s="2"/>
+    </row>
+    <row r="350">
+      <c r="D350" s="2"/>
+    </row>
+    <row r="351">
+      <c r="D351" s="2"/>
+    </row>
+    <row r="352">
+      <c r="D352" s="2"/>
+    </row>
+    <row r="353">
+      <c r="D353" s="2"/>
+    </row>
+    <row r="354">
+      <c r="D354" s="2"/>
+    </row>
+    <row r="355">
+      <c r="D355" s="2"/>
+    </row>
+    <row r="356">
+      <c r="D356" s="2"/>
+    </row>
+    <row r="357">
+      <c r="D357" s="2"/>
+    </row>
+    <row r="358">
+      <c r="D358" s="2"/>
+    </row>
+    <row r="359">
+      <c r="D359" s="2"/>
+    </row>
+    <row r="360">
+      <c r="D360" s="2"/>
+    </row>
+    <row r="361">
+      <c r="D361" s="2"/>
+    </row>
+    <row r="362">
+      <c r="D362" s="2"/>
+    </row>
+    <row r="363">
+      <c r="D363" s="2"/>
+    </row>
+    <row r="364">
+      <c r="D364" s="2"/>
+    </row>
+    <row r="365">
+      <c r="D365" s="2"/>
+    </row>
+    <row r="366">
+      <c r="D366" s="2"/>
+    </row>
+    <row r="367">
+      <c r="D367" s="2"/>
+    </row>
+    <row r="368">
+      <c r="D368" s="2"/>
+    </row>
+    <row r="369">
+      <c r="D369" s="2"/>
+    </row>
+    <row r="370">
+      <c r="D370" s="2"/>
+    </row>
+    <row r="371">
+      <c r="D371" s="2"/>
+    </row>
+    <row r="372">
+      <c r="D372" s="2"/>
+    </row>
+    <row r="373">
+      <c r="D373" s="2"/>
+    </row>
+    <row r="374">
+      <c r="D374" s="2"/>
+    </row>
+    <row r="375">
+      <c r="D375" s="2"/>
+    </row>
+    <row r="376">
+      <c r="D376" s="2"/>
+    </row>
+    <row r="377">
+      <c r="D377" s="2"/>
+    </row>
+    <row r="378">
+      <c r="D378" s="2"/>
+    </row>
+    <row r="379">
+      <c r="D379" s="2"/>
+    </row>
+    <row r="380">
+      <c r="D380" s="2"/>
+    </row>
+    <row r="381">
+      <c r="D381" s="2"/>
+    </row>
+    <row r="382">
+      <c r="D382" s="2"/>
+    </row>
+    <row r="383">
+      <c r="D383" s="2"/>
+    </row>
+    <row r="384">
+      <c r="D384" s="2"/>
+    </row>
+    <row r="385">
+      <c r="D385" s="2"/>
+    </row>
+    <row r="386">
+      <c r="D386" s="2"/>
+    </row>
+    <row r="387">
+      <c r="D387" s="2"/>
+    </row>
+    <row r="388">
+      <c r="D388" s="2"/>
+    </row>
+    <row r="389">
+      <c r="D389" s="2"/>
+    </row>
+    <row r="390">
+      <c r="D390" s="2"/>
+    </row>
+    <row r="391">
+      <c r="D391" s="2"/>
+    </row>
+    <row r="392">
+      <c r="D392" s="2"/>
+    </row>
+    <row r="393">
+      <c r="D393" s="2"/>
+    </row>
+    <row r="394">
+      <c r="D394" s="2"/>
+    </row>
+    <row r="395">
+      <c r="D395" s="2"/>
+    </row>
+    <row r="396">
+      <c r="D396" s="2"/>
+    </row>
+    <row r="397">
+      <c r="D397" s="2"/>
+    </row>
+    <row r="398">
+      <c r="D398" s="2"/>
+    </row>
+    <row r="399">
+      <c r="D399" s="2"/>
+    </row>
+    <row r="400">
+      <c r="D400" s="2"/>
+    </row>
+    <row r="401">
+      <c r="D401" s="2"/>
+    </row>
+    <row r="402">
+      <c r="D402" s="2"/>
+    </row>
+    <row r="403">
+      <c r="D403" s="2"/>
+    </row>
+    <row r="404">
+      <c r="D404" s="2"/>
+    </row>
+    <row r="405">
+      <c r="D405" s="2"/>
+    </row>
+    <row r="406">
+      <c r="D406" s="2"/>
+    </row>
+    <row r="407">
+      <c r="D407" s="2"/>
+    </row>
+    <row r="408">
+      <c r="D408" s="2"/>
+    </row>
+    <row r="409">
+      <c r="D409" s="2"/>
+    </row>
+    <row r="410">
+      <c r="D410" s="2"/>
+    </row>
+    <row r="411">
+      <c r="D411" s="2"/>
+    </row>
+    <row r="412">
+      <c r="D412" s="2"/>
+    </row>
+    <row r="413">
+      <c r="D413" s="2"/>
+    </row>
+    <row r="414">
+      <c r="D414" s="2"/>
+    </row>
+    <row r="415">
+      <c r="D415" s="2"/>
+    </row>
+    <row r="416">
+      <c r="D416" s="2"/>
+    </row>
+    <row r="417">
+      <c r="D417" s="2"/>
+    </row>
+    <row r="418">
+      <c r="D418" s="2"/>
+    </row>
+    <row r="419">
+      <c r="D419" s="2"/>
+    </row>
+    <row r="420">
+      <c r="D420" s="2"/>
+    </row>
+    <row r="421">
+      <c r="D421" s="2"/>
+    </row>
+    <row r="422">
+      <c r="D422" s="2"/>
+    </row>
+    <row r="423">
+      <c r="D423" s="2"/>
+    </row>
+    <row r="424">
+      <c r="D424" s="2"/>
+    </row>
+    <row r="425">
+      <c r="D425" s="2"/>
+    </row>
+    <row r="426">
+      <c r="D426" s="2"/>
+    </row>
+    <row r="427">
+      <c r="D427" s="2"/>
+    </row>
+    <row r="428">
+      <c r="D428" s="2"/>
+    </row>
+    <row r="429">
+      <c r="D429" s="2"/>
+    </row>
+    <row r="430">
+      <c r="D430" s="2"/>
+    </row>
+    <row r="431">
+      <c r="D431" s="2"/>
+    </row>
+    <row r="432">
+      <c r="D432" s="2"/>
+    </row>
+    <row r="433">
+      <c r="D433" s="2"/>
+    </row>
+    <row r="434">
+      <c r="D434" s="2"/>
+    </row>
+    <row r="435">
+      <c r="D435" s="2"/>
+    </row>
+    <row r="436">
+      <c r="D436" s="2"/>
+    </row>
+    <row r="437">
+      <c r="D437" s="2"/>
+    </row>
+    <row r="438">
+      <c r="D438" s="2"/>
+    </row>
+    <row r="439">
+      <c r="D439" s="2"/>
+    </row>
+    <row r="440">
+      <c r="D440" s="2"/>
+    </row>
+    <row r="441">
+      <c r="D441" s="2"/>
+    </row>
+    <row r="442">
+      <c r="D442" s="2"/>
+    </row>
+    <row r="443">
+      <c r="D443" s="2"/>
+    </row>
+    <row r="444">
+      <c r="D444" s="2"/>
+    </row>
+    <row r="445">
+      <c r="D445" s="2"/>
+    </row>
+    <row r="446">
+      <c r="D446" s="2"/>
+    </row>
+    <row r="447">
+      <c r="D447" s="2"/>
+    </row>
+    <row r="448">
+      <c r="D448" s="2"/>
+    </row>
+    <row r="449">
+      <c r="D449" s="2"/>
+    </row>
+    <row r="450">
+      <c r="D450" s="2"/>
+    </row>
+    <row r="451">
+      <c r="D451" s="2"/>
+    </row>
+    <row r="452">
+      <c r="D452" s="2"/>
+    </row>
+    <row r="453">
+      <c r="D453" s="2"/>
+    </row>
+    <row r="454">
+      <c r="D454" s="2"/>
+    </row>
+    <row r="455">
+      <c r="D455" s="2"/>
+    </row>
+    <row r="456">
+      <c r="D456" s="2"/>
+    </row>
+    <row r="457">
+      <c r="D457" s="2"/>
+    </row>
+    <row r="458">
+      <c r="D458" s="2"/>
+    </row>
+    <row r="459">
+      <c r="D459" s="2"/>
+    </row>
+    <row r="460">
+      <c r="D460" s="2"/>
+    </row>
+    <row r="461">
+      <c r="D461" s="2"/>
+    </row>
+    <row r="462">
+      <c r="D462" s="2"/>
+    </row>
+    <row r="463">
+      <c r="D463" s="2"/>
+    </row>
+    <row r="464">
+      <c r="D464" s="2"/>
+    </row>
+    <row r="465">
+      <c r="D465" s="2"/>
+    </row>
+    <row r="466">
+      <c r="D466" s="2"/>
+    </row>
+    <row r="467">
+      <c r="D467" s="2"/>
+    </row>
+    <row r="468">
+      <c r="D468" s="2"/>
+    </row>
+    <row r="469">
+      <c r="D469" s="2"/>
+    </row>
+    <row r="470">
+      <c r="D470" s="2"/>
+    </row>
+    <row r="471">
+      <c r="D471" s="2"/>
+    </row>
+    <row r="472">
+      <c r="D472" s="2"/>
+    </row>
+    <row r="473">
+      <c r="D473" s="2"/>
+    </row>
+    <row r="474">
+      <c r="D474" s="2"/>
+    </row>
+    <row r="475">
+      <c r="D475" s="2"/>
+    </row>
+    <row r="476">
+      <c r="D476" s="2"/>
+    </row>
+    <row r="477">
+      <c r="D477" s="2"/>
+    </row>
+    <row r="478">
+      <c r="D478" s="2"/>
+    </row>
+    <row r="479">
+      <c r="D479" s="2"/>
+    </row>
+    <row r="480">
+      <c r="D480" s="2"/>
+    </row>
+    <row r="481">
+      <c r="D481" s="2"/>
+    </row>
+    <row r="482">
+      <c r="D482" s="2"/>
+    </row>
+    <row r="483">
+      <c r="D483" s="2"/>
+    </row>
+    <row r="484">
+      <c r="D484" s="2"/>
+    </row>
+    <row r="485">
+      <c r="D485" s="2"/>
+    </row>
+    <row r="486">
+      <c r="D486" s="2"/>
+    </row>
+    <row r="487">
+      <c r="D487" s="2"/>
+    </row>
+    <row r="488">
+      <c r="D488" s="2"/>
+    </row>
+    <row r="489">
+      <c r="D489" s="2"/>
+    </row>
+    <row r="490">
+      <c r="D490" s="2"/>
+    </row>
+    <row r="491">
+      <c r="D491" s="2"/>
+    </row>
+    <row r="492">
+      <c r="D492" s="2"/>
+    </row>
+    <row r="493">
+      <c r="D493" s="2"/>
+    </row>
+    <row r="494">
+      <c r="D494" s="2"/>
+    </row>
+    <row r="495">
+      <c r="D495" s="2"/>
+    </row>
+    <row r="496">
+      <c r="D496" s="2"/>
+    </row>
+    <row r="497">
+      <c r="D497" s="2"/>
+    </row>
+    <row r="498">
+      <c r="D498" s="2"/>
+    </row>
+    <row r="499">
+      <c r="D499" s="2"/>
+    </row>
+    <row r="500">
+      <c r="D500" s="2"/>
+    </row>
+    <row r="501">
+      <c r="D501" s="2"/>
+    </row>
+    <row r="502">
+      <c r="D502" s="2"/>
+    </row>
+    <row r="503">
+      <c r="D503" s="2"/>
+    </row>
+    <row r="504">
+      <c r="D504" s="2"/>
+    </row>
+    <row r="505">
+      <c r="D505" s="2"/>
+    </row>
+    <row r="506">
+      <c r="D506" s="2"/>
+    </row>
+    <row r="507">
+      <c r="D507" s="2"/>
+    </row>
+    <row r="508">
+      <c r="D508" s="2"/>
+    </row>
+    <row r="509">
+      <c r="D509" s="2"/>
+    </row>
+    <row r="510">
+      <c r="D510" s="2"/>
+    </row>
+    <row r="511">
+      <c r="D511" s="2"/>
+    </row>
+    <row r="512">
+      <c r="D512" s="2"/>
+    </row>
+    <row r="513">
+      <c r="D513" s="2"/>
+    </row>
+    <row r="514">
+      <c r="D514" s="2"/>
+    </row>
+    <row r="515">
+      <c r="D515" s="2"/>
+    </row>
+    <row r="516">
+      <c r="D516" s="2"/>
+    </row>
+    <row r="517">
+      <c r="D517" s="2"/>
+    </row>
+    <row r="518">
+      <c r="D518" s="2"/>
+    </row>
+    <row r="519">
+      <c r="D519" s="2"/>
+    </row>
+    <row r="520">
+      <c r="D520" s="2"/>
+    </row>
+    <row r="521">
+      <c r="D521" s="2"/>
+    </row>
+    <row r="522">
+      <c r="D522" s="2"/>
+    </row>
+    <row r="523">
+      <c r="D523" s="2"/>
+    </row>
+    <row r="524">
+      <c r="D524" s="2"/>
+    </row>
+    <row r="525">
+      <c r="D525" s="2"/>
+    </row>
+    <row r="526">
+      <c r="D526" s="2"/>
+    </row>
+    <row r="527">
+      <c r="D527" s="2"/>
+    </row>
+    <row r="528">
+      <c r="D528" s="2"/>
+    </row>
+    <row r="529">
+      <c r="D529" s="2"/>
+    </row>
+    <row r="530">
+      <c r="D530" s="2"/>
+    </row>
+    <row r="531">
+      <c r="D531" s="2"/>
+    </row>
+    <row r="532">
+      <c r="D532" s="2"/>
+    </row>
+    <row r="533">
+      <c r="D533" s="2"/>
+    </row>
+    <row r="534">
+      <c r="D534" s="2"/>
+    </row>
+    <row r="535">
+      <c r="D535" s="2"/>
+    </row>
+    <row r="536">
+      <c r="D536" s="2"/>
+    </row>
+    <row r="537">
+      <c r="D537" s="2"/>
+    </row>
+    <row r="538">
+      <c r="D538" s="2"/>
+    </row>
+    <row r="539">
+      <c r="D539" s="2"/>
+    </row>
+    <row r="540">
+      <c r="D540" s="2"/>
+    </row>
+    <row r="541">
+      <c r="D541" s="2"/>
+    </row>
+    <row r="542">
+      <c r="D542" s="2"/>
+    </row>
+    <row r="543">
+      <c r="D543" s="2"/>
+    </row>
+    <row r="544">
+      <c r="D544" s="2"/>
+    </row>
+    <row r="545">
+      <c r="D545" s="2"/>
+    </row>
+    <row r="546">
+      <c r="D546" s="2"/>
+    </row>
+    <row r="547">
+      <c r="D547" s="2"/>
+    </row>
+    <row r="548">
+      <c r="D548" s="2"/>
+    </row>
+    <row r="549">
+      <c r="D549" s="2"/>
+    </row>
+    <row r="550">
+      <c r="D550" s="2"/>
+    </row>
+    <row r="551">
+      <c r="D551" s="2"/>
+    </row>
+    <row r="552">
+      <c r="D552" s="2"/>
+    </row>
+    <row r="553">
+      <c r="D553" s="2"/>
+    </row>
+    <row r="554">
+      <c r="D554" s="2"/>
+    </row>
+    <row r="555">
+      <c r="D555" s="2"/>
+    </row>
+    <row r="556">
+      <c r="D556" s="2"/>
+    </row>
+    <row r="557">
+      <c r="D557" s="2"/>
+    </row>
+    <row r="558">
+      <c r="D558" s="2"/>
+    </row>
+    <row r="559">
+      <c r="D559" s="2"/>
+    </row>
+    <row r="560">
+      <c r="D560" s="2"/>
+    </row>
+    <row r="561">
+      <c r="D561" s="2"/>
+    </row>
+    <row r="562">
+      <c r="D562" s="2"/>
+    </row>
+    <row r="563">
+      <c r="D563" s="2"/>
+    </row>
+    <row r="564">
+      <c r="D564" s="2"/>
+    </row>
+    <row r="565">
+      <c r="D565" s="2"/>
+    </row>
+    <row r="566">
+      <c r="D566" s="2"/>
+    </row>
+    <row r="567">
+      <c r="D567" s="2"/>
+    </row>
+    <row r="568">
+      <c r="D568" s="2"/>
+    </row>
+    <row r="569">
+      <c r="D569" s="2"/>
+    </row>
+    <row r="570">
+      <c r="D570" s="2"/>
+    </row>
+    <row r="571">
+      <c r="D571" s="2"/>
+    </row>
+    <row r="572">
+      <c r="D572" s="2"/>
+    </row>
+    <row r="573">
+      <c r="D573" s="2"/>
+    </row>
+    <row r="574">
+      <c r="D574" s="2"/>
+    </row>
+    <row r="575">
+      <c r="D575" s="2"/>
+    </row>
+    <row r="576">
+      <c r="D576" s="2"/>
+    </row>
+    <row r="577">
+      <c r="D577" s="2"/>
+    </row>
+    <row r="578">
+      <c r="D578" s="2"/>
+    </row>
+    <row r="579">
+      <c r="D579" s="2"/>
+    </row>
+    <row r="580">
+      <c r="D580" s="2"/>
+    </row>
+    <row r="581">
+      <c r="D581" s="2"/>
+    </row>
+    <row r="582">
+      <c r="D582" s="2"/>
+    </row>
+    <row r="583">
+      <c r="D583" s="2"/>
+    </row>
+    <row r="584">
+      <c r="D584" s="2"/>
+    </row>
+    <row r="585">
+      <c r="D585" s="2"/>
+    </row>
+    <row r="586">
+      <c r="D586" s="2"/>
+    </row>
+    <row r="587">
+      <c r="D587" s="2"/>
+    </row>
+    <row r="588">
+      <c r="D588" s="2"/>
+    </row>
+    <row r="589">
+      <c r="D589" s="2"/>
+    </row>
+    <row r="590">
+      <c r="D590" s="2"/>
+    </row>
+    <row r="591">
+      <c r="D591" s="2"/>
+    </row>
+    <row r="592">
+      <c r="D592" s="2"/>
+    </row>
+    <row r="593">
+      <c r="D593" s="2"/>
+    </row>
+    <row r="594">
+      <c r="D594" s="2"/>
+    </row>
+    <row r="595">
+      <c r="D595" s="2"/>
+    </row>
+    <row r="596">
+      <c r="D596" s="2"/>
+    </row>
+    <row r="597">
+      <c r="D597" s="2"/>
+    </row>
+    <row r="598">
+      <c r="D598" s="2"/>
+    </row>
+    <row r="599">
+      <c r="D599" s="2"/>
+    </row>
+    <row r="600">
+      <c r="D600" s="2"/>
+    </row>
+    <row r="601">
+      <c r="D601" s="2"/>
+    </row>
+    <row r="602">
+      <c r="D602" s="2"/>
+    </row>
+    <row r="603">
+      <c r="D603" s="2"/>
+    </row>
+    <row r="604">
+      <c r="D604" s="2"/>
+    </row>
+    <row r="605">
+      <c r="D605" s="2"/>
+    </row>
+    <row r="606">
+      <c r="D606" s="2"/>
+    </row>
+    <row r="607">
+      <c r="D607" s="2"/>
+    </row>
+    <row r="608">
+      <c r="D608" s="2"/>
+    </row>
+    <row r="609">
+      <c r="D609" s="2"/>
+    </row>
+    <row r="610">
+      <c r="D610" s="2"/>
+    </row>
+    <row r="611">
+      <c r="D611" s="2"/>
+    </row>
+    <row r="612">
+      <c r="D612" s="2"/>
+    </row>
+    <row r="613">
+      <c r="D613" s="2"/>
+    </row>
+    <row r="614">
+      <c r="D614" s="2"/>
+    </row>
+    <row r="615">
+      <c r="D615" s="2"/>
+    </row>
+    <row r="616">
+      <c r="D616" s="2"/>
+    </row>
+    <row r="617">
+      <c r="D617" s="2"/>
+    </row>
+    <row r="618">
+      <c r="D618" s="2"/>
+    </row>
+    <row r="619">
+      <c r="D619" s="2"/>
+    </row>
+    <row r="620">
+      <c r="D620" s="2"/>
+    </row>
+    <row r="621">
+      <c r="D621" s="2"/>
+    </row>
+    <row r="622">
+      <c r="D622" s="2"/>
+    </row>
+    <row r="623">
+      <c r="D623" s="2"/>
+    </row>
+    <row r="624">
+      <c r="D624" s="2"/>
+    </row>
+    <row r="625">
+      <c r="D625" s="2"/>
+    </row>
+    <row r="626">
+      <c r="D626" s="2"/>
+    </row>
+    <row r="627">
+      <c r="D627" s="2"/>
+    </row>
+    <row r="628">
+      <c r="D628" s="2"/>
+    </row>
+    <row r="629">
+      <c r="D629" s="2"/>
+    </row>
+    <row r="630">
+      <c r="D630" s="2"/>
+    </row>
+    <row r="631">
+      <c r="D631" s="2"/>
+    </row>
+    <row r="632">
+      <c r="D632" s="2"/>
+    </row>
+    <row r="633">
+      <c r="D633" s="2"/>
+    </row>
+    <row r="634">
+      <c r="D634" s="2"/>
+    </row>
+    <row r="635">
+      <c r="D635" s="2"/>
+    </row>
+    <row r="636">
+      <c r="D636" s="2"/>
+    </row>
+    <row r="637">
+      <c r="D637" s="2"/>
+    </row>
+    <row r="638">
+      <c r="D638" s="2"/>
+    </row>
+    <row r="639">
+      <c r="D639" s="2"/>
+    </row>
+    <row r="640">
+      <c r="D640" s="2"/>
+    </row>
+    <row r="641">
+      <c r="D641" s="2"/>
+    </row>
+    <row r="642">
+      <c r="D642" s="2"/>
+    </row>
+    <row r="643">
+      <c r="D643" s="2"/>
+    </row>
+    <row r="644">
+      <c r="D644" s="2"/>
+    </row>
+    <row r="645">
+      <c r="D645" s="2"/>
+    </row>
+    <row r="646">
+      <c r="D646" s="2"/>
+    </row>
+    <row r="647">
+      <c r="D647" s="2"/>
+    </row>
+    <row r="648">
+      <c r="D648" s="2"/>
+    </row>
+    <row r="649">
+      <c r="D649" s="2"/>
+    </row>
+    <row r="650">
+      <c r="D650" s="2"/>
+    </row>
+    <row r="651">
+      <c r="D651" s="2"/>
+    </row>
+    <row r="652">
+      <c r="D652" s="2"/>
+    </row>
+    <row r="653">
+      <c r="D653" s="2"/>
+    </row>
+    <row r="654">
+      <c r="D654" s="2"/>
+    </row>
+    <row r="655">
+      <c r="D655" s="2"/>
+    </row>
+    <row r="656">
+      <c r="D656" s="2"/>
+    </row>
+    <row r="657">
+      <c r="D657" s="2"/>
+    </row>
+    <row r="658">
+      <c r="D658" s="2"/>
+    </row>
+    <row r="659">
+      <c r="D659" s="2"/>
+    </row>
+    <row r="660">
+      <c r="D660" s="2"/>
+    </row>
+    <row r="661">
+      <c r="D661" s="2"/>
+    </row>
+    <row r="662">
+      <c r="D662" s="2"/>
+    </row>
+    <row r="663">
+      <c r="D663" s="2"/>
+    </row>
+    <row r="664">
+      <c r="D664" s="2"/>
+    </row>
+    <row r="665">
+      <c r="D665" s="2"/>
+    </row>
+    <row r="666">
+      <c r="D666" s="2"/>
+    </row>
+    <row r="667">
+      <c r="D667" s="2"/>
+    </row>
+    <row r="668">
+      <c r="D668" s="2"/>
+    </row>
+    <row r="669">
+      <c r="D669" s="2"/>
+    </row>
+    <row r="670">
+      <c r="D670" s="2"/>
+    </row>
+    <row r="671">
+      <c r="D671" s="2"/>
+    </row>
+    <row r="672">
+      <c r="D672" s="2"/>
+    </row>
+    <row r="673">
+      <c r="D673" s="2"/>
+    </row>
+    <row r="674">
+      <c r="D674" s="2"/>
+    </row>
+    <row r="675">
+      <c r="D675" s="2"/>
+    </row>
+    <row r="676">
+      <c r="D676" s="2"/>
+    </row>
+    <row r="677">
+      <c r="D677" s="2"/>
+    </row>
+    <row r="678">
+      <c r="D678" s="2"/>
+    </row>
+    <row r="679">
+      <c r="D679" s="2"/>
+    </row>
+    <row r="680">
+      <c r="D680" s="2"/>
+    </row>
+    <row r="681">
+      <c r="D681" s="2"/>
+    </row>
+    <row r="682">
+      <c r="D682" s="2"/>
+    </row>
+    <row r="683">
+      <c r="D683" s="2"/>
+    </row>
+    <row r="684">
+      <c r="D684" s="2"/>
+    </row>
+    <row r="685">
+      <c r="D685" s="2"/>
+    </row>
+    <row r="686">
+      <c r="D686" s="2"/>
+    </row>
+    <row r="687">
+      <c r="D687" s="2"/>
+    </row>
+    <row r="688">
+      <c r="D688" s="2"/>
+    </row>
+    <row r="689">
+      <c r="D689" s="2"/>
+    </row>
+    <row r="690">
+      <c r="D690" s="2"/>
+    </row>
+    <row r="691">
+      <c r="D691" s="2"/>
+    </row>
+    <row r="692">
+      <c r="D692" s="2"/>
+    </row>
+    <row r="693">
+      <c r="D693" s="2"/>
+    </row>
+    <row r="694">
+      <c r="D694" s="2"/>
+    </row>
+    <row r="695">
+      <c r="D695" s="2"/>
+    </row>
+    <row r="696">
+      <c r="D696" s="2"/>
+    </row>
+    <row r="697">
+      <c r="D697" s="2"/>
+    </row>
+    <row r="698">
+      <c r="D698" s="2"/>
+    </row>
+    <row r="699">
+      <c r="D699" s="2"/>
+    </row>
+    <row r="700">
+      <c r="D700" s="2"/>
+    </row>
+    <row r="701">
+      <c r="D701" s="2"/>
+    </row>
+    <row r="702">
+      <c r="D702" s="2"/>
+    </row>
+    <row r="703">
+      <c r="D703" s="2"/>
+    </row>
+    <row r="704">
+      <c r="D704" s="2"/>
+    </row>
+    <row r="705">
+      <c r="D705" s="2"/>
+    </row>
+    <row r="706">
+      <c r="D706" s="2"/>
+    </row>
+    <row r="707">
+      <c r="D707" s="2"/>
+    </row>
+    <row r="708">
+      <c r="D708" s="2"/>
+    </row>
+    <row r="709">
+      <c r="D709" s="2"/>
+    </row>
+    <row r="710">
+      <c r="D710" s="2"/>
+    </row>
+    <row r="711">
+      <c r="D711" s="2"/>
+    </row>
+    <row r="712">
+      <c r="D712" s="2"/>
+    </row>
+    <row r="713">
+      <c r="D713" s="2"/>
+    </row>
+    <row r="714">
+      <c r="D714" s="2"/>
+    </row>
+    <row r="715">
+      <c r="D715" s="2"/>
+    </row>
+    <row r="716">
+      <c r="D716" s="2"/>
+    </row>
+    <row r="717">
+      <c r="D717" s="2"/>
+    </row>
+    <row r="718">
+      <c r="D718" s="2"/>
+    </row>
+    <row r="719">
+      <c r="D719" s="2"/>
+    </row>
+    <row r="720">
+      <c r="D720" s="2"/>
+    </row>
+    <row r="721">
+      <c r="D721" s="2"/>
+    </row>
+    <row r="722">
+      <c r="D722" s="2"/>
+    </row>
+    <row r="723">
+      <c r="D723" s="2"/>
+    </row>
+    <row r="724">
+      <c r="D724" s="2"/>
+    </row>
+    <row r="725">
+      <c r="D725" s="2"/>
+    </row>
+    <row r="726">
+      <c r="D726" s="2"/>
+    </row>
+    <row r="727">
+      <c r="D727" s="2"/>
+    </row>
+    <row r="728">
+      <c r="D728" s="2"/>
+    </row>
+    <row r="729">
+      <c r="D729" s="2"/>
+    </row>
+    <row r="730">
+      <c r="D730" s="2"/>
+    </row>
+    <row r="731">
+      <c r="D731" s="2"/>
+    </row>
+    <row r="732">
+      <c r="D732" s="2"/>
+    </row>
+    <row r="733">
+      <c r="D733" s="2"/>
+    </row>
+    <row r="734">
+      <c r="D734" s="2"/>
+    </row>
+    <row r="735">
+      <c r="D735" s="2"/>
+    </row>
+    <row r="736">
+      <c r="D736" s="2"/>
+    </row>
+    <row r="737">
+      <c r="D737" s="2"/>
+    </row>
+    <row r="738">
+      <c r="D738" s="2"/>
+    </row>
+    <row r="739">
+      <c r="D739" s="2"/>
+    </row>
+    <row r="740">
+      <c r="D740" s="2"/>
+    </row>
+    <row r="741">
+      <c r="D741" s="2"/>
+    </row>
+    <row r="742">
+      <c r="D742" s="2"/>
+    </row>
+    <row r="743">
+      <c r="D743" s="2"/>
+    </row>
+    <row r="744">
+      <c r="D744" s="2"/>
+    </row>
+    <row r="745">
+      <c r="D745" s="2"/>
+    </row>
+    <row r="746">
+      <c r="D746" s="2"/>
+    </row>
+    <row r="747">
+      <c r="D747" s="2"/>
+    </row>
+    <row r="748">
+      <c r="D748" s="2"/>
+    </row>
+    <row r="749">
+      <c r="D749" s="2"/>
+    </row>
+    <row r="750">
+      <c r="D750" s="2"/>
+    </row>
+    <row r="751">
+      <c r="D751" s="2"/>
+    </row>
+    <row r="752">
+      <c r="D752" s="2"/>
+    </row>
+    <row r="753">
+      <c r="D753" s="2"/>
+    </row>
+    <row r="754">
+      <c r="D754" s="2"/>
+    </row>
+    <row r="755">
+      <c r="D755" s="2"/>
+    </row>
+    <row r="756">
+      <c r="D756" s="2"/>
+    </row>
+    <row r="757">
+      <c r="D757" s="2"/>
+    </row>
+    <row r="758">
+      <c r="D758" s="2"/>
+    </row>
+    <row r="759">
+      <c r="D759" s="2"/>
+    </row>
+    <row r="760">
+      <c r="D760" s="2"/>
+    </row>
+    <row r="761">
+      <c r="D761" s="2"/>
+    </row>
+    <row r="762">
+      <c r="D762" s="2"/>
+    </row>
+    <row r="763">
+      <c r="D763" s="2"/>
+    </row>
+    <row r="764">
+      <c r="D764" s="2"/>
+    </row>
+    <row r="765">
+      <c r="D765" s="2"/>
+    </row>
+    <row r="766">
+      <c r="D766" s="2"/>
+    </row>
+    <row r="767">
+      <c r="D767" s="2"/>
+    </row>
+    <row r="768">
+      <c r="D768" s="2"/>
+    </row>
+    <row r="769">
+      <c r="D769" s="2"/>
+    </row>
+    <row r="770">
+      <c r="D770" s="2"/>
+    </row>
+    <row r="771">
+      <c r="D771" s="2"/>
+    </row>
+    <row r="772">
+      <c r="D772" s="2"/>
+    </row>
+    <row r="773">
+      <c r="D773" s="2"/>
+    </row>
+    <row r="774">
+      <c r="D774" s="2"/>
+    </row>
+    <row r="775">
+      <c r="D775" s="2"/>
+    </row>
+    <row r="776">
+      <c r="D776" s="2"/>
+    </row>
+    <row r="777">
+      <c r="D777" s="2"/>
+    </row>
+    <row r="778">
+      <c r="D778" s="2"/>
+    </row>
+    <row r="779">
+      <c r="D779" s="2"/>
+    </row>
+    <row r="780">
+      <c r="D780" s="2"/>
+    </row>
+    <row r="781">
+      <c r="D781" s="2"/>
+    </row>
+    <row r="782">
+      <c r="D782" s="2"/>
+    </row>
+    <row r="783">
+      <c r="D783" s="2"/>
+    </row>
+    <row r="784">
+      <c r="D784" s="2"/>
+    </row>
+    <row r="785">
+      <c r="D785" s="2"/>
+    </row>
+    <row r="786">
+      <c r="D786" s="2"/>
+    </row>
+    <row r="787">
+      <c r="D787" s="2"/>
+    </row>
+    <row r="788">
+      <c r="D788" s="2"/>
+    </row>
+    <row r="789">
+      <c r="D789" s="2"/>
+    </row>
+    <row r="790">
+      <c r="D790" s="2"/>
+    </row>
+    <row r="791">
+      <c r="D791" s="2"/>
+    </row>
+    <row r="792">
+      <c r="D792" s="2"/>
+    </row>
+    <row r="793">
+      <c r="D793" s="2"/>
+    </row>
+    <row r="794">
+      <c r="D794" s="2"/>
+    </row>
+    <row r="795">
+      <c r="D795" s="2"/>
+    </row>
+    <row r="796">
+      <c r="D796" s="2"/>
+    </row>
+    <row r="797">
+      <c r="D797" s="2"/>
+    </row>
+    <row r="798">
+      <c r="D798" s="2"/>
+    </row>
+    <row r="799">
+      <c r="D799" s="2"/>
+    </row>
+    <row r="800">
+      <c r="D800" s="2"/>
+    </row>
+    <row r="801">
+      <c r="D801" s="2"/>
+    </row>
+    <row r="802">
+      <c r="D802" s="2"/>
+    </row>
+    <row r="803">
+      <c r="D803" s="2"/>
+    </row>
+    <row r="804">
+      <c r="D804" s="2"/>
+    </row>
+    <row r="805">
+      <c r="D805" s="2"/>
+    </row>
+    <row r="806">
+      <c r="D806" s="2"/>
+    </row>
+    <row r="807">
+      <c r="D807" s="2"/>
+    </row>
+    <row r="808">
+      <c r="D808" s="2"/>
+    </row>
+    <row r="809">
+      <c r="D809" s="2"/>
+    </row>
+    <row r="810">
+      <c r="D810" s="2"/>
+    </row>
+    <row r="811">
+      <c r="D811" s="2"/>
+    </row>
+    <row r="812">
+      <c r="D812" s="2"/>
+    </row>
+    <row r="813">
+      <c r="D813" s="2"/>
+    </row>
+    <row r="814">
+      <c r="D814" s="2"/>
+    </row>
+    <row r="815">
+      <c r="D815" s="2"/>
+    </row>
+    <row r="816">
+      <c r="D816" s="2"/>
+    </row>
+    <row r="817">
+      <c r="D817" s="2"/>
+    </row>
+    <row r="818">
+      <c r="D818" s="2"/>
+    </row>
+    <row r="819">
+      <c r="D819" s="2"/>
+    </row>
+    <row r="820">
+      <c r="D820" s="2"/>
+    </row>
+    <row r="821">
+      <c r="D821" s="2"/>
+    </row>
+    <row r="822">
+      <c r="D822" s="2"/>
+    </row>
+    <row r="823">
+      <c r="D823" s="2"/>
+    </row>
+    <row r="824">
+      <c r="D824" s="2"/>
+    </row>
+    <row r="825">
+      <c r="D825" s="2"/>
+    </row>
+    <row r="826">
+      <c r="D826" s="2"/>
+    </row>
+    <row r="827">
+      <c r="D827" s="2"/>
+    </row>
+    <row r="828">
+      <c r="D828" s="2"/>
+    </row>
+    <row r="829">
+      <c r="D829" s="2"/>
+    </row>
+    <row r="830">
+      <c r="D830" s="2"/>
+    </row>
+    <row r="831">
+      <c r="D831" s="2"/>
+    </row>
+    <row r="832">
+      <c r="D832" s="2"/>
+    </row>
+    <row r="833">
+      <c r="D833" s="2"/>
+    </row>
+    <row r="834">
+      <c r="D834" s="2"/>
+    </row>
+    <row r="835">
+      <c r="D835" s="2"/>
+    </row>
+    <row r="836">
+      <c r="D836" s="2"/>
+    </row>
+    <row r="837">
+      <c r="D837" s="2"/>
+    </row>
+    <row r="838">
+      <c r="D838" s="2"/>
+    </row>
+    <row r="839">
+      <c r="D839" s="2"/>
+    </row>
+    <row r="840">
+      <c r="D840" s="2"/>
+    </row>
+    <row r="841">
+      <c r="D841" s="2"/>
+    </row>
+    <row r="842">
+      <c r="D842" s="2"/>
+    </row>
+    <row r="843">
+      <c r="D843" s="2"/>
+    </row>
+    <row r="844">
+      <c r="D844" s="2"/>
+    </row>
+    <row r="845">
+      <c r="D845" s="2"/>
+    </row>
+    <row r="846">
+      <c r="D846" s="2"/>
+    </row>
+    <row r="847">
+      <c r="D847" s="2"/>
+    </row>
+    <row r="848">
+      <c r="D848" s="2"/>
+    </row>
+    <row r="849">
+      <c r="D849" s="2"/>
+    </row>
+    <row r="850">
+      <c r="D850" s="2"/>
+    </row>
+    <row r="851">
+      <c r="D851" s="2"/>
+    </row>
+    <row r="852">
+      <c r="D852" s="2"/>
+    </row>
+    <row r="853">
+      <c r="D853" s="2"/>
+    </row>
+    <row r="854">
+      <c r="D854" s="2"/>
+    </row>
+    <row r="855">
+      <c r="D855" s="2"/>
+    </row>
+    <row r="856">
+      <c r="D856" s="2"/>
+    </row>
+    <row r="857">
+      <c r="D857" s="2"/>
+    </row>
+    <row r="858">
+      <c r="D858" s="2"/>
+    </row>
+    <row r="859">
+      <c r="D859" s="2"/>
+    </row>
+    <row r="860">
+      <c r="D860" s="2"/>
+    </row>
+    <row r="861">
+      <c r="D861" s="2"/>
+    </row>
+    <row r="862">
+      <c r="D862" s="2"/>
+    </row>
+    <row r="863">
+      <c r="D863" s="2"/>
+    </row>
+    <row r="864">
+      <c r="D864" s="2"/>
+    </row>
+    <row r="865">
+      <c r="D865" s="2"/>
+    </row>
+    <row r="866">
+      <c r="D866" s="2"/>
+    </row>
+    <row r="867">
+      <c r="D867" s="2"/>
+    </row>
+    <row r="868">
+      <c r="D868" s="2"/>
+    </row>
+    <row r="869">
+      <c r="D869" s="2"/>
+    </row>
+    <row r="870">
+      <c r="D870" s="2"/>
+    </row>
+    <row r="871">
+      <c r="D871" s="2"/>
+    </row>
+    <row r="872">
+      <c r="D872" s="2"/>
+    </row>
+    <row r="873">
+      <c r="D873" s="2"/>
+    </row>
+    <row r="874">
+      <c r="D874" s="2"/>
+    </row>
+    <row r="875">
+      <c r="D875" s="2"/>
+    </row>
+    <row r="876">
+      <c r="D876" s="2"/>
+    </row>
+    <row r="877">
+      <c r="D877" s="2"/>
+    </row>
+    <row r="878">
+      <c r="D878" s="2"/>
+    </row>
+    <row r="879">
+      <c r="D879" s="2"/>
+    </row>
+    <row r="880">
+      <c r="D880" s="2"/>
+    </row>
+    <row r="881">
+      <c r="D881" s="2"/>
+    </row>
+    <row r="882">
+      <c r="D882" s="2"/>
+    </row>
+    <row r="883">
+      <c r="D883" s="2"/>
+    </row>
+    <row r="884">
+      <c r="D884" s="2"/>
+    </row>
+    <row r="885">
+      <c r="D885" s="2"/>
+    </row>
+    <row r="886">
+      <c r="D886" s="2"/>
+    </row>
+    <row r="887">
+      <c r="D887" s="2"/>
+    </row>
+    <row r="888">
+      <c r="D888" s="2"/>
+    </row>
+    <row r="889">
+      <c r="D889" s="2"/>
+    </row>
+    <row r="890">
+      <c r="D890" s="2"/>
+    </row>
+    <row r="891">
+      <c r="D891" s="2"/>
+    </row>
+    <row r="892">
+      <c r="D892" s="2"/>
+    </row>
+    <row r="893">
+      <c r="D893" s="2"/>
+    </row>
+    <row r="894">
+      <c r="D894" s="2"/>
+    </row>
+    <row r="895">
+      <c r="D895" s="2"/>
+    </row>
+    <row r="896">
+      <c r="D896" s="2"/>
+    </row>
+    <row r="897">
+      <c r="D897" s="2"/>
+    </row>
+    <row r="898">
+      <c r="D898" s="2"/>
+    </row>
+    <row r="899">
+      <c r="D899" s="2"/>
+    </row>
+    <row r="900">
+      <c r="D900" s="2"/>
+    </row>
+    <row r="901">
+      <c r="D901" s="2"/>
+    </row>
+    <row r="902">
+      <c r="D902" s="2"/>
+    </row>
+    <row r="903">
+      <c r="D903" s="2"/>
+    </row>
+    <row r="904">
+      <c r="D904" s="2"/>
+    </row>
+    <row r="905">
+      <c r="D905" s="2"/>
+    </row>
+    <row r="906">
+      <c r="D906" s="2"/>
+    </row>
+    <row r="907">
+      <c r="D907" s="2"/>
+    </row>
+    <row r="908">
+      <c r="D908" s="2"/>
+    </row>
+    <row r="909">
+      <c r="D909" s="2"/>
+    </row>
+    <row r="910">
+      <c r="D910" s="2"/>
+    </row>
+    <row r="911">
+      <c r="D911" s="2"/>
+    </row>
+    <row r="912">
+      <c r="D912" s="2"/>
+    </row>
+    <row r="913">
+      <c r="D913" s="2"/>
+    </row>
+    <row r="914">
+      <c r="D914" s="2"/>
+    </row>
+    <row r="915">
+      <c r="D915" s="2"/>
+    </row>
+    <row r="916">
+      <c r="D916" s="2"/>
+    </row>
+    <row r="917">
+      <c r="D917" s="2"/>
+    </row>
+    <row r="918">
+      <c r="D918" s="2"/>
+    </row>
+    <row r="919">
+      <c r="D919" s="2"/>
+    </row>
+    <row r="920">
+      <c r="D920" s="2"/>
+    </row>
+    <row r="921">
+      <c r="D921" s="2"/>
+    </row>
+    <row r="922">
+      <c r="D922" s="2"/>
+    </row>
+    <row r="923">
+      <c r="D923" s="2"/>
+    </row>
+    <row r="924">
+      <c r="D924" s="2"/>
+    </row>
+    <row r="925">
+      <c r="D925" s="2"/>
+    </row>
+    <row r="926">
+      <c r="D926" s="2"/>
+    </row>
+    <row r="927">
+      <c r="D927" s="2"/>
+    </row>
+    <row r="928">
+      <c r="D928" s="2"/>
+    </row>
+    <row r="929">
+      <c r="D929" s="2"/>
+    </row>
+    <row r="930">
+      <c r="D930" s="2"/>
+    </row>
+    <row r="931">
+      <c r="D931" s="2"/>
+    </row>
+    <row r="932">
+      <c r="D932" s="2"/>
+    </row>
+    <row r="933">
+      <c r="D933" s="2"/>
+    </row>
+    <row r="934">
+      <c r="D934" s="2"/>
+    </row>
+    <row r="935">
+      <c r="D935" s="2"/>
+    </row>
+    <row r="936">
+      <c r="D936" s="2"/>
+    </row>
+    <row r="937">
+      <c r="D937" s="2"/>
+    </row>
+    <row r="938">
+      <c r="D938" s="2"/>
+    </row>
+    <row r="939">
+      <c r="D939" s="2"/>
+    </row>
+    <row r="940">
+      <c r="D940" s="2"/>
+    </row>
+    <row r="941">
+      <c r="D941" s="2"/>
+    </row>
+    <row r="942">
+      <c r="D942" s="2"/>
+    </row>
+    <row r="943">
+      <c r="D943" s="2"/>
+    </row>
+    <row r="944">
+      <c r="D944" s="2"/>
+    </row>
+    <row r="945">
+      <c r="D945" s="2"/>
+    </row>
+    <row r="946">
+      <c r="D946" s="2"/>
+    </row>
+    <row r="947">
+      <c r="D947" s="2"/>
+    </row>
+    <row r="948">
+      <c r="D948" s="2"/>
+    </row>
+    <row r="949">
+      <c r="D949" s="2"/>
+    </row>
+    <row r="950">
+      <c r="D950" s="2"/>
+    </row>
+    <row r="951">
+      <c r="D951" s="2"/>
+    </row>
+    <row r="952">
+      <c r="D952" s="2"/>
+    </row>
+    <row r="953">
+      <c r="D953" s="2"/>
+    </row>
+    <row r="954">
+      <c r="D954" s="2"/>
+    </row>
+    <row r="955">
+      <c r="D955" s="2"/>
+    </row>
+    <row r="956">
+      <c r="D956" s="2"/>
+    </row>
+    <row r="957">
+      <c r="D957" s="2"/>
+    </row>
+    <row r="958">
+      <c r="D958" s="2"/>
+    </row>
+    <row r="959">
+      <c r="D959" s="2"/>
+    </row>
+    <row r="960">
+      <c r="D960" s="2"/>
+    </row>
+    <row r="961">
+      <c r="D961" s="2"/>
+    </row>
+    <row r="962">
+      <c r="D962" s="2"/>
+    </row>
+    <row r="963">
+      <c r="D963" s="2"/>
+    </row>
+    <row r="964">
+      <c r="D964" s="2"/>
+    </row>
+    <row r="965">
+      <c r="D965" s="2"/>
+    </row>
+    <row r="966">
+      <c r="D966" s="2"/>
+    </row>
+    <row r="967">
+      <c r="D967" s="2"/>
+    </row>
+    <row r="968">
+      <c r="D968" s="2"/>
+    </row>
+    <row r="969">
+      <c r="D969" s="2"/>
+    </row>
+    <row r="970">
+      <c r="D970" s="2"/>
+    </row>
+    <row r="971">
+      <c r="D971" s="2"/>
+    </row>
+    <row r="972">
+      <c r="D972" s="2"/>
+    </row>
+    <row r="973">
+      <c r="D973" s="2"/>
+    </row>
+    <row r="974">
+      <c r="D974" s="2"/>
+    </row>
+    <row r="975">
+      <c r="D975" s="2"/>
+    </row>
+    <row r="976">
+      <c r="D976" s="2"/>
+    </row>
+    <row r="977">
+      <c r="D977" s="2"/>
+    </row>
+    <row r="978">
+      <c r="D978" s="2"/>
+    </row>
+    <row r="979">
+      <c r="D979" s="2"/>
+    </row>
+    <row r="980">
+      <c r="D980" s="2"/>
+    </row>
+    <row r="981">
+      <c r="D981" s="2"/>
+    </row>
+    <row r="982">
+      <c r="D982" s="2"/>
+    </row>
+    <row r="983">
+      <c r="D983" s="2"/>
+    </row>
+    <row r="984">
+      <c r="D984" s="2"/>
+    </row>
+    <row r="985">
+      <c r="D985" s="2"/>
+    </row>
+    <row r="986">
+      <c r="D986" s="2"/>
+    </row>
+    <row r="987">
+      <c r="D987" s="2"/>
+    </row>
+    <row r="988">
+      <c r="D988" s="2"/>
+    </row>
+    <row r="989">
+      <c r="D989" s="2"/>
+    </row>
+    <row r="990">
+      <c r="D990" s="2"/>
+    </row>
+    <row r="991">
+      <c r="D991" s="2"/>
+    </row>
+    <row r="992">
+      <c r="D992" s="2"/>
+    </row>
+    <row r="993">
+      <c r="D993" s="2"/>
+    </row>
+    <row r="994">
+      <c r="D994" s="2"/>
+    </row>
+    <row r="995">
+      <c r="D995" s="2"/>
+    </row>
+    <row r="996">
+      <c r="D996" s="2"/>
+    </row>
+    <row r="997">
+      <c r="D997" s="2"/>
+    </row>
+    <row r="998">
+      <c r="D998" s="2"/>
+    </row>
+    <row r="999">
+      <c r="D999" s="2"/>
+    </row>
+    <row r="1000">
+      <c r="D1000" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -726,3067 +4281,26 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="15.13"/>
-    <col customWidth="1" min="3" max="3" width="16.63"/>
-    <col customWidth="1" min="4" max="4" width="73.0"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4">
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5">
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6">
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7">
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8">
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9">
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10">
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11">
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12">
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13">
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14">
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15">
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17">
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18">
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19">
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20">
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21">
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22">
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23">
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24">
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25">
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26">
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27">
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28">
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29">
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30">
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31">
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32">
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33">
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34">
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35">
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36">
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37">
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38">
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39">
-      <c r="D39" s="2"/>
-    </row>
-    <row r="40">
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41">
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42">
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43">
-      <c r="D43" s="2"/>
-    </row>
-    <row r="44">
-      <c r="D44" s="2"/>
-    </row>
-    <row r="45">
-      <c r="D45" s="2"/>
-    </row>
-    <row r="46">
-      <c r="D46" s="2"/>
-    </row>
-    <row r="47">
-      <c r="D47" s="2"/>
-    </row>
-    <row r="48">
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49">
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50">
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51">
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52">
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53">
-      <c r="D53" s="2"/>
-    </row>
-    <row r="54">
-      <c r="D54" s="2"/>
-    </row>
-    <row r="55">
-      <c r="D55" s="2"/>
-    </row>
-    <row r="56">
-      <c r="D56" s="2"/>
-    </row>
-    <row r="57">
-      <c r="D57" s="2"/>
-    </row>
-    <row r="58">
-      <c r="D58" s="2"/>
-    </row>
-    <row r="59">
-      <c r="D59" s="2"/>
-    </row>
-    <row r="60">
-      <c r="D60" s="2"/>
-    </row>
-    <row r="61">
-      <c r="D61" s="2"/>
-    </row>
-    <row r="62">
-      <c r="D62" s="2"/>
-    </row>
-    <row r="63">
-      <c r="D63" s="2"/>
-    </row>
-    <row r="64">
-      <c r="D64" s="2"/>
-    </row>
-    <row r="65">
-      <c r="D65" s="2"/>
-    </row>
-    <row r="66">
-      <c r="D66" s="2"/>
-    </row>
-    <row r="67">
-      <c r="D67" s="2"/>
-    </row>
-    <row r="68">
-      <c r="D68" s="2"/>
-    </row>
-    <row r="69">
-      <c r="D69" s="2"/>
-    </row>
-    <row r="70">
-      <c r="D70" s="2"/>
-    </row>
-    <row r="71">
-      <c r="D71" s="2"/>
-    </row>
-    <row r="72">
-      <c r="D72" s="2"/>
-    </row>
-    <row r="73">
-      <c r="D73" s="2"/>
-    </row>
-    <row r="74">
-      <c r="D74" s="2"/>
-    </row>
-    <row r="75">
-      <c r="D75" s="2"/>
-    </row>
-    <row r="76">
-      <c r="D76" s="2"/>
-    </row>
-    <row r="77">
-      <c r="D77" s="2"/>
-    </row>
-    <row r="78">
-      <c r="D78" s="2"/>
-    </row>
-    <row r="79">
-      <c r="D79" s="2"/>
-    </row>
-    <row r="80">
-      <c r="D80" s="2"/>
-    </row>
-    <row r="81">
-      <c r="D81" s="2"/>
-    </row>
-    <row r="82">
-      <c r="D82" s="2"/>
-    </row>
-    <row r="83">
-      <c r="D83" s="2"/>
-    </row>
-    <row r="84">
-      <c r="D84" s="2"/>
-    </row>
-    <row r="85">
-      <c r="D85" s="2"/>
-    </row>
-    <row r="86">
-      <c r="D86" s="2"/>
-    </row>
-    <row r="87">
-      <c r="D87" s="2"/>
-    </row>
-    <row r="88">
-      <c r="D88" s="2"/>
-    </row>
-    <row r="89">
-      <c r="D89" s="2"/>
-    </row>
-    <row r="90">
-      <c r="D90" s="2"/>
-    </row>
-    <row r="91">
-      <c r="D91" s="2"/>
-    </row>
-    <row r="92">
-      <c r="D92" s="2"/>
-    </row>
-    <row r="93">
-      <c r="D93" s="2"/>
-    </row>
-    <row r="94">
-      <c r="D94" s="2"/>
-    </row>
-    <row r="95">
-      <c r="D95" s="2"/>
-    </row>
-    <row r="96">
-      <c r="D96" s="2"/>
-    </row>
-    <row r="97">
-      <c r="D97" s="2"/>
-    </row>
-    <row r="98">
-      <c r="D98" s="2"/>
-    </row>
-    <row r="99">
-      <c r="D99" s="2"/>
-    </row>
-    <row r="100">
-      <c r="D100" s="2"/>
-    </row>
-    <row r="101">
-      <c r="D101" s="2"/>
-    </row>
-    <row r="102">
-      <c r="D102" s="2"/>
-    </row>
-    <row r="103">
-      <c r="D103" s="2"/>
-    </row>
-    <row r="104">
-      <c r="D104" s="2"/>
-    </row>
-    <row r="105">
-      <c r="D105" s="2"/>
-    </row>
-    <row r="106">
-      <c r="D106" s="2"/>
-    </row>
-    <row r="107">
-      <c r="D107" s="2"/>
-    </row>
-    <row r="108">
-      <c r="D108" s="2"/>
-    </row>
-    <row r="109">
-      <c r="D109" s="2"/>
-    </row>
-    <row r="110">
-      <c r="D110" s="2"/>
-    </row>
-    <row r="111">
-      <c r="D111" s="2"/>
-    </row>
-    <row r="112">
-      <c r="D112" s="2"/>
-    </row>
-    <row r="113">
-      <c r="D113" s="2"/>
-    </row>
-    <row r="114">
-      <c r="D114" s="2"/>
-    </row>
-    <row r="115">
-      <c r="D115" s="2"/>
-    </row>
-    <row r="116">
-      <c r="D116" s="2"/>
-    </row>
-    <row r="117">
-      <c r="D117" s="2"/>
-    </row>
-    <row r="118">
-      <c r="D118" s="2"/>
-    </row>
-    <row r="119">
-      <c r="D119" s="2"/>
-    </row>
-    <row r="120">
-      <c r="D120" s="2"/>
-    </row>
-    <row r="121">
-      <c r="D121" s="2"/>
-    </row>
-    <row r="122">
-      <c r="D122" s="2"/>
-    </row>
-    <row r="123">
-      <c r="D123" s="2"/>
-    </row>
-    <row r="124">
-      <c r="D124" s="2"/>
-    </row>
-    <row r="125">
-      <c r="D125" s="2"/>
-    </row>
-    <row r="126">
-      <c r="D126" s="2"/>
-    </row>
-    <row r="127">
-      <c r="D127" s="2"/>
-    </row>
-    <row r="128">
-      <c r="D128" s="2"/>
-    </row>
-    <row r="129">
-      <c r="D129" s="2"/>
-    </row>
-    <row r="130">
-      <c r="D130" s="2"/>
-    </row>
-    <row r="131">
-      <c r="D131" s="2"/>
-    </row>
-    <row r="132">
-      <c r="D132" s="2"/>
-    </row>
-    <row r="133">
-      <c r="D133" s="2"/>
-    </row>
-    <row r="134">
-      <c r="D134" s="2"/>
-    </row>
-    <row r="135">
-      <c r="D135" s="2"/>
-    </row>
-    <row r="136">
-      <c r="D136" s="2"/>
-    </row>
-    <row r="137">
-      <c r="D137" s="2"/>
-    </row>
-    <row r="138">
-      <c r="D138" s="2"/>
-    </row>
-    <row r="139">
-      <c r="D139" s="2"/>
-    </row>
-    <row r="140">
-      <c r="D140" s="2"/>
-    </row>
-    <row r="141">
-      <c r="D141" s="2"/>
-    </row>
-    <row r="142">
-      <c r="D142" s="2"/>
-    </row>
-    <row r="143">
-      <c r="D143" s="2"/>
-    </row>
-    <row r="144">
-      <c r="D144" s="2"/>
-    </row>
-    <row r="145">
-      <c r="D145" s="2"/>
-    </row>
-    <row r="146">
-      <c r="D146" s="2"/>
-    </row>
-    <row r="147">
-      <c r="D147" s="2"/>
-    </row>
-    <row r="148">
-      <c r="D148" s="2"/>
-    </row>
-    <row r="149">
-      <c r="D149" s="2"/>
-    </row>
-    <row r="150">
-      <c r="D150" s="2"/>
-    </row>
-    <row r="151">
-      <c r="D151" s="2"/>
-    </row>
-    <row r="152">
-      <c r="D152" s="2"/>
-    </row>
-    <row r="153">
-      <c r="D153" s="2"/>
-    </row>
-    <row r="154">
-      <c r="D154" s="2"/>
-    </row>
-    <row r="155">
-      <c r="D155" s="2"/>
-    </row>
-    <row r="156">
-      <c r="D156" s="2"/>
-    </row>
-    <row r="157">
-      <c r="D157" s="2"/>
-    </row>
-    <row r="158">
-      <c r="D158" s="2"/>
-    </row>
-    <row r="159">
-      <c r="D159" s="2"/>
-    </row>
-    <row r="160">
-      <c r="D160" s="2"/>
-    </row>
-    <row r="161">
-      <c r="D161" s="2"/>
-    </row>
-    <row r="162">
-      <c r="D162" s="2"/>
-    </row>
-    <row r="163">
-      <c r="D163" s="2"/>
-    </row>
-    <row r="164">
-      <c r="D164" s="2"/>
-    </row>
-    <row r="165">
-      <c r="D165" s="2"/>
-    </row>
-    <row r="166">
-      <c r="D166" s="2"/>
-    </row>
-    <row r="167">
-      <c r="D167" s="2"/>
-    </row>
-    <row r="168">
-      <c r="D168" s="2"/>
-    </row>
-    <row r="169">
-      <c r="D169" s="2"/>
-    </row>
-    <row r="170">
-      <c r="D170" s="2"/>
-    </row>
-    <row r="171">
-      <c r="D171" s="2"/>
-    </row>
-    <row r="172">
-      <c r="D172" s="2"/>
-    </row>
-    <row r="173">
-      <c r="D173" s="2"/>
-    </row>
-    <row r="174">
-      <c r="D174" s="2"/>
-    </row>
-    <row r="175">
-      <c r="D175" s="2"/>
-    </row>
-    <row r="176">
-      <c r="D176" s="2"/>
-    </row>
-    <row r="177">
-      <c r="D177" s="2"/>
-    </row>
-    <row r="178">
-      <c r="D178" s="2"/>
-    </row>
-    <row r="179">
-      <c r="D179" s="2"/>
-    </row>
-    <row r="180">
-      <c r="D180" s="2"/>
-    </row>
-    <row r="181">
-      <c r="D181" s="2"/>
-    </row>
-    <row r="182">
-      <c r="D182" s="2"/>
-    </row>
-    <row r="183">
-      <c r="D183" s="2"/>
-    </row>
-    <row r="184">
-      <c r="D184" s="2"/>
-    </row>
-    <row r="185">
-      <c r="D185" s="2"/>
-    </row>
-    <row r="186">
-      <c r="D186" s="2"/>
-    </row>
-    <row r="187">
-      <c r="D187" s="2"/>
-    </row>
-    <row r="188">
-      <c r="D188" s="2"/>
-    </row>
-    <row r="189">
-      <c r="D189" s="2"/>
-    </row>
-    <row r="190">
-      <c r="D190" s="2"/>
-    </row>
-    <row r="191">
-      <c r="D191" s="2"/>
-    </row>
-    <row r="192">
-      <c r="D192" s="2"/>
-    </row>
-    <row r="193">
-      <c r="D193" s="2"/>
-    </row>
-    <row r="194">
-      <c r="D194" s="2"/>
-    </row>
-    <row r="195">
-      <c r="D195" s="2"/>
-    </row>
-    <row r="196">
-      <c r="D196" s="2"/>
-    </row>
-    <row r="197">
-      <c r="D197" s="2"/>
-    </row>
-    <row r="198">
-      <c r="D198" s="2"/>
-    </row>
-    <row r="199">
-      <c r="D199" s="2"/>
-    </row>
-    <row r="200">
-      <c r="D200" s="2"/>
-    </row>
-    <row r="201">
-      <c r="D201" s="2"/>
-    </row>
-    <row r="202">
-      <c r="D202" s="2"/>
-    </row>
-    <row r="203">
-      <c r="D203" s="2"/>
-    </row>
-    <row r="204">
-      <c r="D204" s="2"/>
-    </row>
-    <row r="205">
-      <c r="D205" s="2"/>
-    </row>
-    <row r="206">
-      <c r="D206" s="2"/>
-    </row>
-    <row r="207">
-      <c r="D207" s="2"/>
-    </row>
-    <row r="208">
-      <c r="D208" s="2"/>
-    </row>
-    <row r="209">
-      <c r="D209" s="2"/>
-    </row>
-    <row r="210">
-      <c r="D210" s="2"/>
-    </row>
-    <row r="211">
-      <c r="D211" s="2"/>
-    </row>
-    <row r="212">
-      <c r="D212" s="2"/>
-    </row>
-    <row r="213">
-      <c r="D213" s="2"/>
-    </row>
-    <row r="214">
-      <c r="D214" s="2"/>
-    </row>
-    <row r="215">
-      <c r="D215" s="2"/>
-    </row>
-    <row r="216">
-      <c r="D216" s="2"/>
-    </row>
-    <row r="217">
-      <c r="D217" s="2"/>
-    </row>
-    <row r="218">
-      <c r="D218" s="2"/>
-    </row>
-    <row r="219">
-      <c r="D219" s="2"/>
-    </row>
-    <row r="220">
-      <c r="D220" s="2"/>
-    </row>
-    <row r="221">
-      <c r="D221" s="2"/>
-    </row>
-    <row r="222">
-      <c r="D222" s="2"/>
-    </row>
-    <row r="223">
-      <c r="D223" s="2"/>
-    </row>
-    <row r="224">
-      <c r="D224" s="2"/>
-    </row>
-    <row r="225">
-      <c r="D225" s="2"/>
-    </row>
-    <row r="226">
-      <c r="D226" s="2"/>
-    </row>
-    <row r="227">
-      <c r="D227" s="2"/>
-    </row>
-    <row r="228">
-      <c r="D228" s="2"/>
-    </row>
-    <row r="229">
-      <c r="D229" s="2"/>
-    </row>
-    <row r="230">
-      <c r="D230" s="2"/>
-    </row>
-    <row r="231">
-      <c r="D231" s="2"/>
-    </row>
-    <row r="232">
-      <c r="D232" s="2"/>
-    </row>
-    <row r="233">
-      <c r="D233" s="2"/>
-    </row>
-    <row r="234">
-      <c r="D234" s="2"/>
-    </row>
-    <row r="235">
-      <c r="D235" s="2"/>
-    </row>
-    <row r="236">
-      <c r="D236" s="2"/>
-    </row>
-    <row r="237">
-      <c r="D237" s="2"/>
-    </row>
-    <row r="238">
-      <c r="D238" s="2"/>
-    </row>
-    <row r="239">
-      <c r="D239" s="2"/>
-    </row>
-    <row r="240">
-      <c r="D240" s="2"/>
-    </row>
-    <row r="241">
-      <c r="D241" s="2"/>
-    </row>
-    <row r="242">
-      <c r="D242" s="2"/>
-    </row>
-    <row r="243">
-      <c r="D243" s="2"/>
-    </row>
-    <row r="244">
-      <c r="D244" s="2"/>
-    </row>
-    <row r="245">
-      <c r="D245" s="2"/>
-    </row>
-    <row r="246">
-      <c r="D246" s="2"/>
-    </row>
-    <row r="247">
-      <c r="D247" s="2"/>
-    </row>
-    <row r="248">
-      <c r="D248" s="2"/>
-    </row>
-    <row r="249">
-      <c r="D249" s="2"/>
-    </row>
-    <row r="250">
-      <c r="D250" s="2"/>
-    </row>
-    <row r="251">
-      <c r="D251" s="2"/>
-    </row>
-    <row r="252">
-      <c r="D252" s="2"/>
-    </row>
-    <row r="253">
-      <c r="D253" s="2"/>
-    </row>
-    <row r="254">
-      <c r="D254" s="2"/>
-    </row>
-    <row r="255">
-      <c r="D255" s="2"/>
-    </row>
-    <row r="256">
-      <c r="D256" s="2"/>
-    </row>
-    <row r="257">
-      <c r="D257" s="2"/>
-    </row>
-    <row r="258">
-      <c r="D258" s="2"/>
-    </row>
-    <row r="259">
-      <c r="D259" s="2"/>
-    </row>
-    <row r="260">
-      <c r="D260" s="2"/>
-    </row>
-    <row r="261">
-      <c r="D261" s="2"/>
-    </row>
-    <row r="262">
-      <c r="D262" s="2"/>
-    </row>
-    <row r="263">
-      <c r="D263" s="2"/>
-    </row>
-    <row r="264">
-      <c r="D264" s="2"/>
-    </row>
-    <row r="265">
-      <c r="D265" s="2"/>
-    </row>
-    <row r="266">
-      <c r="D266" s="2"/>
-    </row>
-    <row r="267">
-      <c r="D267" s="2"/>
-    </row>
-    <row r="268">
-      <c r="D268" s="2"/>
-    </row>
-    <row r="269">
-      <c r="D269" s="2"/>
-    </row>
-    <row r="270">
-      <c r="D270" s="2"/>
-    </row>
-    <row r="271">
-      <c r="D271" s="2"/>
-    </row>
-    <row r="272">
-      <c r="D272" s="2"/>
-    </row>
-    <row r="273">
-      <c r="D273" s="2"/>
-    </row>
-    <row r="274">
-      <c r="D274" s="2"/>
-    </row>
-    <row r="275">
-      <c r="D275" s="2"/>
-    </row>
-    <row r="276">
-      <c r="D276" s="2"/>
-    </row>
-    <row r="277">
-      <c r="D277" s="2"/>
-    </row>
-    <row r="278">
-      <c r="D278" s="2"/>
-    </row>
-    <row r="279">
-      <c r="D279" s="2"/>
-    </row>
-    <row r="280">
-      <c r="D280" s="2"/>
-    </row>
-    <row r="281">
-      <c r="D281" s="2"/>
-    </row>
-    <row r="282">
-      <c r="D282" s="2"/>
-    </row>
-    <row r="283">
-      <c r="D283" s="2"/>
-    </row>
-    <row r="284">
-      <c r="D284" s="2"/>
-    </row>
-    <row r="285">
-      <c r="D285" s="2"/>
-    </row>
-    <row r="286">
-      <c r="D286" s="2"/>
-    </row>
-    <row r="287">
-      <c r="D287" s="2"/>
-    </row>
-    <row r="288">
-      <c r="D288" s="2"/>
-    </row>
-    <row r="289">
-      <c r="D289" s="2"/>
-    </row>
-    <row r="290">
-      <c r="D290" s="2"/>
-    </row>
-    <row r="291">
-      <c r="D291" s="2"/>
-    </row>
-    <row r="292">
-      <c r="D292" s="2"/>
-    </row>
-    <row r="293">
-      <c r="D293" s="2"/>
-    </row>
-    <row r="294">
-      <c r="D294" s="2"/>
-    </row>
-    <row r="295">
-      <c r="D295" s="2"/>
-    </row>
-    <row r="296">
-      <c r="D296" s="2"/>
-    </row>
-    <row r="297">
-      <c r="D297" s="2"/>
-    </row>
-    <row r="298">
-      <c r="D298" s="2"/>
-    </row>
-    <row r="299">
-      <c r="D299" s="2"/>
-    </row>
-    <row r="300">
-      <c r="D300" s="2"/>
-    </row>
-    <row r="301">
-      <c r="D301" s="2"/>
-    </row>
-    <row r="302">
-      <c r="D302" s="2"/>
-    </row>
-    <row r="303">
-      <c r="D303" s="2"/>
-    </row>
-    <row r="304">
-      <c r="D304" s="2"/>
-    </row>
-    <row r="305">
-      <c r="D305" s="2"/>
-    </row>
-    <row r="306">
-      <c r="D306" s="2"/>
-    </row>
-    <row r="307">
-      <c r="D307" s="2"/>
-    </row>
-    <row r="308">
-      <c r="D308" s="2"/>
-    </row>
-    <row r="309">
-      <c r="D309" s="2"/>
-    </row>
-    <row r="310">
-      <c r="D310" s="2"/>
-    </row>
-    <row r="311">
-      <c r="D311" s="2"/>
-    </row>
-    <row r="312">
-      <c r="D312" s="2"/>
-    </row>
-    <row r="313">
-      <c r="D313" s="2"/>
-    </row>
-    <row r="314">
-      <c r="D314" s="2"/>
-    </row>
-    <row r="315">
-      <c r="D315" s="2"/>
-    </row>
-    <row r="316">
-      <c r="D316" s="2"/>
-    </row>
-    <row r="317">
-      <c r="D317" s="2"/>
-    </row>
-    <row r="318">
-      <c r="D318" s="2"/>
-    </row>
-    <row r="319">
-      <c r="D319" s="2"/>
-    </row>
-    <row r="320">
-      <c r="D320" s="2"/>
-    </row>
-    <row r="321">
-      <c r="D321" s="2"/>
-    </row>
-    <row r="322">
-      <c r="D322" s="2"/>
-    </row>
-    <row r="323">
-      <c r="D323" s="2"/>
-    </row>
-    <row r="324">
-      <c r="D324" s="2"/>
-    </row>
-    <row r="325">
-      <c r="D325" s="2"/>
-    </row>
-    <row r="326">
-      <c r="D326" s="2"/>
-    </row>
-    <row r="327">
-      <c r="D327" s="2"/>
-    </row>
-    <row r="328">
-      <c r="D328" s="2"/>
-    </row>
-    <row r="329">
-      <c r="D329" s="2"/>
-    </row>
-    <row r="330">
-      <c r="D330" s="2"/>
-    </row>
-    <row r="331">
-      <c r="D331" s="2"/>
-    </row>
-    <row r="332">
-      <c r="D332" s="2"/>
-    </row>
-    <row r="333">
-      <c r="D333" s="2"/>
-    </row>
-    <row r="334">
-      <c r="D334" s="2"/>
-    </row>
-    <row r="335">
-      <c r="D335" s="2"/>
-    </row>
-    <row r="336">
-      <c r="D336" s="2"/>
-    </row>
-    <row r="337">
-      <c r="D337" s="2"/>
-    </row>
-    <row r="338">
-      <c r="D338" s="2"/>
-    </row>
-    <row r="339">
-      <c r="D339" s="2"/>
-    </row>
-    <row r="340">
-      <c r="D340" s="2"/>
-    </row>
-    <row r="341">
-      <c r="D341" s="2"/>
-    </row>
-    <row r="342">
-      <c r="D342" s="2"/>
-    </row>
-    <row r="343">
-      <c r="D343" s="2"/>
-    </row>
-    <row r="344">
-      <c r="D344" s="2"/>
-    </row>
-    <row r="345">
-      <c r="D345" s="2"/>
-    </row>
-    <row r="346">
-      <c r="D346" s="2"/>
-    </row>
-    <row r="347">
-      <c r="D347" s="2"/>
-    </row>
-    <row r="348">
-      <c r="D348" s="2"/>
-    </row>
-    <row r="349">
-      <c r="D349" s="2"/>
-    </row>
-    <row r="350">
-      <c r="D350" s="2"/>
-    </row>
-    <row r="351">
-      <c r="D351" s="2"/>
-    </row>
-    <row r="352">
-      <c r="D352" s="2"/>
-    </row>
-    <row r="353">
-      <c r="D353" s="2"/>
-    </row>
-    <row r="354">
-      <c r="D354" s="2"/>
-    </row>
-    <row r="355">
-      <c r="D355" s="2"/>
-    </row>
-    <row r="356">
-      <c r="D356" s="2"/>
-    </row>
-    <row r="357">
-      <c r="D357" s="2"/>
-    </row>
-    <row r="358">
-      <c r="D358" s="2"/>
-    </row>
-    <row r="359">
-      <c r="D359" s="2"/>
-    </row>
-    <row r="360">
-      <c r="D360" s="2"/>
-    </row>
-    <row r="361">
-      <c r="D361" s="2"/>
-    </row>
-    <row r="362">
-      <c r="D362" s="2"/>
-    </row>
-    <row r="363">
-      <c r="D363" s="2"/>
-    </row>
-    <row r="364">
-      <c r="D364" s="2"/>
-    </row>
-    <row r="365">
-      <c r="D365" s="2"/>
-    </row>
-    <row r="366">
-      <c r="D366" s="2"/>
-    </row>
-    <row r="367">
-      <c r="D367" s="2"/>
-    </row>
-    <row r="368">
-      <c r="D368" s="2"/>
-    </row>
-    <row r="369">
-      <c r="D369" s="2"/>
-    </row>
-    <row r="370">
-      <c r="D370" s="2"/>
-    </row>
-    <row r="371">
-      <c r="D371" s="2"/>
-    </row>
-    <row r="372">
-      <c r="D372" s="2"/>
-    </row>
-    <row r="373">
-      <c r="D373" s="2"/>
-    </row>
-    <row r="374">
-      <c r="D374" s="2"/>
-    </row>
-    <row r="375">
-      <c r="D375" s="2"/>
-    </row>
-    <row r="376">
-      <c r="D376" s="2"/>
-    </row>
-    <row r="377">
-      <c r="D377" s="2"/>
-    </row>
-    <row r="378">
-      <c r="D378" s="2"/>
-    </row>
-    <row r="379">
-      <c r="D379" s="2"/>
-    </row>
-    <row r="380">
-      <c r="D380" s="2"/>
-    </row>
-    <row r="381">
-      <c r="D381" s="2"/>
-    </row>
-    <row r="382">
-      <c r="D382" s="2"/>
-    </row>
-    <row r="383">
-      <c r="D383" s="2"/>
-    </row>
-    <row r="384">
-      <c r="D384" s="2"/>
-    </row>
-    <row r="385">
-      <c r="D385" s="2"/>
-    </row>
-    <row r="386">
-      <c r="D386" s="2"/>
-    </row>
-    <row r="387">
-      <c r="D387" s="2"/>
-    </row>
-    <row r="388">
-      <c r="D388" s="2"/>
-    </row>
-    <row r="389">
-      <c r="D389" s="2"/>
-    </row>
-    <row r="390">
-      <c r="D390" s="2"/>
-    </row>
-    <row r="391">
-      <c r="D391" s="2"/>
-    </row>
-    <row r="392">
-      <c r="D392" s="2"/>
-    </row>
-    <row r="393">
-      <c r="D393" s="2"/>
-    </row>
-    <row r="394">
-      <c r="D394" s="2"/>
-    </row>
-    <row r="395">
-      <c r="D395" s="2"/>
-    </row>
-    <row r="396">
-      <c r="D396" s="2"/>
-    </row>
-    <row r="397">
-      <c r="D397" s="2"/>
-    </row>
-    <row r="398">
-      <c r="D398" s="2"/>
-    </row>
-    <row r="399">
-      <c r="D399" s="2"/>
-    </row>
-    <row r="400">
-      <c r="D400" s="2"/>
-    </row>
-    <row r="401">
-      <c r="D401" s="2"/>
-    </row>
-    <row r="402">
-      <c r="D402" s="2"/>
-    </row>
-    <row r="403">
-      <c r="D403" s="2"/>
-    </row>
-    <row r="404">
-      <c r="D404" s="2"/>
-    </row>
-    <row r="405">
-      <c r="D405" s="2"/>
-    </row>
-    <row r="406">
-      <c r="D406" s="2"/>
-    </row>
-    <row r="407">
-      <c r="D407" s="2"/>
-    </row>
-    <row r="408">
-      <c r="D408" s="2"/>
-    </row>
-    <row r="409">
-      <c r="D409" s="2"/>
-    </row>
-    <row r="410">
-      <c r="D410" s="2"/>
-    </row>
-    <row r="411">
-      <c r="D411" s="2"/>
-    </row>
-    <row r="412">
-      <c r="D412" s="2"/>
-    </row>
-    <row r="413">
-      <c r="D413" s="2"/>
-    </row>
-    <row r="414">
-      <c r="D414" s="2"/>
-    </row>
-    <row r="415">
-      <c r="D415" s="2"/>
-    </row>
-    <row r="416">
-      <c r="D416" s="2"/>
-    </row>
-    <row r="417">
-      <c r="D417" s="2"/>
-    </row>
-    <row r="418">
-      <c r="D418" s="2"/>
-    </row>
-    <row r="419">
-      <c r="D419" s="2"/>
-    </row>
-    <row r="420">
-      <c r="D420" s="2"/>
-    </row>
-    <row r="421">
-      <c r="D421" s="2"/>
-    </row>
-    <row r="422">
-      <c r="D422" s="2"/>
-    </row>
-    <row r="423">
-      <c r="D423" s="2"/>
-    </row>
-    <row r="424">
-      <c r="D424" s="2"/>
-    </row>
-    <row r="425">
-      <c r="D425" s="2"/>
-    </row>
-    <row r="426">
-      <c r="D426" s="2"/>
-    </row>
-    <row r="427">
-      <c r="D427" s="2"/>
-    </row>
-    <row r="428">
-      <c r="D428" s="2"/>
-    </row>
-    <row r="429">
-      <c r="D429" s="2"/>
-    </row>
-    <row r="430">
-      <c r="D430" s="2"/>
-    </row>
-    <row r="431">
-      <c r="D431" s="2"/>
-    </row>
-    <row r="432">
-      <c r="D432" s="2"/>
-    </row>
-    <row r="433">
-      <c r="D433" s="2"/>
-    </row>
-    <row r="434">
-      <c r="D434" s="2"/>
-    </row>
-    <row r="435">
-      <c r="D435" s="2"/>
-    </row>
-    <row r="436">
-      <c r="D436" s="2"/>
-    </row>
-    <row r="437">
-      <c r="D437" s="2"/>
-    </row>
-    <row r="438">
-      <c r="D438" s="2"/>
-    </row>
-    <row r="439">
-      <c r="D439" s="2"/>
-    </row>
-    <row r="440">
-      <c r="D440" s="2"/>
-    </row>
-    <row r="441">
-      <c r="D441" s="2"/>
-    </row>
-    <row r="442">
-      <c r="D442" s="2"/>
-    </row>
-    <row r="443">
-      <c r="D443" s="2"/>
-    </row>
-    <row r="444">
-      <c r="D444" s="2"/>
-    </row>
-    <row r="445">
-      <c r="D445" s="2"/>
-    </row>
-    <row r="446">
-      <c r="D446" s="2"/>
-    </row>
-    <row r="447">
-      <c r="D447" s="2"/>
-    </row>
-    <row r="448">
-      <c r="D448" s="2"/>
-    </row>
-    <row r="449">
-      <c r="D449" s="2"/>
-    </row>
-    <row r="450">
-      <c r="D450" s="2"/>
-    </row>
-    <row r="451">
-      <c r="D451" s="2"/>
-    </row>
-    <row r="452">
-      <c r="D452" s="2"/>
-    </row>
-    <row r="453">
-      <c r="D453" s="2"/>
-    </row>
-    <row r="454">
-      <c r="D454" s="2"/>
-    </row>
-    <row r="455">
-      <c r="D455" s="2"/>
-    </row>
-    <row r="456">
-      <c r="D456" s="2"/>
-    </row>
-    <row r="457">
-      <c r="D457" s="2"/>
-    </row>
-    <row r="458">
-      <c r="D458" s="2"/>
-    </row>
-    <row r="459">
-      <c r="D459" s="2"/>
-    </row>
-    <row r="460">
-      <c r="D460" s="2"/>
-    </row>
-    <row r="461">
-      <c r="D461" s="2"/>
-    </row>
-    <row r="462">
-      <c r="D462" s="2"/>
-    </row>
-    <row r="463">
-      <c r="D463" s="2"/>
-    </row>
-    <row r="464">
-      <c r="D464" s="2"/>
-    </row>
-    <row r="465">
-      <c r="D465" s="2"/>
-    </row>
-    <row r="466">
-      <c r="D466" s="2"/>
-    </row>
-    <row r="467">
-      <c r="D467" s="2"/>
-    </row>
-    <row r="468">
-      <c r="D468" s="2"/>
-    </row>
-    <row r="469">
-      <c r="D469" s="2"/>
-    </row>
-    <row r="470">
-      <c r="D470" s="2"/>
-    </row>
-    <row r="471">
-      <c r="D471" s="2"/>
-    </row>
-    <row r="472">
-      <c r="D472" s="2"/>
-    </row>
-    <row r="473">
-      <c r="D473" s="2"/>
-    </row>
-    <row r="474">
-      <c r="D474" s="2"/>
-    </row>
-    <row r="475">
-      <c r="D475" s="2"/>
-    </row>
-    <row r="476">
-      <c r="D476" s="2"/>
-    </row>
-    <row r="477">
-      <c r="D477" s="2"/>
-    </row>
-    <row r="478">
-      <c r="D478" s="2"/>
-    </row>
-    <row r="479">
-      <c r="D479" s="2"/>
-    </row>
-    <row r="480">
-      <c r="D480" s="2"/>
-    </row>
-    <row r="481">
-      <c r="D481" s="2"/>
-    </row>
-    <row r="482">
-      <c r="D482" s="2"/>
-    </row>
-    <row r="483">
-      <c r="D483" s="2"/>
-    </row>
-    <row r="484">
-      <c r="D484" s="2"/>
-    </row>
-    <row r="485">
-      <c r="D485" s="2"/>
-    </row>
-    <row r="486">
-      <c r="D486" s="2"/>
-    </row>
-    <row r="487">
-      <c r="D487" s="2"/>
-    </row>
-    <row r="488">
-      <c r="D488" s="2"/>
-    </row>
-    <row r="489">
-      <c r="D489" s="2"/>
-    </row>
-    <row r="490">
-      <c r="D490" s="2"/>
-    </row>
-    <row r="491">
-      <c r="D491" s="2"/>
-    </row>
-    <row r="492">
-      <c r="D492" s="2"/>
-    </row>
-    <row r="493">
-      <c r="D493" s="2"/>
-    </row>
-    <row r="494">
-      <c r="D494" s="2"/>
-    </row>
-    <row r="495">
-      <c r="D495" s="2"/>
-    </row>
-    <row r="496">
-      <c r="D496" s="2"/>
-    </row>
-    <row r="497">
-      <c r="D497" s="2"/>
-    </row>
-    <row r="498">
-      <c r="D498" s="2"/>
-    </row>
-    <row r="499">
-      <c r="D499" s="2"/>
-    </row>
-    <row r="500">
-      <c r="D500" s="2"/>
-    </row>
-    <row r="501">
-      <c r="D501" s="2"/>
-    </row>
-    <row r="502">
-      <c r="D502" s="2"/>
-    </row>
-    <row r="503">
-      <c r="D503" s="2"/>
-    </row>
-    <row r="504">
-      <c r="D504" s="2"/>
-    </row>
-    <row r="505">
-      <c r="D505" s="2"/>
-    </row>
-    <row r="506">
-      <c r="D506" s="2"/>
-    </row>
-    <row r="507">
-      <c r="D507" s="2"/>
-    </row>
-    <row r="508">
-      <c r="D508" s="2"/>
-    </row>
-    <row r="509">
-      <c r="D509" s="2"/>
-    </row>
-    <row r="510">
-      <c r="D510" s="2"/>
-    </row>
-    <row r="511">
-      <c r="D511" s="2"/>
-    </row>
-    <row r="512">
-      <c r="D512" s="2"/>
-    </row>
-    <row r="513">
-      <c r="D513" s="2"/>
-    </row>
-    <row r="514">
-      <c r="D514" s="2"/>
-    </row>
-    <row r="515">
-      <c r="D515" s="2"/>
-    </row>
-    <row r="516">
-      <c r="D516" s="2"/>
-    </row>
-    <row r="517">
-      <c r="D517" s="2"/>
-    </row>
-    <row r="518">
-      <c r="D518" s="2"/>
-    </row>
-    <row r="519">
-      <c r="D519" s="2"/>
-    </row>
-    <row r="520">
-      <c r="D520" s="2"/>
-    </row>
-    <row r="521">
-      <c r="D521" s="2"/>
-    </row>
-    <row r="522">
-      <c r="D522" s="2"/>
-    </row>
-    <row r="523">
-      <c r="D523" s="2"/>
-    </row>
-    <row r="524">
-      <c r="D524" s="2"/>
-    </row>
-    <row r="525">
-      <c r="D525" s="2"/>
-    </row>
-    <row r="526">
-      <c r="D526" s="2"/>
-    </row>
-    <row r="527">
-      <c r="D527" s="2"/>
-    </row>
-    <row r="528">
-      <c r="D528" s="2"/>
-    </row>
-    <row r="529">
-      <c r="D529" s="2"/>
-    </row>
-    <row r="530">
-      <c r="D530" s="2"/>
-    </row>
-    <row r="531">
-      <c r="D531" s="2"/>
-    </row>
-    <row r="532">
-      <c r="D532" s="2"/>
-    </row>
-    <row r="533">
-      <c r="D533" s="2"/>
-    </row>
-    <row r="534">
-      <c r="D534" s="2"/>
-    </row>
-    <row r="535">
-      <c r="D535" s="2"/>
-    </row>
-    <row r="536">
-      <c r="D536" s="2"/>
-    </row>
-    <row r="537">
-      <c r="D537" s="2"/>
-    </row>
-    <row r="538">
-      <c r="D538" s="2"/>
-    </row>
-    <row r="539">
-      <c r="D539" s="2"/>
-    </row>
-    <row r="540">
-      <c r="D540" s="2"/>
-    </row>
-    <row r="541">
-      <c r="D541" s="2"/>
-    </row>
-    <row r="542">
-      <c r="D542" s="2"/>
-    </row>
-    <row r="543">
-      <c r="D543" s="2"/>
-    </row>
-    <row r="544">
-      <c r="D544" s="2"/>
-    </row>
-    <row r="545">
-      <c r="D545" s="2"/>
-    </row>
-    <row r="546">
-      <c r="D546" s="2"/>
-    </row>
-    <row r="547">
-      <c r="D547" s="2"/>
-    </row>
-    <row r="548">
-      <c r="D548" s="2"/>
-    </row>
-    <row r="549">
-      <c r="D549" s="2"/>
-    </row>
-    <row r="550">
-      <c r="D550" s="2"/>
-    </row>
-    <row r="551">
-      <c r="D551" s="2"/>
-    </row>
-    <row r="552">
-      <c r="D552" s="2"/>
-    </row>
-    <row r="553">
-      <c r="D553" s="2"/>
-    </row>
-    <row r="554">
-      <c r="D554" s="2"/>
-    </row>
-    <row r="555">
-      <c r="D555" s="2"/>
-    </row>
-    <row r="556">
-      <c r="D556" s="2"/>
-    </row>
-    <row r="557">
-      <c r="D557" s="2"/>
-    </row>
-    <row r="558">
-      <c r="D558" s="2"/>
-    </row>
-    <row r="559">
-      <c r="D559" s="2"/>
-    </row>
-    <row r="560">
-      <c r="D560" s="2"/>
-    </row>
-    <row r="561">
-      <c r="D561" s="2"/>
-    </row>
-    <row r="562">
-      <c r="D562" s="2"/>
-    </row>
-    <row r="563">
-      <c r="D563" s="2"/>
-    </row>
-    <row r="564">
-      <c r="D564" s="2"/>
-    </row>
-    <row r="565">
-      <c r="D565" s="2"/>
-    </row>
-    <row r="566">
-      <c r="D566" s="2"/>
-    </row>
-    <row r="567">
-      <c r="D567" s="2"/>
-    </row>
-    <row r="568">
-      <c r="D568" s="2"/>
-    </row>
-    <row r="569">
-      <c r="D569" s="2"/>
-    </row>
-    <row r="570">
-      <c r="D570" s="2"/>
-    </row>
-    <row r="571">
-      <c r="D571" s="2"/>
-    </row>
-    <row r="572">
-      <c r="D572" s="2"/>
-    </row>
-    <row r="573">
-      <c r="D573" s="2"/>
-    </row>
-    <row r="574">
-      <c r="D574" s="2"/>
-    </row>
-    <row r="575">
-      <c r="D575" s="2"/>
-    </row>
-    <row r="576">
-      <c r="D576" s="2"/>
-    </row>
-    <row r="577">
-      <c r="D577" s="2"/>
-    </row>
-    <row r="578">
-      <c r="D578" s="2"/>
-    </row>
-    <row r="579">
-      <c r="D579" s="2"/>
-    </row>
-    <row r="580">
-      <c r="D580" s="2"/>
-    </row>
-    <row r="581">
-      <c r="D581" s="2"/>
-    </row>
-    <row r="582">
-      <c r="D582" s="2"/>
-    </row>
-    <row r="583">
-      <c r="D583" s="2"/>
-    </row>
-    <row r="584">
-      <c r="D584" s="2"/>
-    </row>
-    <row r="585">
-      <c r="D585" s="2"/>
-    </row>
-    <row r="586">
-      <c r="D586" s="2"/>
-    </row>
-    <row r="587">
-      <c r="D587" s="2"/>
-    </row>
-    <row r="588">
-      <c r="D588" s="2"/>
-    </row>
-    <row r="589">
-      <c r="D589" s="2"/>
-    </row>
-    <row r="590">
-      <c r="D590" s="2"/>
-    </row>
-    <row r="591">
-      <c r="D591" s="2"/>
-    </row>
-    <row r="592">
-      <c r="D592" s="2"/>
-    </row>
-    <row r="593">
-      <c r="D593" s="2"/>
-    </row>
-    <row r="594">
-      <c r="D594" s="2"/>
-    </row>
-    <row r="595">
-      <c r="D595" s="2"/>
-    </row>
-    <row r="596">
-      <c r="D596" s="2"/>
-    </row>
-    <row r="597">
-      <c r="D597" s="2"/>
-    </row>
-    <row r="598">
-      <c r="D598" s="2"/>
-    </row>
-    <row r="599">
-      <c r="D599" s="2"/>
-    </row>
-    <row r="600">
-      <c r="D600" s="2"/>
-    </row>
-    <row r="601">
-      <c r="D601" s="2"/>
-    </row>
-    <row r="602">
-      <c r="D602" s="2"/>
-    </row>
-    <row r="603">
-      <c r="D603" s="2"/>
-    </row>
-    <row r="604">
-      <c r="D604" s="2"/>
-    </row>
-    <row r="605">
-      <c r="D605" s="2"/>
-    </row>
-    <row r="606">
-      <c r="D606" s="2"/>
-    </row>
-    <row r="607">
-      <c r="D607" s="2"/>
-    </row>
-    <row r="608">
-      <c r="D608" s="2"/>
-    </row>
-    <row r="609">
-      <c r="D609" s="2"/>
-    </row>
-    <row r="610">
-      <c r="D610" s="2"/>
-    </row>
-    <row r="611">
-      <c r="D611" s="2"/>
-    </row>
-    <row r="612">
-      <c r="D612" s="2"/>
-    </row>
-    <row r="613">
-      <c r="D613" s="2"/>
-    </row>
-    <row r="614">
-      <c r="D614" s="2"/>
-    </row>
-    <row r="615">
-      <c r="D615" s="2"/>
-    </row>
-    <row r="616">
-      <c r="D616" s="2"/>
-    </row>
-    <row r="617">
-      <c r="D617" s="2"/>
-    </row>
-    <row r="618">
-      <c r="D618" s="2"/>
-    </row>
-    <row r="619">
-      <c r="D619" s="2"/>
-    </row>
-    <row r="620">
-      <c r="D620" s="2"/>
-    </row>
-    <row r="621">
-      <c r="D621" s="2"/>
-    </row>
-    <row r="622">
-      <c r="D622" s="2"/>
-    </row>
-    <row r="623">
-      <c r="D623" s="2"/>
-    </row>
-    <row r="624">
-      <c r="D624" s="2"/>
-    </row>
-    <row r="625">
-      <c r="D625" s="2"/>
-    </row>
-    <row r="626">
-      <c r="D626" s="2"/>
-    </row>
-    <row r="627">
-      <c r="D627" s="2"/>
-    </row>
-    <row r="628">
-      <c r="D628" s="2"/>
-    </row>
-    <row r="629">
-      <c r="D629" s="2"/>
-    </row>
-    <row r="630">
-      <c r="D630" s="2"/>
-    </row>
-    <row r="631">
-      <c r="D631" s="2"/>
-    </row>
-    <row r="632">
-      <c r="D632" s="2"/>
-    </row>
-    <row r="633">
-      <c r="D633" s="2"/>
-    </row>
-    <row r="634">
-      <c r="D634" s="2"/>
-    </row>
-    <row r="635">
-      <c r="D635" s="2"/>
-    </row>
-    <row r="636">
-      <c r="D636" s="2"/>
-    </row>
-    <row r="637">
-      <c r="D637" s="2"/>
-    </row>
-    <row r="638">
-      <c r="D638" s="2"/>
-    </row>
-    <row r="639">
-      <c r="D639" s="2"/>
-    </row>
-    <row r="640">
-      <c r="D640" s="2"/>
-    </row>
-    <row r="641">
-      <c r="D641" s="2"/>
-    </row>
-    <row r="642">
-      <c r="D642" s="2"/>
-    </row>
-    <row r="643">
-      <c r="D643" s="2"/>
-    </row>
-    <row r="644">
-      <c r="D644" s="2"/>
-    </row>
-    <row r="645">
-      <c r="D645" s="2"/>
-    </row>
-    <row r="646">
-      <c r="D646" s="2"/>
-    </row>
-    <row r="647">
-      <c r="D647" s="2"/>
-    </row>
-    <row r="648">
-      <c r="D648" s="2"/>
-    </row>
-    <row r="649">
-      <c r="D649" s="2"/>
-    </row>
-    <row r="650">
-      <c r="D650" s="2"/>
-    </row>
-    <row r="651">
-      <c r="D651" s="2"/>
-    </row>
-    <row r="652">
-      <c r="D652" s="2"/>
-    </row>
-    <row r="653">
-      <c r="D653" s="2"/>
-    </row>
-    <row r="654">
-      <c r="D654" s="2"/>
-    </row>
-    <row r="655">
-      <c r="D655" s="2"/>
-    </row>
-    <row r="656">
-      <c r="D656" s="2"/>
-    </row>
-    <row r="657">
-      <c r="D657" s="2"/>
-    </row>
-    <row r="658">
-      <c r="D658" s="2"/>
-    </row>
-    <row r="659">
-      <c r="D659" s="2"/>
-    </row>
-    <row r="660">
-      <c r="D660" s="2"/>
-    </row>
-    <row r="661">
-      <c r="D661" s="2"/>
-    </row>
-    <row r="662">
-      <c r="D662" s="2"/>
-    </row>
-    <row r="663">
-      <c r="D663" s="2"/>
-    </row>
-    <row r="664">
-      <c r="D664" s="2"/>
-    </row>
-    <row r="665">
-      <c r="D665" s="2"/>
-    </row>
-    <row r="666">
-      <c r="D666" s="2"/>
-    </row>
-    <row r="667">
-      <c r="D667" s="2"/>
-    </row>
-    <row r="668">
-      <c r="D668" s="2"/>
-    </row>
-    <row r="669">
-      <c r="D669" s="2"/>
-    </row>
-    <row r="670">
-      <c r="D670" s="2"/>
-    </row>
-    <row r="671">
-      <c r="D671" s="2"/>
-    </row>
-    <row r="672">
-      <c r="D672" s="2"/>
-    </row>
-    <row r="673">
-      <c r="D673" s="2"/>
-    </row>
-    <row r="674">
-      <c r="D674" s="2"/>
-    </row>
-    <row r="675">
-      <c r="D675" s="2"/>
-    </row>
-    <row r="676">
-      <c r="D676" s="2"/>
-    </row>
-    <row r="677">
-      <c r="D677" s="2"/>
-    </row>
-    <row r="678">
-      <c r="D678" s="2"/>
-    </row>
-    <row r="679">
-      <c r="D679" s="2"/>
-    </row>
-    <row r="680">
-      <c r="D680" s="2"/>
-    </row>
-    <row r="681">
-      <c r="D681" s="2"/>
-    </row>
-    <row r="682">
-      <c r="D682" s="2"/>
-    </row>
-    <row r="683">
-      <c r="D683" s="2"/>
-    </row>
-    <row r="684">
-      <c r="D684" s="2"/>
-    </row>
-    <row r="685">
-      <c r="D685" s="2"/>
-    </row>
-    <row r="686">
-      <c r="D686" s="2"/>
-    </row>
-    <row r="687">
-      <c r="D687" s="2"/>
-    </row>
-    <row r="688">
-      <c r="D688" s="2"/>
-    </row>
-    <row r="689">
-      <c r="D689" s="2"/>
-    </row>
-    <row r="690">
-      <c r="D690" s="2"/>
-    </row>
-    <row r="691">
-      <c r="D691" s="2"/>
-    </row>
-    <row r="692">
-      <c r="D692" s="2"/>
-    </row>
-    <row r="693">
-      <c r="D693" s="2"/>
-    </row>
-    <row r="694">
-      <c r="D694" s="2"/>
-    </row>
-    <row r="695">
-      <c r="D695" s="2"/>
-    </row>
-    <row r="696">
-      <c r="D696" s="2"/>
-    </row>
-    <row r="697">
-      <c r="D697" s="2"/>
-    </row>
-    <row r="698">
-      <c r="D698" s="2"/>
-    </row>
-    <row r="699">
-      <c r="D699" s="2"/>
-    </row>
-    <row r="700">
-      <c r="D700" s="2"/>
-    </row>
-    <row r="701">
-      <c r="D701" s="2"/>
-    </row>
-    <row r="702">
-      <c r="D702" s="2"/>
-    </row>
-    <row r="703">
-      <c r="D703" s="2"/>
-    </row>
-    <row r="704">
-      <c r="D704" s="2"/>
-    </row>
-    <row r="705">
-      <c r="D705" s="2"/>
-    </row>
-    <row r="706">
-      <c r="D706" s="2"/>
-    </row>
-    <row r="707">
-      <c r="D707" s="2"/>
-    </row>
-    <row r="708">
-      <c r="D708" s="2"/>
-    </row>
-    <row r="709">
-      <c r="D709" s="2"/>
-    </row>
-    <row r="710">
-      <c r="D710" s="2"/>
-    </row>
-    <row r="711">
-      <c r="D711" s="2"/>
-    </row>
-    <row r="712">
-      <c r="D712" s="2"/>
-    </row>
-    <row r="713">
-      <c r="D713" s="2"/>
-    </row>
-    <row r="714">
-      <c r="D714" s="2"/>
-    </row>
-    <row r="715">
-      <c r="D715" s="2"/>
-    </row>
-    <row r="716">
-      <c r="D716" s="2"/>
-    </row>
-    <row r="717">
-      <c r="D717" s="2"/>
-    </row>
-    <row r="718">
-      <c r="D718" s="2"/>
-    </row>
-    <row r="719">
-      <c r="D719" s="2"/>
-    </row>
-    <row r="720">
-      <c r="D720" s="2"/>
-    </row>
-    <row r="721">
-      <c r="D721" s="2"/>
-    </row>
-    <row r="722">
-      <c r="D722" s="2"/>
-    </row>
-    <row r="723">
-      <c r="D723" s="2"/>
-    </row>
-    <row r="724">
-      <c r="D724" s="2"/>
-    </row>
-    <row r="725">
-      <c r="D725" s="2"/>
-    </row>
-    <row r="726">
-      <c r="D726" s="2"/>
-    </row>
-    <row r="727">
-      <c r="D727" s="2"/>
-    </row>
-    <row r="728">
-      <c r="D728" s="2"/>
-    </row>
-    <row r="729">
-      <c r="D729" s="2"/>
-    </row>
-    <row r="730">
-      <c r="D730" s="2"/>
-    </row>
-    <row r="731">
-      <c r="D731" s="2"/>
-    </row>
-    <row r="732">
-      <c r="D732" s="2"/>
-    </row>
-    <row r="733">
-      <c r="D733" s="2"/>
-    </row>
-    <row r="734">
-      <c r="D734" s="2"/>
-    </row>
-    <row r="735">
-      <c r="D735" s="2"/>
-    </row>
-    <row r="736">
-      <c r="D736" s="2"/>
-    </row>
-    <row r="737">
-      <c r="D737" s="2"/>
-    </row>
-    <row r="738">
-      <c r="D738" s="2"/>
-    </row>
-    <row r="739">
-      <c r="D739" s="2"/>
-    </row>
-    <row r="740">
-      <c r="D740" s="2"/>
-    </row>
-    <row r="741">
-      <c r="D741" s="2"/>
-    </row>
-    <row r="742">
-      <c r="D742" s="2"/>
-    </row>
-    <row r="743">
-      <c r="D743" s="2"/>
-    </row>
-    <row r="744">
-      <c r="D744" s="2"/>
-    </row>
-    <row r="745">
-      <c r="D745" s="2"/>
-    </row>
-    <row r="746">
-      <c r="D746" s="2"/>
-    </row>
-    <row r="747">
-      <c r="D747" s="2"/>
-    </row>
-    <row r="748">
-      <c r="D748" s="2"/>
-    </row>
-    <row r="749">
-      <c r="D749" s="2"/>
-    </row>
-    <row r="750">
-      <c r="D750" s="2"/>
-    </row>
-    <row r="751">
-      <c r="D751" s="2"/>
-    </row>
-    <row r="752">
-      <c r="D752" s="2"/>
-    </row>
-    <row r="753">
-      <c r="D753" s="2"/>
-    </row>
-    <row r="754">
-      <c r="D754" s="2"/>
-    </row>
-    <row r="755">
-      <c r="D755" s="2"/>
-    </row>
-    <row r="756">
-      <c r="D756" s="2"/>
-    </row>
-    <row r="757">
-      <c r="D757" s="2"/>
-    </row>
-    <row r="758">
-      <c r="D758" s="2"/>
-    </row>
-    <row r="759">
-      <c r="D759" s="2"/>
-    </row>
-    <row r="760">
-      <c r="D760" s="2"/>
-    </row>
-    <row r="761">
-      <c r="D761" s="2"/>
-    </row>
-    <row r="762">
-      <c r="D762" s="2"/>
-    </row>
-    <row r="763">
-      <c r="D763" s="2"/>
-    </row>
-    <row r="764">
-      <c r="D764" s="2"/>
-    </row>
-    <row r="765">
-      <c r="D765" s="2"/>
-    </row>
-    <row r="766">
-      <c r="D766" s="2"/>
-    </row>
-    <row r="767">
-      <c r="D767" s="2"/>
-    </row>
-    <row r="768">
-      <c r="D768" s="2"/>
-    </row>
-    <row r="769">
-      <c r="D769" s="2"/>
-    </row>
-    <row r="770">
-      <c r="D770" s="2"/>
-    </row>
-    <row r="771">
-      <c r="D771" s="2"/>
-    </row>
-    <row r="772">
-      <c r="D772" s="2"/>
-    </row>
-    <row r="773">
-      <c r="D773" s="2"/>
-    </row>
-    <row r="774">
-      <c r="D774" s="2"/>
-    </row>
-    <row r="775">
-      <c r="D775" s="2"/>
-    </row>
-    <row r="776">
-      <c r="D776" s="2"/>
-    </row>
-    <row r="777">
-      <c r="D777" s="2"/>
-    </row>
-    <row r="778">
-      <c r="D778" s="2"/>
-    </row>
-    <row r="779">
-      <c r="D779" s="2"/>
-    </row>
-    <row r="780">
-      <c r="D780" s="2"/>
-    </row>
-    <row r="781">
-      <c r="D781" s="2"/>
-    </row>
-    <row r="782">
-      <c r="D782" s="2"/>
-    </row>
-    <row r="783">
-      <c r="D783" s="2"/>
-    </row>
-    <row r="784">
-      <c r="D784" s="2"/>
-    </row>
-    <row r="785">
-      <c r="D785" s="2"/>
-    </row>
-    <row r="786">
-      <c r="D786" s="2"/>
-    </row>
-    <row r="787">
-      <c r="D787" s="2"/>
-    </row>
-    <row r="788">
-      <c r="D788" s="2"/>
-    </row>
-    <row r="789">
-      <c r="D789" s="2"/>
-    </row>
-    <row r="790">
-      <c r="D790" s="2"/>
-    </row>
-    <row r="791">
-      <c r="D791" s="2"/>
-    </row>
-    <row r="792">
-      <c r="D792" s="2"/>
-    </row>
-    <row r="793">
-      <c r="D793" s="2"/>
-    </row>
-    <row r="794">
-      <c r="D794" s="2"/>
-    </row>
-    <row r="795">
-      <c r="D795" s="2"/>
-    </row>
-    <row r="796">
-      <c r="D796" s="2"/>
-    </row>
-    <row r="797">
-      <c r="D797" s="2"/>
-    </row>
-    <row r="798">
-      <c r="D798" s="2"/>
-    </row>
-    <row r="799">
-      <c r="D799" s="2"/>
-    </row>
-    <row r="800">
-      <c r="D800" s="2"/>
-    </row>
-    <row r="801">
-      <c r="D801" s="2"/>
-    </row>
-    <row r="802">
-      <c r="D802" s="2"/>
-    </row>
-    <row r="803">
-      <c r="D803" s="2"/>
-    </row>
-    <row r="804">
-      <c r="D804" s="2"/>
-    </row>
-    <row r="805">
-      <c r="D805" s="2"/>
-    </row>
-    <row r="806">
-      <c r="D806" s="2"/>
-    </row>
-    <row r="807">
-      <c r="D807" s="2"/>
-    </row>
-    <row r="808">
-      <c r="D808" s="2"/>
-    </row>
-    <row r="809">
-      <c r="D809" s="2"/>
-    </row>
-    <row r="810">
-      <c r="D810" s="2"/>
-    </row>
-    <row r="811">
-      <c r="D811" s="2"/>
-    </row>
-    <row r="812">
-      <c r="D812" s="2"/>
-    </row>
-    <row r="813">
-      <c r="D813" s="2"/>
-    </row>
-    <row r="814">
-      <c r="D814" s="2"/>
-    </row>
-    <row r="815">
-      <c r="D815" s="2"/>
-    </row>
-    <row r="816">
-      <c r="D816" s="2"/>
-    </row>
-    <row r="817">
-      <c r="D817" s="2"/>
-    </row>
-    <row r="818">
-      <c r="D818" s="2"/>
-    </row>
-    <row r="819">
-      <c r="D819" s="2"/>
-    </row>
-    <row r="820">
-      <c r="D820" s="2"/>
-    </row>
-    <row r="821">
-      <c r="D821" s="2"/>
-    </row>
-    <row r="822">
-      <c r="D822" s="2"/>
-    </row>
-    <row r="823">
-      <c r="D823" s="2"/>
-    </row>
-    <row r="824">
-      <c r="D824" s="2"/>
-    </row>
-    <row r="825">
-      <c r="D825" s="2"/>
-    </row>
-    <row r="826">
-      <c r="D826" s="2"/>
-    </row>
-    <row r="827">
-      <c r="D827" s="2"/>
-    </row>
-    <row r="828">
-      <c r="D828" s="2"/>
-    </row>
-    <row r="829">
-      <c r="D829" s="2"/>
-    </row>
-    <row r="830">
-      <c r="D830" s="2"/>
-    </row>
-    <row r="831">
-      <c r="D831" s="2"/>
-    </row>
-    <row r="832">
-      <c r="D832" s="2"/>
-    </row>
-    <row r="833">
-      <c r="D833" s="2"/>
-    </row>
-    <row r="834">
-      <c r="D834" s="2"/>
-    </row>
-    <row r="835">
-      <c r="D835" s="2"/>
-    </row>
-    <row r="836">
-      <c r="D836" s="2"/>
-    </row>
-    <row r="837">
-      <c r="D837" s="2"/>
-    </row>
-    <row r="838">
-      <c r="D838" s="2"/>
-    </row>
-    <row r="839">
-      <c r="D839" s="2"/>
-    </row>
-    <row r="840">
-      <c r="D840" s="2"/>
-    </row>
-    <row r="841">
-      <c r="D841" s="2"/>
-    </row>
-    <row r="842">
-      <c r="D842" s="2"/>
-    </row>
-    <row r="843">
-      <c r="D843" s="2"/>
-    </row>
-    <row r="844">
-      <c r="D844" s="2"/>
-    </row>
-    <row r="845">
-      <c r="D845" s="2"/>
-    </row>
-    <row r="846">
-      <c r="D846" s="2"/>
-    </row>
-    <row r="847">
-      <c r="D847" s="2"/>
-    </row>
-    <row r="848">
-      <c r="D848" s="2"/>
-    </row>
-    <row r="849">
-      <c r="D849" s="2"/>
-    </row>
-    <row r="850">
-      <c r="D850" s="2"/>
-    </row>
-    <row r="851">
-      <c r="D851" s="2"/>
-    </row>
-    <row r="852">
-      <c r="D852" s="2"/>
-    </row>
-    <row r="853">
-      <c r="D853" s="2"/>
-    </row>
-    <row r="854">
-      <c r="D854" s="2"/>
-    </row>
-    <row r="855">
-      <c r="D855" s="2"/>
-    </row>
-    <row r="856">
-      <c r="D856" s="2"/>
-    </row>
-    <row r="857">
-      <c r="D857" s="2"/>
-    </row>
-    <row r="858">
-      <c r="D858" s="2"/>
-    </row>
-    <row r="859">
-      <c r="D859" s="2"/>
-    </row>
-    <row r="860">
-      <c r="D860" s="2"/>
-    </row>
-    <row r="861">
-      <c r="D861" s="2"/>
-    </row>
-    <row r="862">
-      <c r="D862" s="2"/>
-    </row>
-    <row r="863">
-      <c r="D863" s="2"/>
-    </row>
-    <row r="864">
-      <c r="D864" s="2"/>
-    </row>
-    <row r="865">
-      <c r="D865" s="2"/>
-    </row>
-    <row r="866">
-      <c r="D866" s="2"/>
-    </row>
-    <row r="867">
-      <c r="D867" s="2"/>
-    </row>
-    <row r="868">
-      <c r="D868" s="2"/>
-    </row>
-    <row r="869">
-      <c r="D869" s="2"/>
-    </row>
-    <row r="870">
-      <c r="D870" s="2"/>
-    </row>
-    <row r="871">
-      <c r="D871" s="2"/>
-    </row>
-    <row r="872">
-      <c r="D872" s="2"/>
-    </row>
-    <row r="873">
-      <c r="D873" s="2"/>
-    </row>
-    <row r="874">
-      <c r="D874" s="2"/>
-    </row>
-    <row r="875">
-      <c r="D875" s="2"/>
-    </row>
-    <row r="876">
-      <c r="D876" s="2"/>
-    </row>
-    <row r="877">
-      <c r="D877" s="2"/>
-    </row>
-    <row r="878">
-      <c r="D878" s="2"/>
-    </row>
-    <row r="879">
-      <c r="D879" s="2"/>
-    </row>
-    <row r="880">
-      <c r="D880" s="2"/>
-    </row>
-    <row r="881">
-      <c r="D881" s="2"/>
-    </row>
-    <row r="882">
-      <c r="D882" s="2"/>
-    </row>
-    <row r="883">
-      <c r="D883" s="2"/>
-    </row>
-    <row r="884">
-      <c r="D884" s="2"/>
-    </row>
-    <row r="885">
-      <c r="D885" s="2"/>
-    </row>
-    <row r="886">
-      <c r="D886" s="2"/>
-    </row>
-    <row r="887">
-      <c r="D887" s="2"/>
-    </row>
-    <row r="888">
-      <c r="D888" s="2"/>
-    </row>
-    <row r="889">
-      <c r="D889" s="2"/>
-    </row>
-    <row r="890">
-      <c r="D890" s="2"/>
-    </row>
-    <row r="891">
-      <c r="D891" s="2"/>
-    </row>
-    <row r="892">
-      <c r="D892" s="2"/>
-    </row>
-    <row r="893">
-      <c r="D893" s="2"/>
-    </row>
-    <row r="894">
-      <c r="D894" s="2"/>
-    </row>
-    <row r="895">
-      <c r="D895" s="2"/>
-    </row>
-    <row r="896">
-      <c r="D896" s="2"/>
-    </row>
-    <row r="897">
-      <c r="D897" s="2"/>
-    </row>
-    <row r="898">
-      <c r="D898" s="2"/>
-    </row>
-    <row r="899">
-      <c r="D899" s="2"/>
-    </row>
-    <row r="900">
-      <c r="D900" s="2"/>
-    </row>
-    <row r="901">
-      <c r="D901" s="2"/>
-    </row>
-    <row r="902">
-      <c r="D902" s="2"/>
-    </row>
-    <row r="903">
-      <c r="D903" s="2"/>
-    </row>
-    <row r="904">
-      <c r="D904" s="2"/>
-    </row>
-    <row r="905">
-      <c r="D905" s="2"/>
-    </row>
-    <row r="906">
-      <c r="D906" s="2"/>
-    </row>
-    <row r="907">
-      <c r="D907" s="2"/>
-    </row>
-    <row r="908">
-      <c r="D908" s="2"/>
-    </row>
-    <row r="909">
-      <c r="D909" s="2"/>
-    </row>
-    <row r="910">
-      <c r="D910" s="2"/>
-    </row>
-    <row r="911">
-      <c r="D911" s="2"/>
-    </row>
-    <row r="912">
-      <c r="D912" s="2"/>
-    </row>
-    <row r="913">
-      <c r="D913" s="2"/>
-    </row>
-    <row r="914">
-      <c r="D914" s="2"/>
-    </row>
-    <row r="915">
-      <c r="D915" s="2"/>
-    </row>
-    <row r="916">
-      <c r="D916" s="2"/>
-    </row>
-    <row r="917">
-      <c r="D917" s="2"/>
-    </row>
-    <row r="918">
-      <c r="D918" s="2"/>
-    </row>
-    <row r="919">
-      <c r="D919" s="2"/>
-    </row>
-    <row r="920">
-      <c r="D920" s="2"/>
-    </row>
-    <row r="921">
-      <c r="D921" s="2"/>
-    </row>
-    <row r="922">
-      <c r="D922" s="2"/>
-    </row>
-    <row r="923">
-      <c r="D923" s="2"/>
-    </row>
-    <row r="924">
-      <c r="D924" s="2"/>
-    </row>
-    <row r="925">
-      <c r="D925" s="2"/>
-    </row>
-    <row r="926">
-      <c r="D926" s="2"/>
-    </row>
-    <row r="927">
-      <c r="D927" s="2"/>
-    </row>
-    <row r="928">
-      <c r="D928" s="2"/>
-    </row>
-    <row r="929">
-      <c r="D929" s="2"/>
-    </row>
-    <row r="930">
-      <c r="D930" s="2"/>
-    </row>
-    <row r="931">
-      <c r="D931" s="2"/>
-    </row>
-    <row r="932">
-      <c r="D932" s="2"/>
-    </row>
-    <row r="933">
-      <c r="D933" s="2"/>
-    </row>
-    <row r="934">
-      <c r="D934" s="2"/>
-    </row>
-    <row r="935">
-      <c r="D935" s="2"/>
-    </row>
-    <row r="936">
-      <c r="D936" s="2"/>
-    </row>
-    <row r="937">
-      <c r="D937" s="2"/>
-    </row>
-    <row r="938">
-      <c r="D938" s="2"/>
-    </row>
-    <row r="939">
-      <c r="D939" s="2"/>
-    </row>
-    <row r="940">
-      <c r="D940" s="2"/>
-    </row>
-    <row r="941">
-      <c r="D941" s="2"/>
-    </row>
-    <row r="942">
-      <c r="D942" s="2"/>
-    </row>
-    <row r="943">
-      <c r="D943" s="2"/>
-    </row>
-    <row r="944">
-      <c r="D944" s="2"/>
-    </row>
-    <row r="945">
-      <c r="D945" s="2"/>
-    </row>
-    <row r="946">
-      <c r="D946" s="2"/>
-    </row>
-    <row r="947">
-      <c r="D947" s="2"/>
-    </row>
-    <row r="948">
-      <c r="D948" s="2"/>
-    </row>
-    <row r="949">
-      <c r="D949" s="2"/>
-    </row>
-    <row r="950">
-      <c r="D950" s="2"/>
-    </row>
-    <row r="951">
-      <c r="D951" s="2"/>
-    </row>
-    <row r="952">
-      <c r="D952" s="2"/>
-    </row>
-    <row r="953">
-      <c r="D953" s="2"/>
-    </row>
-    <row r="954">
-      <c r="D954" s="2"/>
-    </row>
-    <row r="955">
-      <c r="D955" s="2"/>
-    </row>
-    <row r="956">
-      <c r="D956" s="2"/>
-    </row>
-    <row r="957">
-      <c r="D957" s="2"/>
-    </row>
-    <row r="958">
-      <c r="D958" s="2"/>
-    </row>
-    <row r="959">
-      <c r="D959" s="2"/>
-    </row>
-    <row r="960">
-      <c r="D960" s="2"/>
-    </row>
-    <row r="961">
-      <c r="D961" s="2"/>
-    </row>
-    <row r="962">
-      <c r="D962" s="2"/>
-    </row>
-    <row r="963">
-      <c r="D963" s="2"/>
-    </row>
-    <row r="964">
-      <c r="D964" s="2"/>
-    </row>
-    <row r="965">
-      <c r="D965" s="2"/>
-    </row>
-    <row r="966">
-      <c r="D966" s="2"/>
-    </row>
-    <row r="967">
-      <c r="D967" s="2"/>
-    </row>
-    <row r="968">
-      <c r="D968" s="2"/>
-    </row>
-    <row r="969">
-      <c r="D969" s="2"/>
-    </row>
-    <row r="970">
-      <c r="D970" s="2"/>
-    </row>
-    <row r="971">
-      <c r="D971" s="2"/>
-    </row>
-    <row r="972">
-      <c r="D972" s="2"/>
-    </row>
-    <row r="973">
-      <c r="D973" s="2"/>
-    </row>
-    <row r="974">
-      <c r="D974" s="2"/>
-    </row>
-    <row r="975">
-      <c r="D975" s="2"/>
-    </row>
-    <row r="976">
-      <c r="D976" s="2"/>
-    </row>
-    <row r="977">
-      <c r="D977" s="2"/>
-    </row>
-    <row r="978">
-      <c r="D978" s="2"/>
-    </row>
-    <row r="979">
-      <c r="D979" s="2"/>
-    </row>
-    <row r="980">
-      <c r="D980" s="2"/>
-    </row>
-    <row r="981">
-      <c r="D981" s="2"/>
-    </row>
-    <row r="982">
-      <c r="D982" s="2"/>
-    </row>
-    <row r="983">
-      <c r="D983" s="2"/>
-    </row>
-    <row r="984">
-      <c r="D984" s="2"/>
-    </row>
-    <row r="985">
-      <c r="D985" s="2"/>
-    </row>
-    <row r="986">
-      <c r="D986" s="2"/>
-    </row>
-    <row r="987">
-      <c r="D987" s="2"/>
-    </row>
-    <row r="988">
-      <c r="D988" s="2"/>
-    </row>
-    <row r="989">
-      <c r="D989" s="2"/>
-    </row>
-    <row r="990">
-      <c r="D990" s="2"/>
-    </row>
-    <row r="991">
-      <c r="D991" s="2"/>
-    </row>
-    <row r="992">
-      <c r="D992" s="2"/>
-    </row>
-    <row r="993">
-      <c r="D993" s="2"/>
-    </row>
-    <row r="994">
-      <c r="D994" s="2"/>
-    </row>
-    <row r="995">
-      <c r="D995" s="2"/>
-    </row>
-    <row r="996">
-      <c r="D996" s="2"/>
-    </row>
-    <row r="997">
-      <c r="D997" s="2"/>
-    </row>
-    <row r="998">
-      <c r="D998" s="2"/>
-    </row>
-    <row r="999">
-      <c r="D999" s="2"/>
-    </row>
-    <row r="1000">
-      <c r="D1000" s="2"/>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="2" max="2" width="22.88"/>
-    <col customWidth="1" min="3" max="4" width="22.5"/>
+    <col customWidth="1" min="2" max="2" width="24.25"/>
+    <col customWidth="1" min="3" max="3" width="87.88"/>
+    <col customWidth="1" min="4" max="4" width="22.5"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3817,11 +4331,133 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="D2" s="3" t="s">
-        <v>28</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="3">
+        <v>3.0</v>
       </c>
     </row>
   </sheetData>
@@ -3829,7 +4465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3841,24 +4477,24 @@
   <cols>
     <col customWidth="1" min="3" max="3" width="30.25"/>
     <col customWidth="1" min="4" max="4" width="12.13"/>
-    <col customWidth="1" min="5" max="5" width="38.25"/>
+    <col customWidth="1" min="5" max="5" width="77.0"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3888,16 +4524,16 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="D2" s="5">
         <v>4.0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
@@ -3905,16 +4541,16 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="D3" s="5">
         <v>4.0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
@@ -3922,10 +4558,10 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="D4" s="5">
         <v>4.0</v>
@@ -3937,10 +4573,10 @@
         <v>2.0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="D5" s="5">
         <v>4.0</v>
@@ -3948,172 +4584,708 @@
       <c r="E5" s="2"/>
     </row>
     <row r="6">
-      <c r="D6" s="2"/>
+      <c r="A6" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="5">
+        <v>4.0</v>
+      </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="A7" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="8">
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="A8" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="9">
-      <c r="D9" s="2"/>
+      <c r="A9" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1.0</v>
+      </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="A10" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="11">
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="A11" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="12">
-      <c r="D12" s="2"/>
+      <c r="A12" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1.0</v>
+      </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13">
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="A13" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="14">
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="A14" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="15">
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="A15" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="16">
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="A16" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="17">
-      <c r="D17" s="2"/>
+      <c r="A17" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="5">
+        <v>4.0</v>
+      </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18">
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="A18" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="19">
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="A19" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="20">
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="A20" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="21">
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="A21" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="22">
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="A22" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="23">
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="A23" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="24">
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="A24" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="25">
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="A25" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="26">
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="A26" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="27">
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="A27" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D27" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="28">
-      <c r="D28" s="2"/>
+      <c r="A28" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="5">
+        <v>4.0</v>
+      </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29">
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="A29" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D29" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="30">
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="A30" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D30" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="31">
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="A31" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="32">
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="A32" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D32" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="33">
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="A33" s="3">
+        <v>19.0</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D33" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="34">
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
+      <c r="A34" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D34" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="35">
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
+      <c r="A35" s="3">
+        <v>21.0</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D35" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="36">
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+      <c r="A36" s="3">
+        <v>22.0</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D36" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="37">
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
+      <c r="A37" s="3">
+        <v>23.0</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D37" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="38">
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
+      <c r="A38" s="3">
+        <v>24.0</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D38" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="39">
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
+      <c r="A39" s="3">
+        <v>25.0</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D39" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="40">
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
+      <c r="A40" s="3">
+        <v>26.0</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D40" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="41">
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
+      <c r="A41" s="3">
+        <v>27.0</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D41" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="42">
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
+      <c r="A42" s="3">
+        <v>28.0</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D42" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="43">
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
+      <c r="A43" s="3">
+        <v>29.0</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D43" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="44">
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
+      <c r="A44" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D44" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="45">
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
+      <c r="A45" s="3">
+        <v>31.0</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D45" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="46">
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
+      <c r="A46" s="3">
+        <v>32.0</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D46" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="47">
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
+      <c r="A47" s="3">
+        <v>33.0</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D47" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="48">
       <c r="D48" s="2"/>
@@ -7932,7 +9104,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -7947,16 +9119,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>207</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>208</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -7985,10 +9157,10 @@
     </row>
     <row r="2">
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>47</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -7996,7 +9168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -8013,16 +9185,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>210</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>211</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>212</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>213</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -8050,4 +9222,361 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="5" max="5" width="19.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="3">
+        <v>25.0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B4" s="3">
+        <v>26.0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B7" s="3">
+        <v>27.0</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B11" s="3">
+        <v>28.0</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="3">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="3">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B15" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B16" s="3">
+        <v>31.0</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="3">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B18" s="3">
+        <v>32.0</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B19" s="3">
+        <v>33.0</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/data_collection/database_design.xlsx
+++ b/data_collection/database_design.xlsx
@@ -7,10 +7,13 @@
     <sheet state="visible" name="Major Table" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="Bucket Table" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="Course Table" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="PreReq Table" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="PreReqCoReq Table" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="Student Academic History" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="CS, ID 1" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="CBE, ID 7" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="CS - ID 1" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="AE - ID 4" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="CBE - ID 7" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="ME - ID 9" sheetId="10" r:id="rId13"/>
+    <sheet state="visible" name="CVE - ID 11" sheetId="11" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -18,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="363">
   <si>
     <t>Major ID</t>
   </si>
@@ -71,18 +74,12 @@
     <t>Computer Engineering</t>
   </si>
   <si>
-    <t>do not manually write in here</t>
-  </si>
-  <si>
     <t>Major Description</t>
   </si>
   <si>
     <t>Computer Science is the systematic study of algorithmic processes that describe and transform information: their theory, analysis, design, efficiency, implementation, and application. The fundamental question underlying all of computing is: What can efficiently be automated? Computer Science is far more than programming. It incorporates the paradigms of theory (mathematical), abstraction (experimental), and design (engineering) within many topic areas</t>
   </si>
   <si>
-    <t>CSE?</t>
-  </si>
-  <si>
     <t>EE</t>
   </si>
   <si>
@@ -104,6 +101,9 @@
     <t>Biomedical Engineering</t>
   </si>
   <si>
+    <t>The biomedical engineering curriculum integrates selected engineering sciences and design methods with life science coursework. The program prepares students for careers in a variety of health care related professions including work for medical device manufacturers and regulatory governmental agencies. The course content of the biomedical engineering curriculum complements the departmental strengths in mechanical engineering and includes a comprehensive coverage of engineering materials and biomechanics applications</t>
+  </si>
+  <si>
     <t>BSE</t>
   </si>
   <si>
@@ -140,6 +140,9 @@
     <t>Nuclear Engineering</t>
   </si>
   <si>
+    <t>CVE</t>
+  </si>
+  <si>
     <t>Civil Engineering</t>
   </si>
   <si>
@@ -231,6 +234,81 @@
   </si>
   <si>
     <t>ENGL 355; ENGL 360</t>
+  </si>
+  <si>
+    <t>CVE Term 1 MATH</t>
+  </si>
+  <si>
+    <t>MATH 132; MATH 141; MATH 147</t>
+  </si>
+  <si>
+    <t>3; 4</t>
+  </si>
+  <si>
+    <t>CVE EF COSC options</t>
+  </si>
+  <si>
+    <t>EF 105; COSC 101; COSC 102</t>
+  </si>
+  <si>
+    <t>CVE Concentration Electives</t>
+  </si>
+  <si>
+    <t>CVE Concentration Labs</t>
+  </si>
+  <si>
+    <t>CVE Technical Electives</t>
+  </si>
+  <si>
+    <t>ACCT 200; EF 333; PHYS 231; PHYS 232; MATH 251; ME 231; ME 331; ECE 201; COSC 102; CHEM 210; CHEM 260; CHEM 268; CE 581; CE 582; CE 583; CE 584; CE 485; CE 495; CHEM 330; ENVE 511; ENVE 513; GEOG 411; CE 531; CE 535; GEOL 310; GEOL 330; GEOL 340; GEOL 471; CE 521; CE 522; CE 525; CE 462; CE 472; CE 474; CE 576; CE 551; CE 552; CE 553; GEOG 411; CE 485; CE 495; ENVE 515; ENVE 516; ENVE 526; ENVE 533; GEOG 411</t>
+  </si>
+  <si>
+    <t>CVE Science Electives</t>
+  </si>
+  <si>
+    <t>BIOL 101; BIOL 102; BIOL 150; BIOL 158; GEOG 131; GEOL 101; GEOL 103; GEOL 107; ENVE 513; ESS 462</t>
+  </si>
+  <si>
+    <t>ENVE 391 Co-Req Options</t>
+  </si>
+  <si>
+    <t>CE 262; ME 202</t>
+  </si>
+  <si>
+    <t>CVE Term 5 Options</t>
+  </si>
+  <si>
+    <t>CBE 201; COSC 101; COSC 102; COSC 111; ME 202; MSE 201</t>
+  </si>
+  <si>
+    <t>2; 4</t>
+  </si>
+  <si>
+    <t>CBE 201 PreReq</t>
+  </si>
+  <si>
+    <t>CHEM 132; CHEM 138</t>
+  </si>
+  <si>
+    <t>COSC 102 Co-Req</t>
+  </si>
+  <si>
+    <t>MATH 132; MATH 141</t>
+  </si>
+  <si>
+    <t>EF 230 Pre-Req</t>
+  </si>
+  <si>
+    <t>EF 105; EF 142; COSC 101; COSC 102; COSC 111</t>
+  </si>
+  <si>
+    <t>CVE Physics</t>
+  </si>
+  <si>
+    <t>EF 151; EF 157; PHYS 135; PHYS 136</t>
+  </si>
+  <si>
+    <t>8; 9</t>
   </si>
   <si>
     <t>Course ID</t>
@@ -639,18 +717,384 @@
     <t>A project-oriented course that requires teams of students to design a major project that incorporates the principles taught in COSC 401*. The design emphasis is directed to topics within the field of computer science.</t>
   </si>
   <si>
-    <t>Course ID (code will populate)</t>
+    <t>ECON 201</t>
+  </si>
+  <si>
+    <t>Introductory Economics: A Survey Course</t>
+  </si>
+  <si>
+    <t>Theory of consumer behavior, theory of firms, supply and demand, costs of production, market models, national income and employment theory, money and banking, monetary and fiscal policy, debt, and international economics.</t>
+  </si>
+  <si>
+    <t>ECON 207</t>
+  </si>
+  <si>
+    <t>Honors: Introductory Economics</t>
+  </si>
+  <si>
+    <t>Honors course for students of superior ability and interest. Students accepted on the basis of their records.</t>
+  </si>
+  <si>
+    <t>CE 391</t>
+  </si>
+  <si>
+    <t>Water Resources I</t>
+  </si>
+  <si>
+    <t>Introductory coverage of water resources engineering including fluid properties; conservation of mass, energy, and momentum; hydraulics (flow measurement, pressure pipe, and open channels); and hydrology (hydrologic cycle, groundwater flow, and rainfall-runoff estimation).</t>
+  </si>
+  <si>
+    <t>ENVE 391</t>
+  </si>
+  <si>
+    <t>CE 262</t>
+  </si>
+  <si>
+    <t>Structural Mechanics</t>
+  </si>
+  <si>
+    <t>Fundamentals of structural mechanics including reactions, shear and moment diagrams, trusses, axially loaded members, centroids and area moments of inertia, normal and shear stresses in beams, influence lines, Mohr’s Circle, and torsion.</t>
+  </si>
+  <si>
+    <t>ME 202</t>
+  </si>
+  <si>
+    <t>Engineering Mechanics</t>
+  </si>
+  <si>
+    <t>Review of vector algebra. Statics of two-dimensional trusses and frames, including methods of joints and sections. Geometric properties of cross sections, including first and second moments and location of centroid. Inertial properties of rigid bodies, including moment of inertia and location of mass center.</t>
+  </si>
+  <si>
+    <t>CE 210</t>
+  </si>
+  <si>
+    <t>Geomatics</t>
+  </si>
+  <si>
+    <t>Introduction to the measurement, representation, analysis, management, retrieval, and display of spatial data concerning both the earth’s physical features and the built environment. Covers land and construction surveying, controls, error analysis, use of CADD, and an introduction to global positioning systems (GPS) and geographical information systems (GIS) used in civil engineering.</t>
+  </si>
+  <si>
+    <t>CE 205</t>
+  </si>
+  <si>
+    <t>CE 205 - Professional Development I</t>
+  </si>
+  <si>
+    <t>Introduction to civil and environmental engineering specialties, history, and achievements. Professional responsibility, communication, and organizations.</t>
+  </si>
+  <si>
+    <t>CE 381</t>
+  </si>
+  <si>
+    <t>Environmental Engineering I</t>
+  </si>
+  <si>
+    <t>Introduction to drinking water treatment and distribution systems, wastewater treatment and collection systems, air pollution, solid/hazardous waste, and environmental regulations.</t>
+  </si>
+  <si>
+    <t>ENVE 381</t>
+  </si>
+  <si>
+    <t>EF 230</t>
+  </si>
+  <si>
+    <t>Computer Solution of Engineering Problems</t>
+  </si>
+  <si>
+    <t>Primary focus is on development of computer programs in a modern programming language to solve engineering problems.</t>
+  </si>
+  <si>
+    <t>EF 237</t>
+  </si>
+  <si>
+    <t>Honors: Computer Solution of Engineering Problems</t>
+  </si>
+  <si>
+    <t>CE 331</t>
+  </si>
+  <si>
+    <t>Geotechnical Engineering I</t>
+  </si>
+  <si>
+    <t>Introduction to soil properties and mechanics including phase relationship and soil classification, moisture compaction relationships, two dimensional seepage analysis, and effective stress in layered strata, consolidation theory, time rate and settlement, shear strength, stress increase with depth due to surface loads, bearing capacity of strip foundations, lateral earth pressures and analysis of homogeneous slopes with linear failure surface.</t>
+  </si>
+  <si>
+    <t>CE 340</t>
+  </si>
+  <si>
+    <t>Construction Engineering and Management I</t>
+  </si>
+  <si>
+    <t>Introduction to construction management concepts including developing an understanding of the goals and objectives of various construction stakeholders, delivery and procurement methods, types of construction contracts, planning, quality assurance and control, health and safety, estimating and scheduling.</t>
+  </si>
+  <si>
+    <t>CE 371</t>
+  </si>
+  <si>
+    <t>Structural Engineering I</t>
+  </si>
+  <si>
+    <t>Selection of rolled structural beams. Design of structural steel members for axial tension and compression loads, reinforced concrete beams. Use of standard specifications.</t>
+  </si>
+  <si>
+    <t>CE 321</t>
+  </si>
+  <si>
+    <t>Materials of Construction</t>
+  </si>
+  <si>
+    <t>A study of the physical and mechanical properties of materials used in construction including aggregates, cements, concretes, masonry, ferrous and non-ferrous metals, and wood; the behavior of materials and structures under load; and material testing standards.</t>
+  </si>
+  <si>
+    <t>CE 355</t>
+  </si>
+  <si>
+    <t>Transportation Engineering I</t>
+  </si>
+  <si>
+    <t>Introduction to traffic demand, transportation planning, traffic flow relationships, geometric design, transportation safety, traffic control devices, queuing analysis, and multimodal transportation.</t>
+  </si>
+  <si>
+    <t>CE 300</t>
+  </si>
+  <si>
+    <t>CADD Applications in Civil Engineering</t>
+  </si>
+  <si>
+    <t>Essentials of Computer-Aided Drafting and Design (CADD) software to create construction drawings of roads, foundations, buildings, piping, and earthwork plans, as well as flow charts, and project scheduling diagrams. Applications in civil engineering and construction mostly 2-D applications with limited exposure to 3-D applications. Computer intensive course.</t>
+  </si>
+  <si>
+    <t>CE 310</t>
+  </si>
+  <si>
+    <t>Civil and Environmental Engineering Lab</t>
+  </si>
+  <si>
+    <t>Introduction to laboratory report writing, design of experimental/testing programs, and fundamental lab and field testing for civil and environmental engineers.</t>
+  </si>
+  <si>
+    <t>CE 305</t>
+  </si>
+  <si>
+    <t>Professional Development II</t>
+  </si>
+  <si>
+    <t>Legal and ethical responsibilities, continuous improvement, career planning, business and public policy concepts, and leadership.</t>
+  </si>
+  <si>
+    <t>ENVE 305</t>
+  </si>
+  <si>
+    <t>CE 401</t>
+  </si>
+  <si>
+    <t>Review of Engineering Fundamentals</t>
+  </si>
+  <si>
+    <t>Review of selected topics covered on the Fundamentals of Engineering exam. Emphasis is on those topics relating to civil and environmental engineering. Must be taken during either of the final two terms prior to graduation.</t>
+  </si>
+  <si>
+    <t>CE 400</t>
+  </si>
+  <si>
+    <t>Senior Design II</t>
+  </si>
+  <si>
+    <t>Open-ended, comprehensive project emphasizing team approach to design process. Includes engineering analysis and design, construction-ready drawings, technical engineering report writing, and various design project components typical of those faced by practicing civil engineers. Must be taken during the term of graduation. Summer graduates must take the course during their last preceding term.</t>
+  </si>
+  <si>
+    <t>BIOL 101</t>
+  </si>
+  <si>
+    <t>Introduction to Biology: Cells, Genetics, and Physiology</t>
+  </si>
+  <si>
+    <t>For non-biology majors, introduction to the principles of biology as they relate to cellular and organismal level processes. Topics include cell structure and major fundamental metabolic processes such as energy flow in biological systems, protein synthesis, and aspects of genetics. Includes a survey of human anatomy and physiology with topics relating to human health.</t>
+  </si>
+  <si>
+    <t>BIOL 102</t>
+  </si>
+  <si>
+    <t>Introduction to Biology: Biodiversity and Ecology</t>
+  </si>
+  <si>
+    <t>For non-biology majors, introduction to the principles of biology as they relate to biodiversity and ecological processes. Topics include a survey of evolutionary theory, an analysis of major representative organisms in the Tree of Life, and ecosystem dynamics including human impact on the environment.</t>
+  </si>
+  <si>
+    <t>BIOL 150</t>
+  </si>
+  <si>
+    <t>Organismal and Ecological Biology</t>
+  </si>
+  <si>
+    <t>Intended for science majors, an introduction to the major biological concepts emphasizing the organismal and ecological aspects of life. Organized along themes of evolution, structure and function, information flow, exchange and storage, pathways of energy and matter, and systems.</t>
+  </si>
+  <si>
+    <t>BIOL 158</t>
+  </si>
+  <si>
+    <t>Honors: Organismal and Ecological Biology</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Same as </t>
+    </r>
+    <r>
+      <rPr/>
+      <t>BIOL 150* but designed for high achieving students.</t>
+    </r>
+  </si>
+  <si>
+    <t>GEOG 131</t>
+  </si>
+  <si>
+    <t>Weather, Climate, and Climate Change</t>
+  </si>
+  <si>
+    <t>Characteristics and processes of the earth’s surface and lower atmosphere; their interaction to produce a world pattern of distinctive environments significant to humanity. Covers elements and controls of climate, atmospheric circulation, precipitation and storms, the hydrological cycle, world climate and vegetation patterns, and climate change.</t>
+  </si>
+  <si>
+    <t>GEOL 101</t>
+  </si>
+  <si>
+    <t>The Dynamic Earth</t>
+  </si>
+  <si>
+    <t>In this course, we will discover the physical processes that act within and on Earth, including the formation and destruction of minerals and rocks; the risks and occurrence of volcanoes and earthquakes; and how mountains are built and eroded. Plate tectonics will provide the context of our investigations. Human use of geological resources, and the consequences, will also be highlighted.</t>
+  </si>
+  <si>
+    <t>GEOL 103</t>
+  </si>
+  <si>
+    <t>The Earth’s Environments</t>
+  </si>
+  <si>
+    <t>In this course, we explore the relationships between Earth systems and human activities by investigating our most pressing environmental problems, and how people create and mitigate those problems. Topics include population growth, consumption, natural hazards (volcanoes, earthquakes, floods), resource depletion (energy, minerals, water, soil, food), air and water pollution, solid &amp; hazardous waste disposal, and global climate change.</t>
+  </si>
+  <si>
+    <t>GEOL 107</t>
+  </si>
+  <si>
+    <t>Honors: The Dynamic Earth</t>
+  </si>
+  <si>
+    <t>Laboratory and field emphasis to understanding physical processes, including the formation of rocks, plate tectonics, earthquakes, and landscapes.</t>
+  </si>
+  <si>
+    <t>Environmental Engineering 513</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>ESS 462</t>
+  </si>
+  <si>
+    <t>Environmental Climatology</t>
+  </si>
+  <si>
+    <t>Study of global energy budget, past climates, climate variability, climate distribution, and climate change. Emphasis on global warming and its potential impacts on ecosystems, societies, and global sustainability. Students are required to apply quantitative, computer, and oral communication skills to analyze and report climate data for environmental planning.</t>
+  </si>
+  <si>
+    <t>STATS 251</t>
+  </si>
+  <si>
+    <t>Probability and Statistics for Scientists and Engineers</t>
+  </si>
+  <si>
+    <t>Data collection and descriptive statistics. Concepts of probability and probability distributions. Discrete and continuous distributions. Estimation of means, confidence intervals, and hypothesis tests for single mean and proportion. Simple regression and correlation. Process improvement, statistical process control, and 2-level experiments. Use of statistical computing software.</t>
+  </si>
+  <si>
+    <t>EF 142</t>
+  </si>
+  <si>
+    <t>Introduction to Physics and Modeling for Engineers II</t>
+  </si>
+  <si>
+    <t>An introduction to physics concepts for engineering, ways to model these concepts using numerical methods, and skills and practices necessary for a successful engineering career. Topics include work-energy principle, conservation of energy and momentum, application of physics in circular motion, numerical methods applications for modeling highlighted physics concepts, exploration of engineering disciplines, teamwork, project management, and communication skills. Skills learned will include the ability to apply physics concepts to real-world problems, ability to use programming software to model physics concepts, and the ability to recognize and practice concepts related to successful engineering practice such as working in teams, project management, and effective communication.</t>
+  </si>
+  <si>
+    <t>COSC 101</t>
+  </si>
+  <si>
+    <t>Introduction to Programming</t>
+  </si>
+  <si>
+    <t>An introduction to computational thinking and structured programming. Topics include problem solving and algorithm development with emphasis on conditional if/else statements, loop based iteration, and function calls. Students will also be given an overview of commonly used data structures such as arrays. Skills learned include designing a program to solving a problem, developing the algorithms needed, writing code to implement them, testing the code and correcting errors, as well as documenting how the code works.</t>
+  </si>
+  <si>
+    <t>COSC 102</t>
+  </si>
+  <si>
+    <t>Introduction to Computer Science</t>
+  </si>
+  <si>
+    <t>Modular programming in an object-oriented programming language, including string and vector manipulation, file I/O, bit operators, Boolean algebra, pointers, simple sorting and binary search, plus introductions to recursion and templates.</t>
+  </si>
+  <si>
+    <t>COSC 111</t>
+  </si>
+  <si>
+    <t>Computational Thinking and the Art of Programming</t>
+  </si>
+  <si>
+    <t>An introduction to the thought processes of computer science and the art of programming. Topics include learning to think algorithmically, and solve problems efficiently, using a high-level programming language and a variety of software tools and technologies. Skills learned include designing programs to solve problems, developing the algorithms needed, using abstractions, data structures and encapsulation, writing code to implement algorithms, testing the code for errors, and documenting the process and the outcome. This course welcomes students with limited or no programming experience.</t>
+  </si>
+  <si>
+    <t>MSE 201</t>
+  </si>
+  <si>
+    <t>Introduction to Materials Science and Engineering</t>
+  </si>
+  <si>
+    <t>Correlation of atomic structure, crystal structure, and microstructure of solids with mechanical, physical, and chemical properties of engineering significance.</t>
+  </si>
+  <si>
+    <t>CE 399S</t>
+  </si>
+  <si>
+    <t>Senior Design I</t>
+  </si>
+  <si>
+    <t>The course will introduce students to the concepts of design problem definition, effort scheduling and planning, and development of a scope of work for applications in the design phase of a typical civil engineering project. Students will work to develop and initiate project design effort in preparation for the Senior Design Project course. Pre-planning efforts (such as data collection, site investigations, client interactions, refinement of scope of work, etc.) will be performed per project needs. Additional lessons will focus on team cooperation, communication with clients, and other professional skills necessary for successful project management during the design phase.</t>
+  </si>
+  <si>
+    <t>Co-req or Pre-req</t>
+  </si>
+  <si>
+    <t>Course ID (code can populate)</t>
   </si>
   <si>
     <t>PreReq Course</t>
   </si>
   <si>
-    <t>Pre-Req Course ID (code will populate)</t>
+    <t>Pre-Req Course ID (code can populate)</t>
+  </si>
+  <si>
+    <t>PreReq Bucket ID</t>
+  </si>
+  <si>
+    <t>PreReq Bucket Name (code can populate)</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
   <si>
     <t>MATH 130</t>
   </si>
   <si>
+    <t>MATH 132</t>
+  </si>
+  <si>
+    <t>MATH 131</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>PHYS 136</t>
+  </si>
+  <si>
     <t>Course ID (code will populate from course table)</t>
   </si>
   <si>
@@ -670,13 +1114,16 @@
   </si>
   <si>
     <t>Required Bucket Number of Hours (code will populate)</t>
+  </si>
+  <si>
+    <t>Required Course (code can populate)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -700,17 +1147,32 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FFB7B7B7"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAD1DC"/>
+        <bgColor rgb="FFEAD1DC"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -725,7 +1187,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -747,11 +1209,24 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -762,6 +1237,14 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -790,6 +1273,10 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1108,9 +1595,372 @@
         <v>1.0</v>
       </c>
     </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="3">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
     <row r="6">
-      <c r="B6" s="3" t="s">
-        <v>17</v>
+      <c r="A6" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="B7" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="3">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="3">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="3">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -1144,7 +1994,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -1158,7 +2008,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -1166,7 +2016,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>16</v>
@@ -1178,10 +2028,10 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -1190,13 +2040,13 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6">
@@ -1204,22 +2054,24 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="3">
         <v>6.0</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -1228,13 +2080,13 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -1242,10 +2094,10 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="D9" s="2"/>
     </row>
@@ -1254,13 +2106,13 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11">
@@ -1268,10 +2120,10 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="D11" s="2"/>
     </row>
@@ -1279,6 +2131,9 @@
       <c r="A12" s="3">
         <v>11.0</v>
       </c>
+      <c r="B12" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="C12" s="3" t="s">
         <v>40</v>
       </c>
@@ -1297,16 +2152,39 @@
       <c r="D13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="3">
+      <c r="A14" s="7">
         <v>13.0</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
     </row>
     <row r="15">
       <c r="D15" s="2"/>
@@ -4333,7 +5211,7 @@
       <c r="B2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -4347,7 +5225,7 @@
       <c r="B3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>54</v>
       </c>
       <c r="D3" s="3">
@@ -4361,7 +5239,7 @@
       <c r="B4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>56</v>
       </c>
       <c r="D4" s="3">
@@ -4375,7 +5253,7 @@
       <c r="B5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>58</v>
       </c>
       <c r="D5" s="3">
@@ -4389,7 +5267,7 @@
       <c r="B6" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>60</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -4403,7 +5281,7 @@
       <c r="B7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>62</v>
       </c>
       <c r="D7" s="3">
@@ -4417,7 +5295,7 @@
       <c r="B8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4428,7 +5306,7 @@
       <c r="B9" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4439,7 +5317,7 @@
       <c r="B10" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>68</v>
       </c>
       <c r="D10" s="3">
@@ -4453,12 +5331,3086 @@
       <c r="B11" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D11" s="3">
         <v>3.0</v>
       </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="10">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="10">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3">
+        <v>19.0</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3">
+        <v>21.0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3">
+        <v>22.0</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25">
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26">
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27">
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28">
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29">
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30">
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31">
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32">
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33">
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34">
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35">
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36">
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37">
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38">
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39">
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40">
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41">
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42">
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43">
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44">
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45">
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46">
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47">
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48">
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49">
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50">
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51">
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52">
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53">
+      <c r="C53" s="2"/>
+    </row>
+    <row r="54">
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55">
+      <c r="C55" s="2"/>
+    </row>
+    <row r="56">
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57">
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58">
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59">
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60">
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61">
+      <c r="C61" s="2"/>
+    </row>
+    <row r="62">
+      <c r="C62" s="2"/>
+    </row>
+    <row r="63">
+      <c r="C63" s="2"/>
+    </row>
+    <row r="64">
+      <c r="C64" s="2"/>
+    </row>
+    <row r="65">
+      <c r="C65" s="2"/>
+    </row>
+    <row r="66">
+      <c r="C66" s="2"/>
+    </row>
+    <row r="67">
+      <c r="C67" s="2"/>
+    </row>
+    <row r="68">
+      <c r="C68" s="2"/>
+    </row>
+    <row r="69">
+      <c r="C69" s="2"/>
+    </row>
+    <row r="70">
+      <c r="C70" s="2"/>
+    </row>
+    <row r="71">
+      <c r="C71" s="2"/>
+    </row>
+    <row r="72">
+      <c r="C72" s="2"/>
+    </row>
+    <row r="73">
+      <c r="C73" s="2"/>
+    </row>
+    <row r="74">
+      <c r="C74" s="2"/>
+    </row>
+    <row r="75">
+      <c r="C75" s="2"/>
+    </row>
+    <row r="76">
+      <c r="C76" s="2"/>
+    </row>
+    <row r="77">
+      <c r="C77" s="2"/>
+    </row>
+    <row r="78">
+      <c r="C78" s="2"/>
+    </row>
+    <row r="79">
+      <c r="C79" s="2"/>
+    </row>
+    <row r="80">
+      <c r="C80" s="2"/>
+    </row>
+    <row r="81">
+      <c r="C81" s="2"/>
+    </row>
+    <row r="82">
+      <c r="C82" s="2"/>
+    </row>
+    <row r="83">
+      <c r="C83" s="2"/>
+    </row>
+    <row r="84">
+      <c r="C84" s="2"/>
+    </row>
+    <row r="85">
+      <c r="C85" s="2"/>
+    </row>
+    <row r="86">
+      <c r="C86" s="2"/>
+    </row>
+    <row r="87">
+      <c r="C87" s="2"/>
+    </row>
+    <row r="88">
+      <c r="C88" s="2"/>
+    </row>
+    <row r="89">
+      <c r="C89" s="2"/>
+    </row>
+    <row r="90">
+      <c r="C90" s="2"/>
+    </row>
+    <row r="91">
+      <c r="C91" s="2"/>
+    </row>
+    <row r="92">
+      <c r="C92" s="2"/>
+    </row>
+    <row r="93">
+      <c r="C93" s="2"/>
+    </row>
+    <row r="94">
+      <c r="C94" s="2"/>
+    </row>
+    <row r="95">
+      <c r="C95" s="2"/>
+    </row>
+    <row r="96">
+      <c r="C96" s="2"/>
+    </row>
+    <row r="97">
+      <c r="C97" s="2"/>
+    </row>
+    <row r="98">
+      <c r="C98" s="2"/>
+    </row>
+    <row r="99">
+      <c r="C99" s="2"/>
+    </row>
+    <row r="100">
+      <c r="C100" s="2"/>
+    </row>
+    <row r="101">
+      <c r="C101" s="2"/>
+    </row>
+    <row r="102">
+      <c r="C102" s="2"/>
+    </row>
+    <row r="103">
+      <c r="C103" s="2"/>
+    </row>
+    <row r="104">
+      <c r="C104" s="2"/>
+    </row>
+    <row r="105">
+      <c r="C105" s="2"/>
+    </row>
+    <row r="106">
+      <c r="C106" s="2"/>
+    </row>
+    <row r="107">
+      <c r="C107" s="2"/>
+    </row>
+    <row r="108">
+      <c r="C108" s="2"/>
+    </row>
+    <row r="109">
+      <c r="C109" s="2"/>
+    </row>
+    <row r="110">
+      <c r="C110" s="2"/>
+    </row>
+    <row r="111">
+      <c r="C111" s="2"/>
+    </row>
+    <row r="112">
+      <c r="C112" s="2"/>
+    </row>
+    <row r="113">
+      <c r="C113" s="2"/>
+    </row>
+    <row r="114">
+      <c r="C114" s="2"/>
+    </row>
+    <row r="115">
+      <c r="C115" s="2"/>
+    </row>
+    <row r="116">
+      <c r="C116" s="2"/>
+    </row>
+    <row r="117">
+      <c r="C117" s="2"/>
+    </row>
+    <row r="118">
+      <c r="C118" s="2"/>
+    </row>
+    <row r="119">
+      <c r="C119" s="2"/>
+    </row>
+    <row r="120">
+      <c r="C120" s="2"/>
+    </row>
+    <row r="121">
+      <c r="C121" s="2"/>
+    </row>
+    <row r="122">
+      <c r="C122" s="2"/>
+    </row>
+    <row r="123">
+      <c r="C123" s="2"/>
+    </row>
+    <row r="124">
+      <c r="C124" s="2"/>
+    </row>
+    <row r="125">
+      <c r="C125" s="2"/>
+    </row>
+    <row r="126">
+      <c r="C126" s="2"/>
+    </row>
+    <row r="127">
+      <c r="C127" s="2"/>
+    </row>
+    <row r="128">
+      <c r="C128" s="2"/>
+    </row>
+    <row r="129">
+      <c r="C129" s="2"/>
+    </row>
+    <row r="130">
+      <c r="C130" s="2"/>
+    </row>
+    <row r="131">
+      <c r="C131" s="2"/>
+    </row>
+    <row r="132">
+      <c r="C132" s="2"/>
+    </row>
+    <row r="133">
+      <c r="C133" s="2"/>
+    </row>
+    <row r="134">
+      <c r="C134" s="2"/>
+    </row>
+    <row r="135">
+      <c r="C135" s="2"/>
+    </row>
+    <row r="136">
+      <c r="C136" s="2"/>
+    </row>
+    <row r="137">
+      <c r="C137" s="2"/>
+    </row>
+    <row r="138">
+      <c r="C138" s="2"/>
+    </row>
+    <row r="139">
+      <c r="C139" s="2"/>
+    </row>
+    <row r="140">
+      <c r="C140" s="2"/>
+    </row>
+    <row r="141">
+      <c r="C141" s="2"/>
+    </row>
+    <row r="142">
+      <c r="C142" s="2"/>
+    </row>
+    <row r="143">
+      <c r="C143" s="2"/>
+    </row>
+    <row r="144">
+      <c r="C144" s="2"/>
+    </row>
+    <row r="145">
+      <c r="C145" s="2"/>
+    </row>
+    <row r="146">
+      <c r="C146" s="2"/>
+    </row>
+    <row r="147">
+      <c r="C147" s="2"/>
+    </row>
+    <row r="148">
+      <c r="C148" s="2"/>
+    </row>
+    <row r="149">
+      <c r="C149" s="2"/>
+    </row>
+    <row r="150">
+      <c r="C150" s="2"/>
+    </row>
+    <row r="151">
+      <c r="C151" s="2"/>
+    </row>
+    <row r="152">
+      <c r="C152" s="2"/>
+    </row>
+    <row r="153">
+      <c r="C153" s="2"/>
+    </row>
+    <row r="154">
+      <c r="C154" s="2"/>
+    </row>
+    <row r="155">
+      <c r="C155" s="2"/>
+    </row>
+    <row r="156">
+      <c r="C156" s="2"/>
+    </row>
+    <row r="157">
+      <c r="C157" s="2"/>
+    </row>
+    <row r="158">
+      <c r="C158" s="2"/>
+    </row>
+    <row r="159">
+      <c r="C159" s="2"/>
+    </row>
+    <row r="160">
+      <c r="C160" s="2"/>
+    </row>
+    <row r="161">
+      <c r="C161" s="2"/>
+    </row>
+    <row r="162">
+      <c r="C162" s="2"/>
+    </row>
+    <row r="163">
+      <c r="C163" s="2"/>
+    </row>
+    <row r="164">
+      <c r="C164" s="2"/>
+    </row>
+    <row r="165">
+      <c r="C165" s="2"/>
+    </row>
+    <row r="166">
+      <c r="C166" s="2"/>
+    </row>
+    <row r="167">
+      <c r="C167" s="2"/>
+    </row>
+    <row r="168">
+      <c r="C168" s="2"/>
+    </row>
+    <row r="169">
+      <c r="C169" s="2"/>
+    </row>
+    <row r="170">
+      <c r="C170" s="2"/>
+    </row>
+    <row r="171">
+      <c r="C171" s="2"/>
+    </row>
+    <row r="172">
+      <c r="C172" s="2"/>
+    </row>
+    <row r="173">
+      <c r="C173" s="2"/>
+    </row>
+    <row r="174">
+      <c r="C174" s="2"/>
+    </row>
+    <row r="175">
+      <c r="C175" s="2"/>
+    </row>
+    <row r="176">
+      <c r="C176" s="2"/>
+    </row>
+    <row r="177">
+      <c r="C177" s="2"/>
+    </row>
+    <row r="178">
+      <c r="C178" s="2"/>
+    </row>
+    <row r="179">
+      <c r="C179" s="2"/>
+    </row>
+    <row r="180">
+      <c r="C180" s="2"/>
+    </row>
+    <row r="181">
+      <c r="C181" s="2"/>
+    </row>
+    <row r="182">
+      <c r="C182" s="2"/>
+    </row>
+    <row r="183">
+      <c r="C183" s="2"/>
+    </row>
+    <row r="184">
+      <c r="C184" s="2"/>
+    </row>
+    <row r="185">
+      <c r="C185" s="2"/>
+    </row>
+    <row r="186">
+      <c r="C186" s="2"/>
+    </row>
+    <row r="187">
+      <c r="C187" s="2"/>
+    </row>
+    <row r="188">
+      <c r="C188" s="2"/>
+    </row>
+    <row r="189">
+      <c r="C189" s="2"/>
+    </row>
+    <row r="190">
+      <c r="C190" s="2"/>
+    </row>
+    <row r="191">
+      <c r="C191" s="2"/>
+    </row>
+    <row r="192">
+      <c r="C192" s="2"/>
+    </row>
+    <row r="193">
+      <c r="C193" s="2"/>
+    </row>
+    <row r="194">
+      <c r="C194" s="2"/>
+    </row>
+    <row r="195">
+      <c r="C195" s="2"/>
+    </row>
+    <row r="196">
+      <c r="C196" s="2"/>
+    </row>
+    <row r="197">
+      <c r="C197" s="2"/>
+    </row>
+    <row r="198">
+      <c r="C198" s="2"/>
+    </row>
+    <row r="199">
+      <c r="C199" s="2"/>
+    </row>
+    <row r="200">
+      <c r="C200" s="2"/>
+    </row>
+    <row r="201">
+      <c r="C201" s="2"/>
+    </row>
+    <row r="202">
+      <c r="C202" s="2"/>
+    </row>
+    <row r="203">
+      <c r="C203" s="2"/>
+    </row>
+    <row r="204">
+      <c r="C204" s="2"/>
+    </row>
+    <row r="205">
+      <c r="C205" s="2"/>
+    </row>
+    <row r="206">
+      <c r="C206" s="2"/>
+    </row>
+    <row r="207">
+      <c r="C207" s="2"/>
+    </row>
+    <row r="208">
+      <c r="C208" s="2"/>
+    </row>
+    <row r="209">
+      <c r="C209" s="2"/>
+    </row>
+    <row r="210">
+      <c r="C210" s="2"/>
+    </row>
+    <row r="211">
+      <c r="C211" s="2"/>
+    </row>
+    <row r="212">
+      <c r="C212" s="2"/>
+    </row>
+    <row r="213">
+      <c r="C213" s="2"/>
+    </row>
+    <row r="214">
+      <c r="C214" s="2"/>
+    </row>
+    <row r="215">
+      <c r="C215" s="2"/>
+    </row>
+    <row r="216">
+      <c r="C216" s="2"/>
+    </row>
+    <row r="217">
+      <c r="C217" s="2"/>
+    </row>
+    <row r="218">
+      <c r="C218" s="2"/>
+    </row>
+    <row r="219">
+      <c r="C219" s="2"/>
+    </row>
+    <row r="220">
+      <c r="C220" s="2"/>
+    </row>
+    <row r="221">
+      <c r="C221" s="2"/>
+    </row>
+    <row r="222">
+      <c r="C222" s="2"/>
+    </row>
+    <row r="223">
+      <c r="C223" s="2"/>
+    </row>
+    <row r="224">
+      <c r="C224" s="2"/>
+    </row>
+    <row r="225">
+      <c r="C225" s="2"/>
+    </row>
+    <row r="226">
+      <c r="C226" s="2"/>
+    </row>
+    <row r="227">
+      <c r="C227" s="2"/>
+    </row>
+    <row r="228">
+      <c r="C228" s="2"/>
+    </row>
+    <row r="229">
+      <c r="C229" s="2"/>
+    </row>
+    <row r="230">
+      <c r="C230" s="2"/>
+    </row>
+    <row r="231">
+      <c r="C231" s="2"/>
+    </row>
+    <row r="232">
+      <c r="C232" s="2"/>
+    </row>
+    <row r="233">
+      <c r="C233" s="2"/>
+    </row>
+    <row r="234">
+      <c r="C234" s="2"/>
+    </row>
+    <row r="235">
+      <c r="C235" s="2"/>
+    </row>
+    <row r="236">
+      <c r="C236" s="2"/>
+    </row>
+    <row r="237">
+      <c r="C237" s="2"/>
+    </row>
+    <row r="238">
+      <c r="C238" s="2"/>
+    </row>
+    <row r="239">
+      <c r="C239" s="2"/>
+    </row>
+    <row r="240">
+      <c r="C240" s="2"/>
+    </row>
+    <row r="241">
+      <c r="C241" s="2"/>
+    </row>
+    <row r="242">
+      <c r="C242" s="2"/>
+    </row>
+    <row r="243">
+      <c r="C243" s="2"/>
+    </row>
+    <row r="244">
+      <c r="C244" s="2"/>
+    </row>
+    <row r="245">
+      <c r="C245" s="2"/>
+    </row>
+    <row r="246">
+      <c r="C246" s="2"/>
+    </row>
+    <row r="247">
+      <c r="C247" s="2"/>
+    </row>
+    <row r="248">
+      <c r="C248" s="2"/>
+    </row>
+    <row r="249">
+      <c r="C249" s="2"/>
+    </row>
+    <row r="250">
+      <c r="C250" s="2"/>
+    </row>
+    <row r="251">
+      <c r="C251" s="2"/>
+    </row>
+    <row r="252">
+      <c r="C252" s="2"/>
+    </row>
+    <row r="253">
+      <c r="C253" s="2"/>
+    </row>
+    <row r="254">
+      <c r="C254" s="2"/>
+    </row>
+    <row r="255">
+      <c r="C255" s="2"/>
+    </row>
+    <row r="256">
+      <c r="C256" s="2"/>
+    </row>
+    <row r="257">
+      <c r="C257" s="2"/>
+    </row>
+    <row r="258">
+      <c r="C258" s="2"/>
+    </row>
+    <row r="259">
+      <c r="C259" s="2"/>
+    </row>
+    <row r="260">
+      <c r="C260" s="2"/>
+    </row>
+    <row r="261">
+      <c r="C261" s="2"/>
+    </row>
+    <row r="262">
+      <c r="C262" s="2"/>
+    </row>
+    <row r="263">
+      <c r="C263" s="2"/>
+    </row>
+    <row r="264">
+      <c r="C264" s="2"/>
+    </row>
+    <row r="265">
+      <c r="C265" s="2"/>
+    </row>
+    <row r="266">
+      <c r="C266" s="2"/>
+    </row>
+    <row r="267">
+      <c r="C267" s="2"/>
+    </row>
+    <row r="268">
+      <c r="C268" s="2"/>
+    </row>
+    <row r="269">
+      <c r="C269" s="2"/>
+    </row>
+    <row r="270">
+      <c r="C270" s="2"/>
+    </row>
+    <row r="271">
+      <c r="C271" s="2"/>
+    </row>
+    <row r="272">
+      <c r="C272" s="2"/>
+    </row>
+    <row r="273">
+      <c r="C273" s="2"/>
+    </row>
+    <row r="274">
+      <c r="C274" s="2"/>
+    </row>
+    <row r="275">
+      <c r="C275" s="2"/>
+    </row>
+    <row r="276">
+      <c r="C276" s="2"/>
+    </row>
+    <row r="277">
+      <c r="C277" s="2"/>
+    </row>
+    <row r="278">
+      <c r="C278" s="2"/>
+    </row>
+    <row r="279">
+      <c r="C279" s="2"/>
+    </row>
+    <row r="280">
+      <c r="C280" s="2"/>
+    </row>
+    <row r="281">
+      <c r="C281" s="2"/>
+    </row>
+    <row r="282">
+      <c r="C282" s="2"/>
+    </row>
+    <row r="283">
+      <c r="C283" s="2"/>
+    </row>
+    <row r="284">
+      <c r="C284" s="2"/>
+    </row>
+    <row r="285">
+      <c r="C285" s="2"/>
+    </row>
+    <row r="286">
+      <c r="C286" s="2"/>
+    </row>
+    <row r="287">
+      <c r="C287" s="2"/>
+    </row>
+    <row r="288">
+      <c r="C288" s="2"/>
+    </row>
+    <row r="289">
+      <c r="C289" s="2"/>
+    </row>
+    <row r="290">
+      <c r="C290" s="2"/>
+    </row>
+    <row r="291">
+      <c r="C291" s="2"/>
+    </row>
+    <row r="292">
+      <c r="C292" s="2"/>
+    </row>
+    <row r="293">
+      <c r="C293" s="2"/>
+    </row>
+    <row r="294">
+      <c r="C294" s="2"/>
+    </row>
+    <row r="295">
+      <c r="C295" s="2"/>
+    </row>
+    <row r="296">
+      <c r="C296" s="2"/>
+    </row>
+    <row r="297">
+      <c r="C297" s="2"/>
+    </row>
+    <row r="298">
+      <c r="C298" s="2"/>
+    </row>
+    <row r="299">
+      <c r="C299" s="2"/>
+    </row>
+    <row r="300">
+      <c r="C300" s="2"/>
+    </row>
+    <row r="301">
+      <c r="C301" s="2"/>
+    </row>
+    <row r="302">
+      <c r="C302" s="2"/>
+    </row>
+    <row r="303">
+      <c r="C303" s="2"/>
+    </row>
+    <row r="304">
+      <c r="C304" s="2"/>
+    </row>
+    <row r="305">
+      <c r="C305" s="2"/>
+    </row>
+    <row r="306">
+      <c r="C306" s="2"/>
+    </row>
+    <row r="307">
+      <c r="C307" s="2"/>
+    </row>
+    <row r="308">
+      <c r="C308" s="2"/>
+    </row>
+    <row r="309">
+      <c r="C309" s="2"/>
+    </row>
+    <row r="310">
+      <c r="C310" s="2"/>
+    </row>
+    <row r="311">
+      <c r="C311" s="2"/>
+    </row>
+    <row r="312">
+      <c r="C312" s="2"/>
+    </row>
+    <row r="313">
+      <c r="C313" s="2"/>
+    </row>
+    <row r="314">
+      <c r="C314" s="2"/>
+    </row>
+    <row r="315">
+      <c r="C315" s="2"/>
+    </row>
+    <row r="316">
+      <c r="C316" s="2"/>
+    </row>
+    <row r="317">
+      <c r="C317" s="2"/>
+    </row>
+    <row r="318">
+      <c r="C318" s="2"/>
+    </row>
+    <row r="319">
+      <c r="C319" s="2"/>
+    </row>
+    <row r="320">
+      <c r="C320" s="2"/>
+    </row>
+    <row r="321">
+      <c r="C321" s="2"/>
+    </row>
+    <row r="322">
+      <c r="C322" s="2"/>
+    </row>
+    <row r="323">
+      <c r="C323" s="2"/>
+    </row>
+    <row r="324">
+      <c r="C324" s="2"/>
+    </row>
+    <row r="325">
+      <c r="C325" s="2"/>
+    </row>
+    <row r="326">
+      <c r="C326" s="2"/>
+    </row>
+    <row r="327">
+      <c r="C327" s="2"/>
+    </row>
+    <row r="328">
+      <c r="C328" s="2"/>
+    </row>
+    <row r="329">
+      <c r="C329" s="2"/>
+    </row>
+    <row r="330">
+      <c r="C330" s="2"/>
+    </row>
+    <row r="331">
+      <c r="C331" s="2"/>
+    </row>
+    <row r="332">
+      <c r="C332" s="2"/>
+    </row>
+    <row r="333">
+      <c r="C333" s="2"/>
+    </row>
+    <row r="334">
+      <c r="C334" s="2"/>
+    </row>
+    <row r="335">
+      <c r="C335" s="2"/>
+    </row>
+    <row r="336">
+      <c r="C336" s="2"/>
+    </row>
+    <row r="337">
+      <c r="C337" s="2"/>
+    </row>
+    <row r="338">
+      <c r="C338" s="2"/>
+    </row>
+    <row r="339">
+      <c r="C339" s="2"/>
+    </row>
+    <row r="340">
+      <c r="C340" s="2"/>
+    </row>
+    <row r="341">
+      <c r="C341" s="2"/>
+    </row>
+    <row r="342">
+      <c r="C342" s="2"/>
+    </row>
+    <row r="343">
+      <c r="C343" s="2"/>
+    </row>
+    <row r="344">
+      <c r="C344" s="2"/>
+    </row>
+    <row r="345">
+      <c r="C345" s="2"/>
+    </row>
+    <row r="346">
+      <c r="C346" s="2"/>
+    </row>
+    <row r="347">
+      <c r="C347" s="2"/>
+    </row>
+    <row r="348">
+      <c r="C348" s="2"/>
+    </row>
+    <row r="349">
+      <c r="C349" s="2"/>
+    </row>
+    <row r="350">
+      <c r="C350" s="2"/>
+    </row>
+    <row r="351">
+      <c r="C351" s="2"/>
+    </row>
+    <row r="352">
+      <c r="C352" s="2"/>
+    </row>
+    <row r="353">
+      <c r="C353" s="2"/>
+    </row>
+    <row r="354">
+      <c r="C354" s="2"/>
+    </row>
+    <row r="355">
+      <c r="C355" s="2"/>
+    </row>
+    <row r="356">
+      <c r="C356" s="2"/>
+    </row>
+    <row r="357">
+      <c r="C357" s="2"/>
+    </row>
+    <row r="358">
+      <c r="C358" s="2"/>
+    </row>
+    <row r="359">
+      <c r="C359" s="2"/>
+    </row>
+    <row r="360">
+      <c r="C360" s="2"/>
+    </row>
+    <row r="361">
+      <c r="C361" s="2"/>
+    </row>
+    <row r="362">
+      <c r="C362" s="2"/>
+    </row>
+    <row r="363">
+      <c r="C363" s="2"/>
+    </row>
+    <row r="364">
+      <c r="C364" s="2"/>
+    </row>
+    <row r="365">
+      <c r="C365" s="2"/>
+    </row>
+    <row r="366">
+      <c r="C366" s="2"/>
+    </row>
+    <row r="367">
+      <c r="C367" s="2"/>
+    </row>
+    <row r="368">
+      <c r="C368" s="2"/>
+    </row>
+    <row r="369">
+      <c r="C369" s="2"/>
+    </row>
+    <row r="370">
+      <c r="C370" s="2"/>
+    </row>
+    <row r="371">
+      <c r="C371" s="2"/>
+    </row>
+    <row r="372">
+      <c r="C372" s="2"/>
+    </row>
+    <row r="373">
+      <c r="C373" s="2"/>
+    </row>
+    <row r="374">
+      <c r="C374" s="2"/>
+    </row>
+    <row r="375">
+      <c r="C375" s="2"/>
+    </row>
+    <row r="376">
+      <c r="C376" s="2"/>
+    </row>
+    <row r="377">
+      <c r="C377" s="2"/>
+    </row>
+    <row r="378">
+      <c r="C378" s="2"/>
+    </row>
+    <row r="379">
+      <c r="C379" s="2"/>
+    </row>
+    <row r="380">
+      <c r="C380" s="2"/>
+    </row>
+    <row r="381">
+      <c r="C381" s="2"/>
+    </row>
+    <row r="382">
+      <c r="C382" s="2"/>
+    </row>
+    <row r="383">
+      <c r="C383" s="2"/>
+    </row>
+    <row r="384">
+      <c r="C384" s="2"/>
+    </row>
+    <row r="385">
+      <c r="C385" s="2"/>
+    </row>
+    <row r="386">
+      <c r="C386" s="2"/>
+    </row>
+    <row r="387">
+      <c r="C387" s="2"/>
+    </row>
+    <row r="388">
+      <c r="C388" s="2"/>
+    </row>
+    <row r="389">
+      <c r="C389" s="2"/>
+    </row>
+    <row r="390">
+      <c r="C390" s="2"/>
+    </row>
+    <row r="391">
+      <c r="C391" s="2"/>
+    </row>
+    <row r="392">
+      <c r="C392" s="2"/>
+    </row>
+    <row r="393">
+      <c r="C393" s="2"/>
+    </row>
+    <row r="394">
+      <c r="C394" s="2"/>
+    </row>
+    <row r="395">
+      <c r="C395" s="2"/>
+    </row>
+    <row r="396">
+      <c r="C396" s="2"/>
+    </row>
+    <row r="397">
+      <c r="C397" s="2"/>
+    </row>
+    <row r="398">
+      <c r="C398" s="2"/>
+    </row>
+    <row r="399">
+      <c r="C399" s="2"/>
+    </row>
+    <row r="400">
+      <c r="C400" s="2"/>
+    </row>
+    <row r="401">
+      <c r="C401" s="2"/>
+    </row>
+    <row r="402">
+      <c r="C402" s="2"/>
+    </row>
+    <row r="403">
+      <c r="C403" s="2"/>
+    </row>
+    <row r="404">
+      <c r="C404" s="2"/>
+    </row>
+    <row r="405">
+      <c r="C405" s="2"/>
+    </row>
+    <row r="406">
+      <c r="C406" s="2"/>
+    </row>
+    <row r="407">
+      <c r="C407" s="2"/>
+    </row>
+    <row r="408">
+      <c r="C408" s="2"/>
+    </row>
+    <row r="409">
+      <c r="C409" s="2"/>
+    </row>
+    <row r="410">
+      <c r="C410" s="2"/>
+    </row>
+    <row r="411">
+      <c r="C411" s="2"/>
+    </row>
+    <row r="412">
+      <c r="C412" s="2"/>
+    </row>
+    <row r="413">
+      <c r="C413" s="2"/>
+    </row>
+    <row r="414">
+      <c r="C414" s="2"/>
+    </row>
+    <row r="415">
+      <c r="C415" s="2"/>
+    </row>
+    <row r="416">
+      <c r="C416" s="2"/>
+    </row>
+    <row r="417">
+      <c r="C417" s="2"/>
+    </row>
+    <row r="418">
+      <c r="C418" s="2"/>
+    </row>
+    <row r="419">
+      <c r="C419" s="2"/>
+    </row>
+    <row r="420">
+      <c r="C420" s="2"/>
+    </row>
+    <row r="421">
+      <c r="C421" s="2"/>
+    </row>
+    <row r="422">
+      <c r="C422" s="2"/>
+    </row>
+    <row r="423">
+      <c r="C423" s="2"/>
+    </row>
+    <row r="424">
+      <c r="C424" s="2"/>
+    </row>
+    <row r="425">
+      <c r="C425" s="2"/>
+    </row>
+    <row r="426">
+      <c r="C426" s="2"/>
+    </row>
+    <row r="427">
+      <c r="C427" s="2"/>
+    </row>
+    <row r="428">
+      <c r="C428" s="2"/>
+    </row>
+    <row r="429">
+      <c r="C429" s="2"/>
+    </row>
+    <row r="430">
+      <c r="C430" s="2"/>
+    </row>
+    <row r="431">
+      <c r="C431" s="2"/>
+    </row>
+    <row r="432">
+      <c r="C432" s="2"/>
+    </row>
+    <row r="433">
+      <c r="C433" s="2"/>
+    </row>
+    <row r="434">
+      <c r="C434" s="2"/>
+    </row>
+    <row r="435">
+      <c r="C435" s="2"/>
+    </row>
+    <row r="436">
+      <c r="C436" s="2"/>
+    </row>
+    <row r="437">
+      <c r="C437" s="2"/>
+    </row>
+    <row r="438">
+      <c r="C438" s="2"/>
+    </row>
+    <row r="439">
+      <c r="C439" s="2"/>
+    </row>
+    <row r="440">
+      <c r="C440" s="2"/>
+    </row>
+    <row r="441">
+      <c r="C441" s="2"/>
+    </row>
+    <row r="442">
+      <c r="C442" s="2"/>
+    </row>
+    <row r="443">
+      <c r="C443" s="2"/>
+    </row>
+    <row r="444">
+      <c r="C444" s="2"/>
+    </row>
+    <row r="445">
+      <c r="C445" s="2"/>
+    </row>
+    <row r="446">
+      <c r="C446" s="2"/>
+    </row>
+    <row r="447">
+      <c r="C447" s="2"/>
+    </row>
+    <row r="448">
+      <c r="C448" s="2"/>
+    </row>
+    <row r="449">
+      <c r="C449" s="2"/>
+    </row>
+    <row r="450">
+      <c r="C450" s="2"/>
+    </row>
+    <row r="451">
+      <c r="C451" s="2"/>
+    </row>
+    <row r="452">
+      <c r="C452" s="2"/>
+    </row>
+    <row r="453">
+      <c r="C453" s="2"/>
+    </row>
+    <row r="454">
+      <c r="C454" s="2"/>
+    </row>
+    <row r="455">
+      <c r="C455" s="2"/>
+    </row>
+    <row r="456">
+      <c r="C456" s="2"/>
+    </row>
+    <row r="457">
+      <c r="C457" s="2"/>
+    </row>
+    <row r="458">
+      <c r="C458" s="2"/>
+    </row>
+    <row r="459">
+      <c r="C459" s="2"/>
+    </row>
+    <row r="460">
+      <c r="C460" s="2"/>
+    </row>
+    <row r="461">
+      <c r="C461" s="2"/>
+    </row>
+    <row r="462">
+      <c r="C462" s="2"/>
+    </row>
+    <row r="463">
+      <c r="C463" s="2"/>
+    </row>
+    <row r="464">
+      <c r="C464" s="2"/>
+    </row>
+    <row r="465">
+      <c r="C465" s="2"/>
+    </row>
+    <row r="466">
+      <c r="C466" s="2"/>
+    </row>
+    <row r="467">
+      <c r="C467" s="2"/>
+    </row>
+    <row r="468">
+      <c r="C468" s="2"/>
+    </row>
+    <row r="469">
+      <c r="C469" s="2"/>
+    </row>
+    <row r="470">
+      <c r="C470" s="2"/>
+    </row>
+    <row r="471">
+      <c r="C471" s="2"/>
+    </row>
+    <row r="472">
+      <c r="C472" s="2"/>
+    </row>
+    <row r="473">
+      <c r="C473" s="2"/>
+    </row>
+    <row r="474">
+      <c r="C474" s="2"/>
+    </row>
+    <row r="475">
+      <c r="C475" s="2"/>
+    </row>
+    <row r="476">
+      <c r="C476" s="2"/>
+    </row>
+    <row r="477">
+      <c r="C477" s="2"/>
+    </row>
+    <row r="478">
+      <c r="C478" s="2"/>
+    </row>
+    <row r="479">
+      <c r="C479" s="2"/>
+    </row>
+    <row r="480">
+      <c r="C480" s="2"/>
+    </row>
+    <row r="481">
+      <c r="C481" s="2"/>
+    </row>
+    <row r="482">
+      <c r="C482" s="2"/>
+    </row>
+    <row r="483">
+      <c r="C483" s="2"/>
+    </row>
+    <row r="484">
+      <c r="C484" s="2"/>
+    </row>
+    <row r="485">
+      <c r="C485" s="2"/>
+    </row>
+    <row r="486">
+      <c r="C486" s="2"/>
+    </row>
+    <row r="487">
+      <c r="C487" s="2"/>
+    </row>
+    <row r="488">
+      <c r="C488" s="2"/>
+    </row>
+    <row r="489">
+      <c r="C489" s="2"/>
+    </row>
+    <row r="490">
+      <c r="C490" s="2"/>
+    </row>
+    <row r="491">
+      <c r="C491" s="2"/>
+    </row>
+    <row r="492">
+      <c r="C492" s="2"/>
+    </row>
+    <row r="493">
+      <c r="C493" s="2"/>
+    </row>
+    <row r="494">
+      <c r="C494" s="2"/>
+    </row>
+    <row r="495">
+      <c r="C495" s="2"/>
+    </row>
+    <row r="496">
+      <c r="C496" s="2"/>
+    </row>
+    <row r="497">
+      <c r="C497" s="2"/>
+    </row>
+    <row r="498">
+      <c r="C498" s="2"/>
+    </row>
+    <row r="499">
+      <c r="C499" s="2"/>
+    </row>
+    <row r="500">
+      <c r="C500" s="2"/>
+    </row>
+    <row r="501">
+      <c r="C501" s="2"/>
+    </row>
+    <row r="502">
+      <c r="C502" s="2"/>
+    </row>
+    <row r="503">
+      <c r="C503" s="2"/>
+    </row>
+    <row r="504">
+      <c r="C504" s="2"/>
+    </row>
+    <row r="505">
+      <c r="C505" s="2"/>
+    </row>
+    <row r="506">
+      <c r="C506" s="2"/>
+    </row>
+    <row r="507">
+      <c r="C507" s="2"/>
+    </row>
+    <row r="508">
+      <c r="C508" s="2"/>
+    </row>
+    <row r="509">
+      <c r="C509" s="2"/>
+    </row>
+    <row r="510">
+      <c r="C510" s="2"/>
+    </row>
+    <row r="511">
+      <c r="C511" s="2"/>
+    </row>
+    <row r="512">
+      <c r="C512" s="2"/>
+    </row>
+    <row r="513">
+      <c r="C513" s="2"/>
+    </row>
+    <row r="514">
+      <c r="C514" s="2"/>
+    </row>
+    <row r="515">
+      <c r="C515" s="2"/>
+    </row>
+    <row r="516">
+      <c r="C516" s="2"/>
+    </row>
+    <row r="517">
+      <c r="C517" s="2"/>
+    </row>
+    <row r="518">
+      <c r="C518" s="2"/>
+    </row>
+    <row r="519">
+      <c r="C519" s="2"/>
+    </row>
+    <row r="520">
+      <c r="C520" s="2"/>
+    </row>
+    <row r="521">
+      <c r="C521" s="2"/>
+    </row>
+    <row r="522">
+      <c r="C522" s="2"/>
+    </row>
+    <row r="523">
+      <c r="C523" s="2"/>
+    </row>
+    <row r="524">
+      <c r="C524" s="2"/>
+    </row>
+    <row r="525">
+      <c r="C525" s="2"/>
+    </row>
+    <row r="526">
+      <c r="C526" s="2"/>
+    </row>
+    <row r="527">
+      <c r="C527" s="2"/>
+    </row>
+    <row r="528">
+      <c r="C528" s="2"/>
+    </row>
+    <row r="529">
+      <c r="C529" s="2"/>
+    </row>
+    <row r="530">
+      <c r="C530" s="2"/>
+    </row>
+    <row r="531">
+      <c r="C531" s="2"/>
+    </row>
+    <row r="532">
+      <c r="C532" s="2"/>
+    </row>
+    <row r="533">
+      <c r="C533" s="2"/>
+    </row>
+    <row r="534">
+      <c r="C534" s="2"/>
+    </row>
+    <row r="535">
+      <c r="C535" s="2"/>
+    </row>
+    <row r="536">
+      <c r="C536" s="2"/>
+    </row>
+    <row r="537">
+      <c r="C537" s="2"/>
+    </row>
+    <row r="538">
+      <c r="C538" s="2"/>
+    </row>
+    <row r="539">
+      <c r="C539" s="2"/>
+    </row>
+    <row r="540">
+      <c r="C540" s="2"/>
+    </row>
+    <row r="541">
+      <c r="C541" s="2"/>
+    </row>
+    <row r="542">
+      <c r="C542" s="2"/>
+    </row>
+    <row r="543">
+      <c r="C543" s="2"/>
+    </row>
+    <row r="544">
+      <c r="C544" s="2"/>
+    </row>
+    <row r="545">
+      <c r="C545" s="2"/>
+    </row>
+    <row r="546">
+      <c r="C546" s="2"/>
+    </row>
+    <row r="547">
+      <c r="C547" s="2"/>
+    </row>
+    <row r="548">
+      <c r="C548" s="2"/>
+    </row>
+    <row r="549">
+      <c r="C549" s="2"/>
+    </row>
+    <row r="550">
+      <c r="C550" s="2"/>
+    </row>
+    <row r="551">
+      <c r="C551" s="2"/>
+    </row>
+    <row r="552">
+      <c r="C552" s="2"/>
+    </row>
+    <row r="553">
+      <c r="C553" s="2"/>
+    </row>
+    <row r="554">
+      <c r="C554" s="2"/>
+    </row>
+    <row r="555">
+      <c r="C555" s="2"/>
+    </row>
+    <row r="556">
+      <c r="C556" s="2"/>
+    </row>
+    <row r="557">
+      <c r="C557" s="2"/>
+    </row>
+    <row r="558">
+      <c r="C558" s="2"/>
+    </row>
+    <row r="559">
+      <c r="C559" s="2"/>
+    </row>
+    <row r="560">
+      <c r="C560" s="2"/>
+    </row>
+    <row r="561">
+      <c r="C561" s="2"/>
+    </row>
+    <row r="562">
+      <c r="C562" s="2"/>
+    </row>
+    <row r="563">
+      <c r="C563" s="2"/>
+    </row>
+    <row r="564">
+      <c r="C564" s="2"/>
+    </row>
+    <row r="565">
+      <c r="C565" s="2"/>
+    </row>
+    <row r="566">
+      <c r="C566" s="2"/>
+    </row>
+    <row r="567">
+      <c r="C567" s="2"/>
+    </row>
+    <row r="568">
+      <c r="C568" s="2"/>
+    </row>
+    <row r="569">
+      <c r="C569" s="2"/>
+    </row>
+    <row r="570">
+      <c r="C570" s="2"/>
+    </row>
+    <row r="571">
+      <c r="C571" s="2"/>
+    </row>
+    <row r="572">
+      <c r="C572" s="2"/>
+    </row>
+    <row r="573">
+      <c r="C573" s="2"/>
+    </row>
+    <row r="574">
+      <c r="C574" s="2"/>
+    </row>
+    <row r="575">
+      <c r="C575" s="2"/>
+    </row>
+    <row r="576">
+      <c r="C576" s="2"/>
+    </row>
+    <row r="577">
+      <c r="C577" s="2"/>
+    </row>
+    <row r="578">
+      <c r="C578" s="2"/>
+    </row>
+    <row r="579">
+      <c r="C579" s="2"/>
+    </row>
+    <row r="580">
+      <c r="C580" s="2"/>
+    </row>
+    <row r="581">
+      <c r="C581" s="2"/>
+    </row>
+    <row r="582">
+      <c r="C582" s="2"/>
+    </row>
+    <row r="583">
+      <c r="C583" s="2"/>
+    </row>
+    <row r="584">
+      <c r="C584" s="2"/>
+    </row>
+    <row r="585">
+      <c r="C585" s="2"/>
+    </row>
+    <row r="586">
+      <c r="C586" s="2"/>
+    </row>
+    <row r="587">
+      <c r="C587" s="2"/>
+    </row>
+    <row r="588">
+      <c r="C588" s="2"/>
+    </row>
+    <row r="589">
+      <c r="C589" s="2"/>
+    </row>
+    <row r="590">
+      <c r="C590" s="2"/>
+    </row>
+    <row r="591">
+      <c r="C591" s="2"/>
+    </row>
+    <row r="592">
+      <c r="C592" s="2"/>
+    </row>
+    <row r="593">
+      <c r="C593" s="2"/>
+    </row>
+    <row r="594">
+      <c r="C594" s="2"/>
+    </row>
+    <row r="595">
+      <c r="C595" s="2"/>
+    </row>
+    <row r="596">
+      <c r="C596" s="2"/>
+    </row>
+    <row r="597">
+      <c r="C597" s="2"/>
+    </row>
+    <row r="598">
+      <c r="C598" s="2"/>
+    </row>
+    <row r="599">
+      <c r="C599" s="2"/>
+    </row>
+    <row r="600">
+      <c r="C600" s="2"/>
+    </row>
+    <row r="601">
+      <c r="C601" s="2"/>
+    </row>
+    <row r="602">
+      <c r="C602" s="2"/>
+    </row>
+    <row r="603">
+      <c r="C603" s="2"/>
+    </row>
+    <row r="604">
+      <c r="C604" s="2"/>
+    </row>
+    <row r="605">
+      <c r="C605" s="2"/>
+    </row>
+    <row r="606">
+      <c r="C606" s="2"/>
+    </row>
+    <row r="607">
+      <c r="C607" s="2"/>
+    </row>
+    <row r="608">
+      <c r="C608" s="2"/>
+    </row>
+    <row r="609">
+      <c r="C609" s="2"/>
+    </row>
+    <row r="610">
+      <c r="C610" s="2"/>
+    </row>
+    <row r="611">
+      <c r="C611" s="2"/>
+    </row>
+    <row r="612">
+      <c r="C612" s="2"/>
+    </row>
+    <row r="613">
+      <c r="C613" s="2"/>
+    </row>
+    <row r="614">
+      <c r="C614" s="2"/>
+    </row>
+    <row r="615">
+      <c r="C615" s="2"/>
+    </row>
+    <row r="616">
+      <c r="C616" s="2"/>
+    </row>
+    <row r="617">
+      <c r="C617" s="2"/>
+    </row>
+    <row r="618">
+      <c r="C618" s="2"/>
+    </row>
+    <row r="619">
+      <c r="C619" s="2"/>
+    </row>
+    <row r="620">
+      <c r="C620" s="2"/>
+    </row>
+    <row r="621">
+      <c r="C621" s="2"/>
+    </row>
+    <row r="622">
+      <c r="C622" s="2"/>
+    </row>
+    <row r="623">
+      <c r="C623" s="2"/>
+    </row>
+    <row r="624">
+      <c r="C624" s="2"/>
+    </row>
+    <row r="625">
+      <c r="C625" s="2"/>
+    </row>
+    <row r="626">
+      <c r="C626" s="2"/>
+    </row>
+    <row r="627">
+      <c r="C627" s="2"/>
+    </row>
+    <row r="628">
+      <c r="C628" s="2"/>
+    </row>
+    <row r="629">
+      <c r="C629" s="2"/>
+    </row>
+    <row r="630">
+      <c r="C630" s="2"/>
+    </row>
+    <row r="631">
+      <c r="C631" s="2"/>
+    </row>
+    <row r="632">
+      <c r="C632" s="2"/>
+    </row>
+    <row r="633">
+      <c r="C633" s="2"/>
+    </row>
+    <row r="634">
+      <c r="C634" s="2"/>
+    </row>
+    <row r="635">
+      <c r="C635" s="2"/>
+    </row>
+    <row r="636">
+      <c r="C636" s="2"/>
+    </row>
+    <row r="637">
+      <c r="C637" s="2"/>
+    </row>
+    <row r="638">
+      <c r="C638" s="2"/>
+    </row>
+    <row r="639">
+      <c r="C639" s="2"/>
+    </row>
+    <row r="640">
+      <c r="C640" s="2"/>
+    </row>
+    <row r="641">
+      <c r="C641" s="2"/>
+    </row>
+    <row r="642">
+      <c r="C642" s="2"/>
+    </row>
+    <row r="643">
+      <c r="C643" s="2"/>
+    </row>
+    <row r="644">
+      <c r="C644" s="2"/>
+    </row>
+    <row r="645">
+      <c r="C645" s="2"/>
+    </row>
+    <row r="646">
+      <c r="C646" s="2"/>
+    </row>
+    <row r="647">
+      <c r="C647" s="2"/>
+    </row>
+    <row r="648">
+      <c r="C648" s="2"/>
+    </row>
+    <row r="649">
+      <c r="C649" s="2"/>
+    </row>
+    <row r="650">
+      <c r="C650" s="2"/>
+    </row>
+    <row r="651">
+      <c r="C651" s="2"/>
+    </row>
+    <row r="652">
+      <c r="C652" s="2"/>
+    </row>
+    <row r="653">
+      <c r="C653" s="2"/>
+    </row>
+    <row r="654">
+      <c r="C654" s="2"/>
+    </row>
+    <row r="655">
+      <c r="C655" s="2"/>
+    </row>
+    <row r="656">
+      <c r="C656" s="2"/>
+    </row>
+    <row r="657">
+      <c r="C657" s="2"/>
+    </row>
+    <row r="658">
+      <c r="C658" s="2"/>
+    </row>
+    <row r="659">
+      <c r="C659" s="2"/>
+    </row>
+    <row r="660">
+      <c r="C660" s="2"/>
+    </row>
+    <row r="661">
+      <c r="C661" s="2"/>
+    </row>
+    <row r="662">
+      <c r="C662" s="2"/>
+    </row>
+    <row r="663">
+      <c r="C663" s="2"/>
+    </row>
+    <row r="664">
+      <c r="C664" s="2"/>
+    </row>
+    <row r="665">
+      <c r="C665" s="2"/>
+    </row>
+    <row r="666">
+      <c r="C666" s="2"/>
+    </row>
+    <row r="667">
+      <c r="C667" s="2"/>
+    </row>
+    <row r="668">
+      <c r="C668" s="2"/>
+    </row>
+    <row r="669">
+      <c r="C669" s="2"/>
+    </row>
+    <row r="670">
+      <c r="C670" s="2"/>
+    </row>
+    <row r="671">
+      <c r="C671" s="2"/>
+    </row>
+    <row r="672">
+      <c r="C672" s="2"/>
+    </row>
+    <row r="673">
+      <c r="C673" s="2"/>
+    </row>
+    <row r="674">
+      <c r="C674" s="2"/>
+    </row>
+    <row r="675">
+      <c r="C675" s="2"/>
+    </row>
+    <row r="676">
+      <c r="C676" s="2"/>
+    </row>
+    <row r="677">
+      <c r="C677" s="2"/>
+    </row>
+    <row r="678">
+      <c r="C678" s="2"/>
+    </row>
+    <row r="679">
+      <c r="C679" s="2"/>
+    </row>
+    <row r="680">
+      <c r="C680" s="2"/>
+    </row>
+    <row r="681">
+      <c r="C681" s="2"/>
+    </row>
+    <row r="682">
+      <c r="C682" s="2"/>
+    </row>
+    <row r="683">
+      <c r="C683" s="2"/>
+    </row>
+    <row r="684">
+      <c r="C684" s="2"/>
+    </row>
+    <row r="685">
+      <c r="C685" s="2"/>
+    </row>
+    <row r="686">
+      <c r="C686" s="2"/>
+    </row>
+    <row r="687">
+      <c r="C687" s="2"/>
+    </row>
+    <row r="688">
+      <c r="C688" s="2"/>
+    </row>
+    <row r="689">
+      <c r="C689" s="2"/>
+    </row>
+    <row r="690">
+      <c r="C690" s="2"/>
+    </row>
+    <row r="691">
+      <c r="C691" s="2"/>
+    </row>
+    <row r="692">
+      <c r="C692" s="2"/>
+    </row>
+    <row r="693">
+      <c r="C693" s="2"/>
+    </row>
+    <row r="694">
+      <c r="C694" s="2"/>
+    </row>
+    <row r="695">
+      <c r="C695" s="2"/>
+    </row>
+    <row r="696">
+      <c r="C696" s="2"/>
+    </row>
+    <row r="697">
+      <c r="C697" s="2"/>
+    </row>
+    <row r="698">
+      <c r="C698" s="2"/>
+    </row>
+    <row r="699">
+      <c r="C699" s="2"/>
+    </row>
+    <row r="700">
+      <c r="C700" s="2"/>
+    </row>
+    <row r="701">
+      <c r="C701" s="2"/>
+    </row>
+    <row r="702">
+      <c r="C702" s="2"/>
+    </row>
+    <row r="703">
+      <c r="C703" s="2"/>
+    </row>
+    <row r="704">
+      <c r="C704" s="2"/>
+    </row>
+    <row r="705">
+      <c r="C705" s="2"/>
+    </row>
+    <row r="706">
+      <c r="C706" s="2"/>
+    </row>
+    <row r="707">
+      <c r="C707" s="2"/>
+    </row>
+    <row r="708">
+      <c r="C708" s="2"/>
+    </row>
+    <row r="709">
+      <c r="C709" s="2"/>
+    </row>
+    <row r="710">
+      <c r="C710" s="2"/>
+    </row>
+    <row r="711">
+      <c r="C711" s="2"/>
+    </row>
+    <row r="712">
+      <c r="C712" s="2"/>
+    </row>
+    <row r="713">
+      <c r="C713" s="2"/>
+    </row>
+    <row r="714">
+      <c r="C714" s="2"/>
+    </row>
+    <row r="715">
+      <c r="C715" s="2"/>
+    </row>
+    <row r="716">
+      <c r="C716" s="2"/>
+    </row>
+    <row r="717">
+      <c r="C717" s="2"/>
+    </row>
+    <row r="718">
+      <c r="C718" s="2"/>
+    </row>
+    <row r="719">
+      <c r="C719" s="2"/>
+    </row>
+    <row r="720">
+      <c r="C720" s="2"/>
+    </row>
+    <row r="721">
+      <c r="C721" s="2"/>
+    </row>
+    <row r="722">
+      <c r="C722" s="2"/>
+    </row>
+    <row r="723">
+      <c r="C723" s="2"/>
+    </row>
+    <row r="724">
+      <c r="C724" s="2"/>
+    </row>
+    <row r="725">
+      <c r="C725" s="2"/>
+    </row>
+    <row r="726">
+      <c r="C726" s="2"/>
+    </row>
+    <row r="727">
+      <c r="C727" s="2"/>
+    </row>
+    <row r="728">
+      <c r="C728" s="2"/>
+    </row>
+    <row r="729">
+      <c r="C729" s="2"/>
+    </row>
+    <row r="730">
+      <c r="C730" s="2"/>
+    </row>
+    <row r="731">
+      <c r="C731" s="2"/>
+    </row>
+    <row r="732">
+      <c r="C732" s="2"/>
+    </row>
+    <row r="733">
+      <c r="C733" s="2"/>
+    </row>
+    <row r="734">
+      <c r="C734" s="2"/>
+    </row>
+    <row r="735">
+      <c r="C735" s="2"/>
+    </row>
+    <row r="736">
+      <c r="C736" s="2"/>
+    </row>
+    <row r="737">
+      <c r="C737" s="2"/>
+    </row>
+    <row r="738">
+      <c r="C738" s="2"/>
+    </row>
+    <row r="739">
+      <c r="C739" s="2"/>
+    </row>
+    <row r="740">
+      <c r="C740" s="2"/>
+    </row>
+    <row r="741">
+      <c r="C741" s="2"/>
+    </row>
+    <row r="742">
+      <c r="C742" s="2"/>
+    </row>
+    <row r="743">
+      <c r="C743" s="2"/>
+    </row>
+    <row r="744">
+      <c r="C744" s="2"/>
+    </row>
+    <row r="745">
+      <c r="C745" s="2"/>
+    </row>
+    <row r="746">
+      <c r="C746" s="2"/>
+    </row>
+    <row r="747">
+      <c r="C747" s="2"/>
+    </row>
+    <row r="748">
+      <c r="C748" s="2"/>
+    </row>
+    <row r="749">
+      <c r="C749" s="2"/>
+    </row>
+    <row r="750">
+      <c r="C750" s="2"/>
+    </row>
+    <row r="751">
+      <c r="C751" s="2"/>
+    </row>
+    <row r="752">
+      <c r="C752" s="2"/>
+    </row>
+    <row r="753">
+      <c r="C753" s="2"/>
+    </row>
+    <row r="754">
+      <c r="C754" s="2"/>
+    </row>
+    <row r="755">
+      <c r="C755" s="2"/>
+    </row>
+    <row r="756">
+      <c r="C756" s="2"/>
+    </row>
+    <row r="757">
+      <c r="C757" s="2"/>
+    </row>
+    <row r="758">
+      <c r="C758" s="2"/>
+    </row>
+    <row r="759">
+      <c r="C759" s="2"/>
+    </row>
+    <row r="760">
+      <c r="C760" s="2"/>
+    </row>
+    <row r="761">
+      <c r="C761" s="2"/>
+    </row>
+    <row r="762">
+      <c r="C762" s="2"/>
+    </row>
+    <row r="763">
+      <c r="C763" s="2"/>
+    </row>
+    <row r="764">
+      <c r="C764" s="2"/>
+    </row>
+    <row r="765">
+      <c r="C765" s="2"/>
+    </row>
+    <row r="766">
+      <c r="C766" s="2"/>
+    </row>
+    <row r="767">
+      <c r="C767" s="2"/>
+    </row>
+    <row r="768">
+      <c r="C768" s="2"/>
+    </row>
+    <row r="769">
+      <c r="C769" s="2"/>
+    </row>
+    <row r="770">
+      <c r="C770" s="2"/>
+    </row>
+    <row r="771">
+      <c r="C771" s="2"/>
+    </row>
+    <row r="772">
+      <c r="C772" s="2"/>
+    </row>
+    <row r="773">
+      <c r="C773" s="2"/>
+    </row>
+    <row r="774">
+      <c r="C774" s="2"/>
+    </row>
+    <row r="775">
+      <c r="C775" s="2"/>
+    </row>
+    <row r="776">
+      <c r="C776" s="2"/>
+    </row>
+    <row r="777">
+      <c r="C777" s="2"/>
+    </row>
+    <row r="778">
+      <c r="C778" s="2"/>
+    </row>
+    <row r="779">
+      <c r="C779" s="2"/>
+    </row>
+    <row r="780">
+      <c r="C780" s="2"/>
+    </row>
+    <row r="781">
+      <c r="C781" s="2"/>
+    </row>
+    <row r="782">
+      <c r="C782" s="2"/>
+    </row>
+    <row r="783">
+      <c r="C783" s="2"/>
+    </row>
+    <row r="784">
+      <c r="C784" s="2"/>
+    </row>
+    <row r="785">
+      <c r="C785" s="2"/>
+    </row>
+    <row r="786">
+      <c r="C786" s="2"/>
+    </row>
+    <row r="787">
+      <c r="C787" s="2"/>
+    </row>
+    <row r="788">
+      <c r="C788" s="2"/>
+    </row>
+    <row r="789">
+      <c r="C789" s="2"/>
+    </row>
+    <row r="790">
+      <c r="C790" s="2"/>
+    </row>
+    <row r="791">
+      <c r="C791" s="2"/>
+    </row>
+    <row r="792">
+      <c r="C792" s="2"/>
+    </row>
+    <row r="793">
+      <c r="C793" s="2"/>
+    </row>
+    <row r="794">
+      <c r="C794" s="2"/>
+    </row>
+    <row r="795">
+      <c r="C795" s="2"/>
+    </row>
+    <row r="796">
+      <c r="C796" s="2"/>
+    </row>
+    <row r="797">
+      <c r="C797" s="2"/>
+    </row>
+    <row r="798">
+      <c r="C798" s="2"/>
+    </row>
+    <row r="799">
+      <c r="C799" s="2"/>
+    </row>
+    <row r="800">
+      <c r="C800" s="2"/>
+    </row>
+    <row r="801">
+      <c r="C801" s="2"/>
+    </row>
+    <row r="802">
+      <c r="C802" s="2"/>
+    </row>
+    <row r="803">
+      <c r="C803" s="2"/>
+    </row>
+    <row r="804">
+      <c r="C804" s="2"/>
+    </row>
+    <row r="805">
+      <c r="C805" s="2"/>
+    </row>
+    <row r="806">
+      <c r="C806" s="2"/>
+    </row>
+    <row r="807">
+      <c r="C807" s="2"/>
+    </row>
+    <row r="808">
+      <c r="C808" s="2"/>
+    </row>
+    <row r="809">
+      <c r="C809" s="2"/>
+    </row>
+    <row r="810">
+      <c r="C810" s="2"/>
+    </row>
+    <row r="811">
+      <c r="C811" s="2"/>
+    </row>
+    <row r="812">
+      <c r="C812" s="2"/>
+    </row>
+    <row r="813">
+      <c r="C813" s="2"/>
+    </row>
+    <row r="814">
+      <c r="C814" s="2"/>
+    </row>
+    <row r="815">
+      <c r="C815" s="2"/>
+    </row>
+    <row r="816">
+      <c r="C816" s="2"/>
+    </row>
+    <row r="817">
+      <c r="C817" s="2"/>
+    </row>
+    <row r="818">
+      <c r="C818" s="2"/>
+    </row>
+    <row r="819">
+      <c r="C819" s="2"/>
+    </row>
+    <row r="820">
+      <c r="C820" s="2"/>
+    </row>
+    <row r="821">
+      <c r="C821" s="2"/>
+    </row>
+    <row r="822">
+      <c r="C822" s="2"/>
+    </row>
+    <row r="823">
+      <c r="C823" s="2"/>
+    </row>
+    <row r="824">
+      <c r="C824" s="2"/>
+    </row>
+    <row r="825">
+      <c r="C825" s="2"/>
+    </row>
+    <row r="826">
+      <c r="C826" s="2"/>
+    </row>
+    <row r="827">
+      <c r="C827" s="2"/>
+    </row>
+    <row r="828">
+      <c r="C828" s="2"/>
+    </row>
+    <row r="829">
+      <c r="C829" s="2"/>
+    </row>
+    <row r="830">
+      <c r="C830" s="2"/>
+    </row>
+    <row r="831">
+      <c r="C831" s="2"/>
+    </row>
+    <row r="832">
+      <c r="C832" s="2"/>
+    </row>
+    <row r="833">
+      <c r="C833" s="2"/>
+    </row>
+    <row r="834">
+      <c r="C834" s="2"/>
+    </row>
+    <row r="835">
+      <c r="C835" s="2"/>
+    </row>
+    <row r="836">
+      <c r="C836" s="2"/>
+    </row>
+    <row r="837">
+      <c r="C837" s="2"/>
+    </row>
+    <row r="838">
+      <c r="C838" s="2"/>
+    </row>
+    <row r="839">
+      <c r="C839" s="2"/>
+    </row>
+    <row r="840">
+      <c r="C840" s="2"/>
+    </row>
+    <row r="841">
+      <c r="C841" s="2"/>
+    </row>
+    <row r="842">
+      <c r="C842" s="2"/>
+    </row>
+    <row r="843">
+      <c r="C843" s="2"/>
+    </row>
+    <row r="844">
+      <c r="C844" s="2"/>
+    </row>
+    <row r="845">
+      <c r="C845" s="2"/>
+    </row>
+    <row r="846">
+      <c r="C846" s="2"/>
+    </row>
+    <row r="847">
+      <c r="C847" s="2"/>
+    </row>
+    <row r="848">
+      <c r="C848" s="2"/>
+    </row>
+    <row r="849">
+      <c r="C849" s="2"/>
+    </row>
+    <row r="850">
+      <c r="C850" s="2"/>
+    </row>
+    <row r="851">
+      <c r="C851" s="2"/>
+    </row>
+    <row r="852">
+      <c r="C852" s="2"/>
+    </row>
+    <row r="853">
+      <c r="C853" s="2"/>
+    </row>
+    <row r="854">
+      <c r="C854" s="2"/>
+    </row>
+    <row r="855">
+      <c r="C855" s="2"/>
+    </row>
+    <row r="856">
+      <c r="C856" s="2"/>
+    </row>
+    <row r="857">
+      <c r="C857" s="2"/>
+    </row>
+    <row r="858">
+      <c r="C858" s="2"/>
+    </row>
+    <row r="859">
+      <c r="C859" s="2"/>
+    </row>
+    <row r="860">
+      <c r="C860" s="2"/>
+    </row>
+    <row r="861">
+      <c r="C861" s="2"/>
+    </row>
+    <row r="862">
+      <c r="C862" s="2"/>
+    </row>
+    <row r="863">
+      <c r="C863" s="2"/>
+    </row>
+    <row r="864">
+      <c r="C864" s="2"/>
+    </row>
+    <row r="865">
+      <c r="C865" s="2"/>
+    </row>
+    <row r="866">
+      <c r="C866" s="2"/>
+    </row>
+    <row r="867">
+      <c r="C867" s="2"/>
+    </row>
+    <row r="868">
+      <c r="C868" s="2"/>
+    </row>
+    <row r="869">
+      <c r="C869" s="2"/>
+    </row>
+    <row r="870">
+      <c r="C870" s="2"/>
+    </row>
+    <row r="871">
+      <c r="C871" s="2"/>
+    </row>
+    <row r="872">
+      <c r="C872" s="2"/>
+    </row>
+    <row r="873">
+      <c r="C873" s="2"/>
+    </row>
+    <row r="874">
+      <c r="C874" s="2"/>
+    </row>
+    <row r="875">
+      <c r="C875" s="2"/>
+    </row>
+    <row r="876">
+      <c r="C876" s="2"/>
+    </row>
+    <row r="877">
+      <c r="C877" s="2"/>
+    </row>
+    <row r="878">
+      <c r="C878" s="2"/>
+    </row>
+    <row r="879">
+      <c r="C879" s="2"/>
+    </row>
+    <row r="880">
+      <c r="C880" s="2"/>
+    </row>
+    <row r="881">
+      <c r="C881" s="2"/>
+    </row>
+    <row r="882">
+      <c r="C882" s="2"/>
+    </row>
+    <row r="883">
+      <c r="C883" s="2"/>
+    </row>
+    <row r="884">
+      <c r="C884" s="2"/>
+    </row>
+    <row r="885">
+      <c r="C885" s="2"/>
+    </row>
+    <row r="886">
+      <c r="C886" s="2"/>
+    </row>
+    <row r="887">
+      <c r="C887" s="2"/>
+    </row>
+    <row r="888">
+      <c r="C888" s="2"/>
+    </row>
+    <row r="889">
+      <c r="C889" s="2"/>
+    </row>
+    <row r="890">
+      <c r="C890" s="2"/>
+    </row>
+    <row r="891">
+      <c r="C891" s="2"/>
+    </row>
+    <row r="892">
+      <c r="C892" s="2"/>
+    </row>
+    <row r="893">
+      <c r="C893" s="2"/>
+    </row>
+    <row r="894">
+      <c r="C894" s="2"/>
+    </row>
+    <row r="895">
+      <c r="C895" s="2"/>
+    </row>
+    <row r="896">
+      <c r="C896" s="2"/>
+    </row>
+    <row r="897">
+      <c r="C897" s="2"/>
+    </row>
+    <row r="898">
+      <c r="C898" s="2"/>
+    </row>
+    <row r="899">
+      <c r="C899" s="2"/>
+    </row>
+    <row r="900">
+      <c r="C900" s="2"/>
+    </row>
+    <row r="901">
+      <c r="C901" s="2"/>
+    </row>
+    <row r="902">
+      <c r="C902" s="2"/>
+    </row>
+    <row r="903">
+      <c r="C903" s="2"/>
+    </row>
+    <row r="904">
+      <c r="C904" s="2"/>
+    </row>
+    <row r="905">
+      <c r="C905" s="2"/>
+    </row>
+    <row r="906">
+      <c r="C906" s="2"/>
+    </row>
+    <row r="907">
+      <c r="C907" s="2"/>
+    </row>
+    <row r="908">
+      <c r="C908" s="2"/>
+    </row>
+    <row r="909">
+      <c r="C909" s="2"/>
+    </row>
+    <row r="910">
+      <c r="C910" s="2"/>
+    </row>
+    <row r="911">
+      <c r="C911" s="2"/>
+    </row>
+    <row r="912">
+      <c r="C912" s="2"/>
+    </row>
+    <row r="913">
+      <c r="C913" s="2"/>
+    </row>
+    <row r="914">
+      <c r="C914" s="2"/>
+    </row>
+    <row r="915">
+      <c r="C915" s="2"/>
+    </row>
+    <row r="916">
+      <c r="C916" s="2"/>
+    </row>
+    <row r="917">
+      <c r="C917" s="2"/>
+    </row>
+    <row r="918">
+      <c r="C918" s="2"/>
+    </row>
+    <row r="919">
+      <c r="C919" s="2"/>
+    </row>
+    <row r="920">
+      <c r="C920" s="2"/>
+    </row>
+    <row r="921">
+      <c r="C921" s="2"/>
+    </row>
+    <row r="922">
+      <c r="C922" s="2"/>
+    </row>
+    <row r="923">
+      <c r="C923" s="2"/>
+    </row>
+    <row r="924">
+      <c r="C924" s="2"/>
+    </row>
+    <row r="925">
+      <c r="C925" s="2"/>
+    </row>
+    <row r="926">
+      <c r="C926" s="2"/>
+    </row>
+    <row r="927">
+      <c r="C927" s="2"/>
+    </row>
+    <row r="928">
+      <c r="C928" s="2"/>
+    </row>
+    <row r="929">
+      <c r="C929" s="2"/>
+    </row>
+    <row r="930">
+      <c r="C930" s="2"/>
+    </row>
+    <row r="931">
+      <c r="C931" s="2"/>
+    </row>
+    <row r="932">
+      <c r="C932" s="2"/>
+    </row>
+    <row r="933">
+      <c r="C933" s="2"/>
+    </row>
+    <row r="934">
+      <c r="C934" s="2"/>
+    </row>
+    <row r="935">
+      <c r="C935" s="2"/>
+    </row>
+    <row r="936">
+      <c r="C936" s="2"/>
+    </row>
+    <row r="937">
+      <c r="C937" s="2"/>
+    </row>
+    <row r="938">
+      <c r="C938" s="2"/>
+    </row>
+    <row r="939">
+      <c r="C939" s="2"/>
+    </row>
+    <row r="940">
+      <c r="C940" s="2"/>
+    </row>
+    <row r="941">
+      <c r="C941" s="2"/>
+    </row>
+    <row r="942">
+      <c r="C942" s="2"/>
+    </row>
+    <row r="943">
+      <c r="C943" s="2"/>
+    </row>
+    <row r="944">
+      <c r="C944" s="2"/>
+    </row>
+    <row r="945">
+      <c r="C945" s="2"/>
+    </row>
+    <row r="946">
+      <c r="C946" s="2"/>
+    </row>
+    <row r="947">
+      <c r="C947" s="2"/>
+    </row>
+    <row r="948">
+      <c r="C948" s="2"/>
+    </row>
+    <row r="949">
+      <c r="C949" s="2"/>
+    </row>
+    <row r="950">
+      <c r="C950" s="2"/>
+    </row>
+    <row r="951">
+      <c r="C951" s="2"/>
+    </row>
+    <row r="952">
+      <c r="C952" s="2"/>
+    </row>
+    <row r="953">
+      <c r="C953" s="2"/>
+    </row>
+    <row r="954">
+      <c r="C954" s="2"/>
+    </row>
+    <row r="955">
+      <c r="C955" s="2"/>
+    </row>
+    <row r="956">
+      <c r="C956" s="2"/>
+    </row>
+    <row r="957">
+      <c r="C957" s="2"/>
+    </row>
+    <row r="958">
+      <c r="C958" s="2"/>
+    </row>
+    <row r="959">
+      <c r="C959" s="2"/>
+    </row>
+    <row r="960">
+      <c r="C960" s="2"/>
+    </row>
+    <row r="961">
+      <c r="C961" s="2"/>
+    </row>
+    <row r="962">
+      <c r="C962" s="2"/>
+    </row>
+    <row r="963">
+      <c r="C963" s="2"/>
+    </row>
+    <row r="964">
+      <c r="C964" s="2"/>
+    </row>
+    <row r="965">
+      <c r="C965" s="2"/>
+    </row>
+    <row r="966">
+      <c r="C966" s="2"/>
+    </row>
+    <row r="967">
+      <c r="C967" s="2"/>
+    </row>
+    <row r="968">
+      <c r="C968" s="2"/>
+    </row>
+    <row r="969">
+      <c r="C969" s="2"/>
+    </row>
+    <row r="970">
+      <c r="C970" s="2"/>
+    </row>
+    <row r="971">
+      <c r="C971" s="2"/>
+    </row>
+    <row r="972">
+      <c r="C972" s="2"/>
+    </row>
+    <row r="973">
+      <c r="C973" s="2"/>
+    </row>
+    <row r="974">
+      <c r="C974" s="2"/>
+    </row>
+    <row r="975">
+      <c r="C975" s="2"/>
+    </row>
+    <row r="976">
+      <c r="C976" s="2"/>
+    </row>
+    <row r="977">
+      <c r="C977" s="2"/>
+    </row>
+    <row r="978">
+      <c r="C978" s="2"/>
+    </row>
+    <row r="979">
+      <c r="C979" s="2"/>
+    </row>
+    <row r="980">
+      <c r="C980" s="2"/>
+    </row>
+    <row r="981">
+      <c r="C981" s="2"/>
+    </row>
+    <row r="982">
+      <c r="C982" s="2"/>
+    </row>
+    <row r="983">
+      <c r="C983" s="2"/>
+    </row>
+    <row r="984">
+      <c r="C984" s="2"/>
+    </row>
+    <row r="985">
+      <c r="C985" s="2"/>
+    </row>
+    <row r="986">
+      <c r="C986" s="2"/>
+    </row>
+    <row r="987">
+      <c r="C987" s="2"/>
+    </row>
+    <row r="988">
+      <c r="C988" s="2"/>
+    </row>
+    <row r="989">
+      <c r="C989" s="2"/>
+    </row>
+    <row r="990">
+      <c r="C990" s="2"/>
+    </row>
+    <row r="991">
+      <c r="C991" s="2"/>
+    </row>
+    <row r="992">
+      <c r="C992" s="2"/>
+    </row>
+    <row r="993">
+      <c r="C993" s="2"/>
+    </row>
+    <row r="994">
+      <c r="C994" s="2"/>
+    </row>
+    <row r="995">
+      <c r="C995" s="2"/>
+    </row>
+    <row r="996">
+      <c r="C996" s="2"/>
+    </row>
+    <row r="997">
+      <c r="C997" s="2"/>
+    </row>
+    <row r="998">
+      <c r="C998" s="2"/>
+    </row>
+    <row r="999">
+      <c r="C999" s="2"/>
+    </row>
+    <row r="1000">
+      <c r="C1000" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4475,6 +8427,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="10.38"/>
     <col customWidth="1" min="3" max="3" width="30.25"/>
     <col customWidth="1" min="4" max="4" width="12.13"/>
     <col customWidth="1" min="5" max="5" width="77.0"/>
@@ -4482,19 +8435,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4524,16 +8477,16 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D2" s="5">
         <v>4.0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3">
@@ -4541,16 +8494,16 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="D3" s="5">
         <v>4.0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4">
@@ -4558,10 +8511,10 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="D4" s="5">
         <v>4.0</v>
@@ -4573,10 +8526,10 @@
         <v>2.0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="D5" s="5">
         <v>4.0</v>
@@ -4588,10 +8541,10 @@
         <v>2.0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="D6" s="5">
         <v>4.0</v>
@@ -4603,44 +8556,44 @@
         <v>3.0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="D7" s="5">
         <v>1.0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3">
         <v>4.0</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>91</v>
+      <c r="B8" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="D8" s="5">
         <v>3.0</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>93</v>
+      <c r="E8" s="12" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3">
         <v>4.0</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>94</v>
+      <c r="B9" s="11" t="s">
+        <v>119</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="D9" s="5">
         <v>1.0</v>
@@ -4652,44 +8605,44 @@
         <v>4.0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="D10" s="5">
         <v>4.0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3">
         <v>5.0</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>99</v>
+      <c r="B11" s="11" t="s">
+        <v>124</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="D11" s="5">
         <v>3.0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3">
         <v>5.0</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>102</v>
+      <c r="B12" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="D12" s="5">
         <v>1.0</v>
@@ -4701,16 +8654,16 @@
         <v>5.0</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="D13" s="5">
         <v>4.0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14">
@@ -4718,16 +8671,16 @@
         <v>6.0</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="D14" s="5">
         <v>4.0</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15">
@@ -4735,16 +8688,16 @@
         <v>6.0</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="D15" s="5">
         <v>4.0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16">
@@ -4752,16 +8705,16 @@
         <v>7.0</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="D16" s="5">
         <v>4.0</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17">
@@ -4769,10 +8722,10 @@
         <v>7.0</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="D17" s="5">
         <v>4.0</v>
@@ -4783,34 +8736,34 @@
       <c r="A18" s="3">
         <v>8.0</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>118</v>
+      <c r="B18" s="11" t="s">
+        <v>143</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="D18" s="5">
         <v>3.0</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3">
         <v>8.0</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>121</v>
+      <c r="B19" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="D19" s="5">
         <v>1.0</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20">
@@ -4818,16 +8771,16 @@
         <v>9.0</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="D20" s="5">
         <v>4.0</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21">
@@ -4835,16 +8788,16 @@
         <v>10.0</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="D21" s="5">
         <v>3.0</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22">
@@ -4852,16 +8805,16 @@
         <v>11.0</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="D22" s="5">
         <v>3.0</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23">
@@ -4869,16 +8822,16 @@
         <v>11.0</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="D23" s="5">
         <v>3.0</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24">
@@ -4886,16 +8839,16 @@
         <v>12.0</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="D24" s="5">
         <v>4.0</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25">
@@ -4903,16 +8856,16 @@
         <v>13.0</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="D25" s="5">
         <v>4.0</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26">
@@ -4920,16 +8873,16 @@
         <v>14.0</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="D26" s="5">
         <v>3.0</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27">
@@ -4937,16 +8890,16 @@
         <v>15.0</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="D27" s="5">
         <v>4.0</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28">
@@ -4954,10 +8907,10 @@
         <v>15.0</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="D28" s="5">
         <v>4.0</v>
@@ -4969,16 +8922,16 @@
         <v>16.0</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="D29" s="5">
         <v>4.0</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30">
@@ -4986,16 +8939,16 @@
         <v>17.0</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="D30" s="5">
         <v>4.0</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31">
@@ -5003,16 +8956,16 @@
         <v>18.0</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="D31" s="5">
         <v>3.0</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32">
@@ -5020,16 +8973,16 @@
         <v>18.0</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="D32" s="5">
         <v>3.0</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33">
@@ -5037,16 +8990,16 @@
         <v>19.0</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="D33" s="5">
         <v>3.0</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34">
@@ -5054,16 +9007,16 @@
         <v>20.0</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="D34" s="5">
         <v>3.0</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35">
@@ -5071,16 +9024,16 @@
         <v>21.0</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="D35" s="5">
         <v>3.0</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36">
@@ -5088,16 +9041,16 @@
         <v>22.0</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="D36" s="5">
         <v>3.0</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37">
@@ -5105,16 +9058,16 @@
         <v>23.0</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="D37" s="5">
         <v>3.0</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38">
@@ -5122,16 +9075,16 @@
         <v>24.0</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="D38" s="5">
         <v>4.0</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39">
@@ -5139,16 +9092,16 @@
         <v>25.0</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="D39" s="5">
         <v>4.0</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40">
@@ -5156,16 +9109,16 @@
         <v>26.0</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="D40" s="5">
         <v>3.0</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41">
@@ -5173,16 +9126,16 @@
         <v>27.0</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D41" s="5">
         <v>3.0</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42">
@@ -5190,16 +9143,16 @@
         <v>28.0</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="D42" s="5">
         <v>4.0</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
     </row>
     <row r="43">
@@ -5207,16 +9160,16 @@
         <v>29.0</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="D43" s="5">
         <v>3.0</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44">
@@ -5224,16 +9177,16 @@
         <v>30.0</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="D44" s="5">
         <v>1.0</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
     </row>
     <row r="45">
@@ -5241,16 +9194,16 @@
         <v>31.0</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="D45" s="5">
         <v>3.0</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46">
@@ -5258,16 +9211,16 @@
         <v>32.0</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="D46" s="5">
         <v>2.0</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
     </row>
     <row r="47">
@@ -5275,181 +9228,714 @@
         <v>33.0</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="D47" s="5">
         <v>3.0</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
     </row>
     <row r="48">
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
+      <c r="A48" s="3">
+        <v>34.0</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D48" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="49">
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
+      <c r="A49" s="3">
+        <v>34.0</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D49" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="50">
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
+      <c r="A50" s="3">
+        <v>35.0</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D50" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="51">
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
+      <c r="A51" s="3">
+        <v>35.0</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D51" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="52">
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
+      <c r="A52" s="3">
+        <v>36.0</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D52" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="53">
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
+      <c r="A53" s="3">
+        <v>37.0</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D53" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="54">
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
+      <c r="A54" s="3">
+        <v>38.0</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D54" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="55">
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
+      <c r="A55" s="3">
+        <v>39.0</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D55" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="56">
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
+      <c r="A56" s="3">
+        <v>40.0</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D56" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="57">
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
+      <c r="A57" s="3">
+        <v>40.0</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D57" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="58">
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
+      <c r="A58" s="3">
+        <v>41.0</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D58" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="59">
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
+      <c r="A59" s="3">
+        <v>41.0</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D59" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="60">
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
+      <c r="A60" s="3">
+        <v>42.0</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D60" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="61">
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
+      <c r="A61" s="3">
+        <v>43.0</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D61" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="62">
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
+      <c r="A62" s="3">
+        <v>44.0</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D62" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="63">
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
+      <c r="A63" s="3">
+        <v>45.0</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D63" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="64">
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
+      <c r="A64" s="3">
+        <v>46.0</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D64" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="65">
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
+      <c r="A65" s="3">
+        <v>47.0</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D65" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="66">
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
+      <c r="A66" s="3">
+        <v>48.0</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D66" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="67">
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
+      <c r="A67" s="3">
+        <v>49.0</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D67" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="68">
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
+      <c r="A68" s="3">
+        <v>49.0</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D68" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="69">
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
+      <c r="A69" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D69" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="70">
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
+      <c r="A70" s="3">
+        <v>51.0</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D70" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="71">
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
+      <c r="A71" s="3">
+        <v>52.0</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D71" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="72">
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
+      <c r="A72" s="3">
+        <v>53.0</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D72" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="73">
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
+      <c r="A73" s="3">
+        <v>54.0</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D73" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="74">
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
+      <c r="A74" s="3">
+        <v>54.0</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D74" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="75">
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
+      <c r="A75" s="3">
+        <v>55.0</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D75" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="76">
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
+      <c r="A76" s="3">
+        <v>56.0</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D76" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="77">
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
+      <c r="A77" s="3">
+        <v>57.0</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D77" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="78">
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
+      <c r="A78" s="3">
+        <v>56.0</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D78" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="79">
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
+      <c r="A79" s="3">
+        <v>57.0</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="80">
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
+      <c r="A80" s="3">
+        <v>58.0</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D80" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="81">
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
+      <c r="A81" s="3">
+        <v>59.0</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D81" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="82">
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
+      <c r="A82" s="3">
+        <v>60.0</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D82" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="83">
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
+      <c r="A83" s="3">
+        <v>61.0</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D83" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="84">
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
+      <c r="A84" s="3">
+        <v>62.0</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D84" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="85">
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
+      <c r="A85" s="3">
+        <v>63.0</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D85" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="86">
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
+      <c r="A86" s="3">
+        <v>64.0</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D86" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="87">
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
+      <c r="A87" s="3">
+        <v>65.0</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D87" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="88">
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
+      <c r="A88" s="3">
+        <v>66.0</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D88" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="89">
       <c r="D89" s="2"/>
@@ -9099,8 +13585,19 @@
       <c r="D1000" s="2"/>
       <c r="E1000" s="2"/>
     </row>
+    <row r="1001">
+      <c r="D1001" s="2"/>
+      <c r="E1001" s="2"/>
+    </row>
+    <row r="1002">
+      <c r="D1002" s="2"/>
+      <c r="E1002" s="2"/>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="E74"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9114,21 +13611,621 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="4" width="19.75"/>
+    <col customWidth="1" min="3" max="5" width="19.75"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>206</v>
+        <v>343</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>344</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>207</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>208</v>
+        <v>345</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="3">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B10" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D18" s="3">
+        <v>152.0</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="3">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="3">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" s="3">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" s="3">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F39" s="3">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="14.88"/>
+    <col customWidth="1" min="3" max="3" width="21.5"/>
+    <col customWidth="1" min="4" max="4" width="22.13"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>358</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -9152,72 +14249,6 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-    </row>
-    <row r="2">
-      <c r="B2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="14.88"/>
-    <col customWidth="1" min="3" max="3" width="21.5"/>
-    <col customWidth="1" min="4" max="4" width="22.13"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -9251,13 +14282,13 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>214</v>
+        <v>359</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>215</v>
+        <v>360</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>216</v>
+        <v>361</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>9</v>
@@ -9478,6 +14509,20 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
@@ -9490,16 +14535,16 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>214</v>
+        <v>359</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>215</v>
+        <v>360</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>216</v>
+        <v>361</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>9</v>
